--- a/media/utils/tmplexcel/liway_lv.xlsx
+++ b/media/utils/tmplexcel/liway_lv.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <r>
       <t>Tháng 11 năm 2019</t>
@@ -34,15 +34,6 @@
     </r>
   </si>
   <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Mã Nhân Viên</t>
-  </si>
-  <si>
-    <t>Họ và tên</t>
-  </si>
-  <si>
     <t>NGÀY TRONG THÁNG</t>
   </si>
   <si>
@@ -128,24 +119,6 @@
     <t>Ghi chú:</t>
   </si>
   <si>
-    <t>Giờ tăng ca ngày làm bình thường từ 6:00 - 22:00</t>
-  </si>
-  <si>
-    <t>Giờ tăng ca đêm ngày làm bình thường từ 22:00 - 6:00 (bao gồm phụ cấp ca đêm 30%)</t>
-  </si>
-  <si>
-    <t>Giờ tăng ca ngày nghỉ tuần từ 6:00 - 22:00</t>
-  </si>
-  <si>
-    <t>Giờ tăng ca đêm ngày nghỉ tuần từ 22:00 - 6:00 (bao gồm phụ cấp ca đêm 30%)</t>
-  </si>
-  <si>
-    <t>Giờ tăng ca ngày lễ từ 6:00 - 22:00</t>
-  </si>
-  <si>
-    <t>Giờ tăng ca đêm ngày lễ từ 22:00 - 6:00 (bao gồm phụ cấp ca đêm 30%)</t>
-  </si>
-  <si>
     <t>Tổng Công + (Vắng có lương: PN  + CT + KH+ PT)</t>
   </si>
   <si>
@@ -167,6 +140,18 @@
   <si>
     <t>THÁNG
 (Month)</t>
+  </si>
+  <si>
+    <t>STT
+(No.)</t>
+  </si>
+  <si>
+    <t>Mã Nhân Viên
+(EmpCode)</t>
+  </si>
+  <si>
+    <t>Họ và Tên
+(FullName)</t>
   </si>
 </sst>
 </file>
@@ -458,7 +443,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -630,21 +615,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF0070C0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -966,6 +936,60 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -977,7 +1001,7 @@
     <xf numFmtId="168" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -985,85 +1009,73 @@
     <xf numFmtId="3" fontId="10" fillId="3" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1101,40 +1113,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1168,17 +1177,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1204,18 +1258,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1243,13 +1291,13 @@
     <xf numFmtId="165" fontId="6" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="22" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1285,37 +1333,40 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="23" fillId="2" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="23" fillId="2" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="2" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="2" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="2" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1327,7 +1378,7 @@
     <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -1413,143 +1464,6 @@
           </stop>
         </gradientFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39991454817346722"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor auto="1"/>
-          <bgColor theme="0" tint="-0.14981536301767021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFEAF0F6"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFEAF0F6"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39991454817346722"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1953,356 +1867,356 @@
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="XEO8" sqref="XEO8"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="9" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="32" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="25" style="66" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="66" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="32" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="67" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="32" customWidth="1"/>
-    <col min="10" max="22" width="4.28515625" style="32" customWidth="1"/>
-    <col min="23" max="23" width="4.28515625" style="68" customWidth="1"/>
-    <col min="24" max="36" width="4.28515625" style="32" customWidth="1"/>
-    <col min="37" max="38" width="4.28515625" style="68" customWidth="1"/>
-    <col min="39" max="39" width="4.28515625" style="67" customWidth="1"/>
-    <col min="40" max="40" width="4.28515625" style="69" customWidth="1"/>
-    <col min="41" max="42" width="8.7109375" style="32" customWidth="1"/>
-    <col min="43" max="43" width="6.85546875" style="32" customWidth="1"/>
-    <col min="44" max="45" width="8.7109375" style="32" customWidth="1"/>
-    <col min="46" max="47" width="6.85546875" style="32" customWidth="1"/>
-    <col min="48" max="50" width="8.7109375" style="32" customWidth="1"/>
-    <col min="51" max="52" width="6.42578125" style="32" customWidth="1"/>
-    <col min="53" max="53" width="7.5703125" style="32" customWidth="1"/>
-    <col min="54" max="54" width="6.85546875" style="70" customWidth="1"/>
-    <col min="55" max="57" width="8.7109375" style="70" customWidth="1"/>
-    <col min="58" max="63" width="6.5703125" style="32" customWidth="1"/>
-    <col min="64" max="65" width="8.7109375" style="32" customWidth="1"/>
-    <col min="66" max="66" width="7.85546875" style="32" hidden="1" customWidth="1"/>
-    <col min="67" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="2.7109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="28" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="61" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="83" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="28" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="62" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="28" customWidth="1"/>
+    <col min="10" max="22" width="4.28515625" style="28" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" style="63" customWidth="1"/>
+    <col min="24" max="36" width="4.28515625" style="28" customWidth="1"/>
+    <col min="37" max="38" width="4.28515625" style="63" customWidth="1"/>
+    <col min="39" max="39" width="4.28515625" style="62" customWidth="1"/>
+    <col min="40" max="40" width="4.28515625" style="64" customWidth="1"/>
+    <col min="41" max="42" width="8.7109375" style="28" customWidth="1"/>
+    <col min="43" max="43" width="6.85546875" style="28" customWidth="1"/>
+    <col min="44" max="45" width="8.7109375" style="28" customWidth="1"/>
+    <col min="46" max="47" width="6.85546875" style="28" customWidth="1"/>
+    <col min="48" max="50" width="8.7109375" style="28" customWidth="1"/>
+    <col min="51" max="52" width="6.42578125" style="28" customWidth="1"/>
+    <col min="53" max="53" width="7.5703125" style="28" customWidth="1"/>
+    <col min="54" max="54" width="6.85546875" style="65" customWidth="1"/>
+    <col min="55" max="57" width="8.7109375" style="65" customWidth="1"/>
+    <col min="58" max="63" width="6.5703125" style="28" customWidth="1"/>
+    <col min="64" max="65" width="8.7109375" style="28" customWidth="1"/>
+    <col min="66" max="66" width="7.85546875" style="28" hidden="1" customWidth="1"/>
+    <col min="67" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="47.25" customHeight="1">
-      <c r="B1" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="31"/>
-      <c r="BF1" s="31"/>
-      <c r="BG1" s="31"/>
-      <c r="BH1" s="31"/>
-      <c r="BI1" s="31"/>
-      <c r="BJ1" s="31"/>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="31"/>
-      <c r="BM1" s="31"/>
-      <c r="BN1" s="31"/>
+      <c r="B1" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
+      <c r="BJ1" s="27"/>
+      <c r="BK1" s="27"/>
+      <c r="BL1" s="27"/>
+      <c r="BM1" s="27"/>
+      <c r="BN1" s="27"/>
     </row>
-    <row r="2" spans="1:66" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
-      <c r="A2" s="33">
+    <row r="2" spans="1:66" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+      <c r="A2" s="29">
         <v>43709</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="30">
         <v>43770</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="34"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="34"/>
-      <c r="BG2" s="34"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="34"/>
-      <c r="BJ2" s="34"/>
-      <c r="BK2" s="34"/>
-      <c r="BL2" s="34"/>
-      <c r="BM2" s="34"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="30"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="30"/>
+      <c r="BJ2" s="30"/>
+      <c r="BK2" s="30"/>
+      <c r="BL2" s="30"/>
+      <c r="BM2" s="30"/>
     </row>
-    <row r="3" spans="1:66" s="39" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="77" t="s">
+    <row r="3" spans="1:66" s="35" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A3" s="33"/>
+      <c r="B3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="38"/>
-      <c r="AY3" s="38"/>
-      <c r="AZ3" s="38"/>
-      <c r="BA3" s="38"/>
-      <c r="BB3" s="38"/>
-      <c r="BC3" s="38"/>
-      <c r="BD3" s="38"/>
-      <c r="BE3" s="38"/>
-      <c r="BF3" s="38"/>
-      <c r="BG3" s="38"/>
-      <c r="BH3" s="38"/>
-      <c r="BI3" s="38"/>
-      <c r="BJ3" s="38"/>
-      <c r="BK3" s="38"/>
-      <c r="BL3" s="38"/>
-      <c r="BM3" s="38"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="34"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
+      <c r="BD3" s="34"/>
+      <c r="BE3" s="34"/>
+      <c r="BF3" s="34"/>
+      <c r="BG3" s="34"/>
+      <c r="BH3" s="34"/>
+      <c r="BI3" s="34"/>
+      <c r="BJ3" s="34"/>
+      <c r="BK3" s="34"/>
+      <c r="BL3" s="34"/>
+      <c r="BM3" s="34"/>
     </row>
     <row r="4" spans="1:66" ht="22.5" customHeight="1">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="88"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94" t="s">
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="98"/>
+      <c r="AN4" s="98"/>
+      <c r="AO4" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="AP4" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ4" s="117"/>
+      <c r="AR4" s="117"/>
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="117"/>
+      <c r="AU4" s="117"/>
+      <c r="AV4" s="117"/>
+      <c r="AW4" s="117"/>
+      <c r="AX4" s="117"/>
+      <c r="AY4" s="117"/>
+      <c r="AZ4" s="117"/>
+      <c r="BA4" s="117"/>
+      <c r="BB4" s="117"/>
+      <c r="BC4" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD4" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE4" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF4" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG4" s="124"/>
+      <c r="BH4" s="124"/>
+      <c r="BI4" s="124"/>
+      <c r="BJ4" s="124"/>
+      <c r="BK4" s="124"/>
+      <c r="BL4" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM4" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="BN4" s="105" t="s">
         <v>3</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="90" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP4" s="108" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ4" s="109"/>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="109"/>
-      <c r="AT4" s="109"/>
-      <c r="AU4" s="109"/>
-      <c r="AV4" s="109"/>
-      <c r="AW4" s="109"/>
-      <c r="AX4" s="109"/>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="109"/>
-      <c r="BA4" s="109"/>
-      <c r="BB4" s="109"/>
-      <c r="BC4" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD4" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE4" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF4" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="BG4" s="116"/>
-      <c r="BH4" s="116"/>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="116"/>
-      <c r="BK4" s="116"/>
-      <c r="BL4" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="BM4" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="BN4" s="97" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:66" ht="26.25" customHeight="1">
-      <c r="B5" s="88"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="79"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="89"/>
       <c r="J5" s="1">
         <f>A2</f>
         <v>43709</v>
@@ -2427,81 +2341,81 @@
         <f>IF(AM5="","",IF(DAY(AM5+1)=DAY(J5),"",AM5+1))</f>
         <v/>
       </c>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="107" t="s">
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ5" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="AQ5" s="102" t="s">
+      <c r="AR5" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS5" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT5" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU5" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV5" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW5" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX5" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="AR5" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS5" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT5" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU5" s="102" t="s">
+      <c r="AY5" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ5" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="AV5" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="AW5" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="AX5" s="102" t="s">
+      <c r="BA5" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="AY5" s="107" t="s">
+      <c r="BB5" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="AZ5" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="BA5" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB5" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="BC5" s="105"/>
-      <c r="BD5" s="105"/>
-      <c r="BE5" s="105"/>
-      <c r="BF5" s="100" t="s">
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG5" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH5" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI5" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="BG5" s="100" t="s">
+      <c r="BJ5" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK5" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="BH5" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="BI5" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="BJ5" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="BK5" s="113" t="s">
-        <v>16</v>
-      </c>
-      <c r="BL5" s="117"/>
-      <c r="BM5" s="120"/>
-      <c r="BN5" s="98"/>
+      <c r="BL5" s="125"/>
+      <c r="BM5" s="128"/>
+      <c r="BN5" s="106"/>
     </row>
     <row r="6" spans="1:66" ht="36" customHeight="1" thickBot="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="80"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="90"/>
       <c r="J6" s="2" t="str">
         <f>CHOOSE(WEEKDAY(J5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")</f>
         <v xml:space="preserve">  CN</v>
@@ -2626,42 +2540,40 @@
         <f>IF(AN5&lt;&gt;"",CHOOSE(WEEKDAY(AN5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AO6" s="80"/>
-      <c r="AP6" s="110"/>
-      <c r="AQ6" s="110"/>
-      <c r="AR6" s="103"/>
-      <c r="AS6" s="103"/>
-      <c r="AT6" s="103"/>
-      <c r="AU6" s="103"/>
-      <c r="AV6" s="103"/>
-      <c r="AW6" s="103"/>
-      <c r="AX6" s="103"/>
-      <c r="AY6" s="103"/>
-      <c r="AZ6" s="103"/>
-      <c r="BA6" s="103"/>
-      <c r="BB6" s="112"/>
-      <c r="BC6" s="106"/>
-      <c r="BD6" s="106"/>
-      <c r="BE6" s="106"/>
-      <c r="BF6" s="80"/>
-      <c r="BG6" s="80"/>
-      <c r="BH6" s="101"/>
-      <c r="BI6" s="101"/>
-      <c r="BJ6" s="101"/>
-      <c r="BK6" s="114"/>
-      <c r="BL6" s="118"/>
-      <c r="BM6" s="121"/>
-      <c r="BN6" s="99"/>
+      <c r="AO6" s="90"/>
+      <c r="AP6" s="118"/>
+      <c r="AQ6" s="118"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111"/>
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
+      <c r="AX6" s="111"/>
+      <c r="AY6" s="111"/>
+      <c r="AZ6" s="111"/>
+      <c r="BA6" s="111"/>
+      <c r="BB6" s="120"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114"/>
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="90"/>
+      <c r="BG6" s="90"/>
+      <c r="BH6" s="109"/>
+      <c r="BI6" s="109"/>
+      <c r="BJ6" s="109"/>
+      <c r="BK6" s="122"/>
+      <c r="BL6" s="126"/>
+      <c r="BM6" s="129"/>
+      <c r="BN6" s="107"/>
     </row>
-    <row r="7" spans="1:66" s="73" customFormat="1" ht="15.75">
-      <c r="A7" s="41"/>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:66" s="68" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="37"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
@@ -2693,47 +2605,45 @@
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="8"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="16"/>
-      <c r="AQ7" s="16"/>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="16"/>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="16"/>
-      <c r="AV7" s="16"/>
-      <c r="AW7" s="16"/>
-      <c r="AX7" s="16"/>
-      <c r="AY7" s="16"/>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="24"/>
-      <c r="BC7" s="26"/>
-      <c r="BD7" s="26"/>
-      <c r="BE7" s="26"/>
-      <c r="BF7" s="16"/>
-      <c r="BG7" s="16"/>
-      <c r="BH7" s="16"/>
-      <c r="BI7" s="16"/>
-      <c r="BJ7" s="16"/>
-      <c r="BK7" s="16"/>
-      <c r="BL7" s="28"/>
-      <c r="BM7" s="28"/>
-      <c r="BN7" s="72" t="s">
-        <v>7</v>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
+      <c r="AS7" s="71"/>
+      <c r="AT7" s="71"/>
+      <c r="AU7" s="71"/>
+      <c r="AV7" s="71"/>
+      <c r="AW7" s="71"/>
+      <c r="AX7" s="71"/>
+      <c r="AY7" s="71"/>
+      <c r="AZ7" s="71"/>
+      <c r="BA7" s="71"/>
+      <c r="BB7" s="72"/>
+      <c r="BC7" s="73"/>
+      <c r="BD7" s="73"/>
+      <c r="BE7" s="73"/>
+      <c r="BF7" s="71"/>
+      <c r="BG7" s="71"/>
+      <c r="BH7" s="71"/>
+      <c r="BI7" s="71"/>
+      <c r="BJ7" s="71"/>
+      <c r="BK7" s="71"/>
+      <c r="BL7" s="74"/>
+      <c r="BM7" s="75"/>
+      <c r="BN7" s="67" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="73" customFormat="1" ht="15.75">
-      <c r="A8" s="41"/>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
+    <row r="8" spans="1:66" s="68" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
       <c r="I8" s="10"/>
@@ -2765,47 +2675,45 @@
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="14"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="23"/>
-      <c r="AN8" s="21"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="20"/>
       <c r="AO8" s="15"/>
-      <c r="AP8" s="17"/>
-      <c r="AQ8" s="17"/>
-      <c r="AR8" s="17"/>
-      <c r="AS8" s="17"/>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="17"/>
-      <c r="AW8" s="17"/>
-      <c r="AX8" s="17"/>
-      <c r="AY8" s="17"/>
-      <c r="AZ8" s="17"/>
-      <c r="BA8" s="17"/>
-      <c r="BB8" s="25"/>
-      <c r="BC8" s="27"/>
-      <c r="BD8" s="27"/>
-      <c r="BE8" s="27"/>
-      <c r="BF8" s="17"/>
-      <c r="BG8" s="17"/>
-      <c r="BH8" s="17"/>
-      <c r="BI8" s="17"/>
-      <c r="BJ8" s="17"/>
-      <c r="BK8" s="17"/>
-      <c r="BL8" s="29"/>
-      <c r="BM8" s="29"/>
-      <c r="BN8" s="74" t="s">
-        <v>7</v>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="23"/>
+      <c r="BC8" s="24"/>
+      <c r="BD8" s="24"/>
+      <c r="BE8" s="24"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="16"/>
+      <c r="BJ8" s="16"/>
+      <c r="BK8" s="16"/>
+      <c r="BL8" s="25"/>
+      <c r="BM8" s="76"/>
+      <c r="BN8" s="69" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:66" s="73" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="9">
-        <v>3</v>
-      </c>
+    <row r="9" spans="1:66" s="68" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A9" s="37"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
       <c r="I9" s="10"/>
@@ -2837,253 +2745,225 @@
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="14"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="21"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="20"/>
       <c r="AO9" s="15"/>
-      <c r="AP9" s="17"/>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="25"/>
-      <c r="BC9" s="27"/>
-      <c r="BD9" s="27"/>
-      <c r="BE9" s="27"/>
-      <c r="BF9" s="17"/>
-      <c r="BG9" s="17"/>
-      <c r="BH9" s="17"/>
-      <c r="BI9" s="17"/>
-      <c r="BJ9" s="17"/>
-      <c r="BK9" s="17"/>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="29"/>
-      <c r="BN9" s="75" t="s">
-        <v>7</v>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="23"/>
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="24"/>
+      <c r="BE9" s="24"/>
+      <c r="BF9" s="16"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="16"/>
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="77"/>
+      <c r="BN9" s="70" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:66" s="57" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="51">
+    <row r="10" spans="1:66" s="52" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="45"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="45"/>
+      <c r="AM10" s="45"/>
+      <c r="AN10" s="45"/>
+      <c r="AO10" s="46">
         <f>SUM(J10:AN10)</f>
         <v>0</v>
       </c>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="51"/>
-      <c r="AT10" s="51"/>
-      <c r="AU10" s="51"/>
-      <c r="AV10" s="51"/>
-      <c r="AW10" s="51"/>
-      <c r="AX10" s="51"/>
-      <c r="AY10" s="51"/>
-      <c r="AZ10" s="51"/>
-      <c r="BA10" s="51"/>
-      <c r="BB10" s="52"/>
-      <c r="BC10" s="53">
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="46"/>
+      <c r="AR10" s="46"/>
+      <c r="AS10" s="46"/>
+      <c r="AT10" s="46"/>
+      <c r="AU10" s="46"/>
+      <c r="AV10" s="46"/>
+      <c r="AW10" s="46"/>
+      <c r="AX10" s="46"/>
+      <c r="AY10" s="46"/>
+      <c r="AZ10" s="46"/>
+      <c r="BA10" s="46"/>
+      <c r="BB10" s="47"/>
+      <c r="BC10" s="48">
         <f>SUM(AO10:AS10)</f>
         <v>0</v>
       </c>
-      <c r="BD10" s="53">
+      <c r="BD10" s="48">
         <f>SUM(AT10:AU10)</f>
         <v>0</v>
       </c>
-      <c r="BE10" s="53">
+      <c r="BE10" s="48">
         <f>SUM(AX10:BA10)</f>
         <v>0</v>
       </c>
-      <c r="BF10" s="51"/>
-      <c r="BG10" s="51"/>
-      <c r="BH10" s="51"/>
-      <c r="BI10" s="51"/>
-      <c r="BJ10" s="51"/>
-      <c r="BK10" s="54"/>
-      <c r="BL10" s="54">
+      <c r="BF10" s="46"/>
+      <c r="BG10" s="46"/>
+      <c r="BH10" s="46"/>
+      <c r="BI10" s="46"/>
+      <c r="BJ10" s="46"/>
+      <c r="BK10" s="49"/>
+      <c r="BL10" s="49">
         <f>SUM(BF10:BK10)</f>
         <v>0</v>
       </c>
-      <c r="BM10" s="55">
+      <c r="BM10" s="50">
         <f>BK10*3.9 + BJ10*3 +BI10*2.6+BH10*2+BG10*1.95+BF10*1.5</f>
         <v>0</v>
       </c>
-      <c r="BN10" s="56"/>
+      <c r="BN10" s="51"/>
     </row>
     <row r="11" spans="1:66">
-      <c r="B11" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="62"/>
-      <c r="AL11" s="62"/>
-      <c r="AM11" s="61"/>
-      <c r="AN11" s="63"/>
-      <c r="AO11" s="60"/>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="60"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="60"/>
-      <c r="AZ11" s="60"/>
-      <c r="BA11" s="60"/>
-      <c r="BB11" s="64"/>
-      <c r="BC11" s="64"/>
-      <c r="BD11" s="64"/>
-      <c r="BE11" s="64"/>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="60"/>
-      <c r="BH11" s="60"/>
-      <c r="BI11" s="60"/>
-      <c r="BJ11" s="60"/>
-      <c r="BK11" s="60"/>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="60"/>
-      <c r="BN11" s="60"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="57"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="58"/>
+      <c r="AO11" s="55"/>
+      <c r="AP11" s="55"/>
+      <c r="AQ11" s="55"/>
+      <c r="AR11" s="55"/>
+      <c r="AS11" s="55"/>
+      <c r="AT11" s="55"/>
+      <c r="AU11" s="55"/>
+      <c r="AV11" s="55"/>
+      <c r="AW11" s="55"/>
+      <c r="AX11" s="55"/>
+      <c r="AY11" s="55"/>
+      <c r="AZ11" s="55"/>
+      <c r="BA11" s="55"/>
+      <c r="BB11" s="59"/>
+      <c r="BC11" s="59"/>
+      <c r="BD11" s="59"/>
+      <c r="BE11" s="59"/>
+      <c r="BF11" s="55"/>
+      <c r="BG11" s="55"/>
+      <c r="BH11" s="55"/>
+      <c r="BI11" s="55"/>
+      <c r="BJ11" s="55"/>
+      <c r="BK11" s="55"/>
+      <c r="BL11" s="55"/>
+      <c r="BM11" s="55"/>
+      <c r="BN11" s="55"/>
     </row>
     <row r="12" spans="1:66">
-      <c r="B12" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65" t="s">
-        <v>32</v>
-      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:66">
-      <c r="B13" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65" t="s">
-        <v>33</v>
-      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:66">
-      <c r="B14" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65" t="s">
-        <v>34</v>
-      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" spans="1:66">
-      <c r="B15" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU15" s="71"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="AU15" s="66"/>
     </row>
     <row r="16" spans="1:66">
-      <c r="B16" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65" t="s">
-        <v>35</v>
-      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65" t="s">
-        <v>36</v>
-      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -3128,38 +3008,38 @@
     <mergeCell ref="H4:H6"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:AN9">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>IF(WEEKDAY(J$5)=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>IF(WEEKDAY(J$5)=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>IF(J$5="",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:I9 AM7:BM9">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>$BN7="IH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:BM9">
-    <cfRule type="expression" dxfId="8" priority="14">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BM9">
-    <cfRule type="expression" dxfId="11" priority="18">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>$BN7="P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:BM9">
-    <cfRule type="expression" dxfId="10" priority="20">
+    <cfRule type="expression" dxfId="1" priority="20">
       <formula>$BN7="PH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BM9">
-    <cfRule type="expression" dxfId="9" priority="24">
+    <cfRule type="expression" dxfId="0" priority="24">
       <formula>$BN7="I"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/media/utils/tmplexcel/liway_lv.xlsx
+++ b/media/utils/tmplexcel/liway_lv.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="28590" windowHeight="7695"/>
+    <workbookView xWindow="-3495" yWindow="-225" windowWidth="29040" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="PHEP" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PHEP!$B$6:$BN$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PHEP!$B$6:$BE$7</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <r>
       <t>Tháng 11 năm 2019</t>
@@ -37,9 +37,6 @@
     <t>NGÀY TRONG THÁNG</t>
   </si>
   <si>
-    <t>Tổng cộng</t>
-  </si>
-  <si>
     <t>Hidden
 Column</t>
   </si>
@@ -53,85 +50,7 @@
     <t>NGHỈ VẮNG</t>
   </si>
   <si>
-    <t>TĂNG CA</t>
-  </si>
-  <si>
-    <t>OT 150%</t>
-  </si>
-  <si>
-    <t>OT 200%</t>
-  </si>
-  <si>
-    <t>OT 195%</t>
-  </si>
-  <si>
-    <t>OT 260%</t>
-  </si>
-  <si>
-    <t>OT 300%</t>
-  </si>
-  <si>
-    <t>OT 390%</t>
-  </si>
-  <si>
-    <t>PP: Phép không lương</t>
-  </si>
-  <si>
-    <t>PB: Phép bệnh</t>
-  </si>
-  <si>
-    <t>PN: Phép thường niên</t>
-  </si>
-  <si>
-    <t>KH: Kết hôn (có lương)</t>
-  </si>
-  <si>
-    <t>PT: Tang chế (có lương)</t>
-  </si>
-  <si>
-    <t>CT: Nghỉ đi công tác</t>
-  </si>
-  <si>
-    <t>NH70: Nghỉ hưởng 70%</t>
-  </si>
-  <si>
-    <t>TS: 
-Thai sản</t>
-  </si>
-  <si>
-    <t>OP: Nghỉ không phép</t>
-  </si>
-  <si>
-    <t>TRE: 
-Đi làm trễ</t>
-  </si>
-  <si>
-    <t>SOM: 
-Đi về sớm</t>
-  </si>
-  <si>
-    <t>K.THE: Không bấm thẻ</t>
-  </si>
-  <si>
-    <t>N.LE: Ngày lễ</t>
-  </si>
-  <si>
     <t>Ghi chú:</t>
-  </si>
-  <si>
-    <t>Tổng Công + (Vắng có lương: PN  + CT + KH+ PT)</t>
-  </si>
-  <si>
-    <t>Vắng không lương, có BHXH: PB + TS</t>
-  </si>
-  <si>
-    <t>Vắng vi phạm nội quy: OP + TRE+SOM +K.THE</t>
-  </si>
-  <si>
-    <t>Tổng giờ tăng ca chưa nhân hệ số</t>
-  </si>
-  <si>
-    <t>Tổng giờ tăng ca có nhân hệ số</t>
   </si>
   <si>
     <t>MSVT
@@ -153,6 +72,75 @@
     <t>Họ và Tên
 (FullName)</t>
   </si>
+  <si>
+    <t>Tổng cộng
+(TOTAL)</t>
+  </si>
+  <si>
+    <t>ỐM- ĐAU
+(Sick - Risk accident)</t>
+  </si>
+  <si>
+    <t>VIỆC RIÊNG 
+(Personal
+problem)</t>
+  </si>
+  <si>
+    <t>THAI SẢN
+(Maternity leave)</t>
+  </si>
+  <si>
+    <t>NGHỈ PHÉP NGÀY OFF
+(File only)</t>
+  </si>
+  <si>
+    <t>TAI NẠN LAO ĐỘNG
+(Labor
+accident)</t>
+  </si>
+  <si>
+    <t>NGHỈ KHÔNG PHÉP
+(AB without
+notice)</t>
+  </si>
+  <si>
+    <t>ĐI TRỄ, VỀ SỚM CHƯA XIN PHÉP 
+(Undertime/ Tardiness)</t>
+  </si>
+  <si>
+    <t>GHI CHÚ 1
+(Remark 1)</t>
+  </si>
+  <si>
+    <t>PHÉP NĂM (Annual leave)</t>
+  </si>
+  <si>
+    <t>PHÉP TANG
+(Funeral)</t>
+  </si>
+  <si>
+    <t>PHÉP CƯỚI
+(Wedding)</t>
+  </si>
+  <si>
+    <t>PHÉP ĐI ĐƯỜNG
+(Time for travelling)</t>
+  </si>
+  <si>
+    <t>TRỪ PHÉP
+(force leave)</t>
+  </si>
+  <si>
+    <t>BỘ PHẬN
+department</t>
+  </si>
+  <si>
+    <t>GHI CHÚ 2
+(Remark 2)</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +154,7 @@
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,21 +334,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="1"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -384,38 +357,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,8 +399,50 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -488,17 +487,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF0070C0"/>
-      </left>
       <right/>
       <top style="medium">
         <color rgb="FF0070C0"/>
@@ -861,57 +849,13 @@
       <left style="thin">
         <color rgb="FF0070C0"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color rgb="FF0070C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1001,82 +945,73 @@
     <xf numFmtId="168" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1087,9 +1022,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1101,55 +1033,46 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1161,8 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1173,53 +1095,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,11 +1131,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1243,31 +1254,34 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,97 +1290,10 @@
     <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="2" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="2" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="2" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="2" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="2" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="2" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1861,362 +1788,313 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:BN17"/>
+  <dimension ref="A1:BE17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="28" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="61" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="83" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="28" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="62" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="28" customWidth="1"/>
-    <col min="10" max="22" width="4.28515625" style="28" customWidth="1"/>
-    <col min="23" max="23" width="4.28515625" style="63" customWidth="1"/>
-    <col min="24" max="36" width="4.28515625" style="28" customWidth="1"/>
-    <col min="37" max="38" width="4.28515625" style="63" customWidth="1"/>
-    <col min="39" max="39" width="4.28515625" style="62" customWidth="1"/>
-    <col min="40" max="40" width="4.28515625" style="64" customWidth="1"/>
-    <col min="41" max="42" width="8.7109375" style="28" customWidth="1"/>
-    <col min="43" max="43" width="6.85546875" style="28" customWidth="1"/>
-    <col min="44" max="45" width="8.7109375" style="28" customWidth="1"/>
-    <col min="46" max="47" width="6.85546875" style="28" customWidth="1"/>
-    <col min="48" max="50" width="8.7109375" style="28" customWidth="1"/>
-    <col min="51" max="52" width="6.42578125" style="28" customWidth="1"/>
-    <col min="53" max="53" width="7.5703125" style="28" customWidth="1"/>
-    <col min="54" max="54" width="6.85546875" style="65" customWidth="1"/>
-    <col min="55" max="57" width="8.7109375" style="65" customWidth="1"/>
-    <col min="58" max="63" width="6.5703125" style="28" customWidth="1"/>
-    <col min="64" max="65" width="8.7109375" style="28" customWidth="1"/>
-    <col min="66" max="66" width="7.85546875" style="28" hidden="1" customWidth="1"/>
-    <col min="67" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="2.7109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="25" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="68" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="54" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="25" customWidth="1"/>
+    <col min="10" max="22" width="4.28515625" style="25" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" style="55" customWidth="1"/>
+    <col min="24" max="36" width="4.28515625" style="25" customWidth="1"/>
+    <col min="37" max="38" width="4.28515625" style="55" customWidth="1"/>
+    <col min="39" max="39" width="4.28515625" style="54" customWidth="1"/>
+    <col min="40" max="40" width="4.28515625" style="56" customWidth="1"/>
+    <col min="41" max="41" width="8.7109375" style="25" customWidth="1"/>
+    <col min="42" max="46" width="10.42578125" style="25" customWidth="1"/>
+    <col min="47" max="47" width="14.28515625" style="25" customWidth="1"/>
+    <col min="48" max="48" width="16.42578125" style="25" customWidth="1"/>
+    <col min="49" max="49" width="48" style="25" customWidth="1"/>
+    <col min="50" max="54" width="10.42578125" style="25" customWidth="1"/>
+    <col min="55" max="55" width="53.28515625" style="53" customWidth="1"/>
+    <col min="56" max="56" width="16.85546875" style="25" customWidth="1"/>
+    <col min="57" max="57" width="7.85546875" style="25" hidden="1" customWidth="1"/>
+    <col min="58" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="47.25" customHeight="1">
-      <c r="B1" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27"/>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="27"/>
-      <c r="BG1" s="27"/>
-      <c r="BH1" s="27"/>
-      <c r="BI1" s="27"/>
-      <c r="BJ1" s="27"/>
-      <c r="BK1" s="27"/>
-      <c r="BL1" s="27"/>
-      <c r="BM1" s="27"/>
-      <c r="BN1" s="27"/>
+    <row r="1" spans="1:57" ht="47.25" customHeight="1">
+      <c r="B1" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
     </row>
-    <row r="2" spans="1:66" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
-      <c r="A2" s="29">
+    <row r="2" spans="1:57" s="28" customFormat="1" ht="21" hidden="1" customHeight="1">
+      <c r="A2" s="26">
         <v>43709</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="27">
         <v>43770</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="31"/>
-      <c r="BC2" s="31"/>
-      <c r="BD2" s="31"/>
-      <c r="BE2" s="31"/>
-      <c r="BF2" s="30"/>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="30"/>
-      <c r="BJ2" s="30"/>
-      <c r="BK2" s="30"/>
-      <c r="BL2" s="30"/>
-      <c r="BM2" s="30"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="27"/>
     </row>
-    <row r="3" spans="1:66" s="35" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="87" t="s">
+    <row r="3" spans="1:57" s="31" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="34"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="34"/>
-      <c r="AX3" s="34"/>
-      <c r="AY3" s="34"/>
-      <c r="AZ3" s="34"/>
-      <c r="BA3" s="34"/>
-      <c r="BB3" s="34"/>
-      <c r="BC3" s="34"/>
-      <c r="BD3" s="34"/>
-      <c r="BE3" s="34"/>
-      <c r="BF3" s="34"/>
-      <c r="BG3" s="34"/>
-      <c r="BH3" s="34"/>
-      <c r="BI3" s="34"/>
-      <c r="BJ3" s="34"/>
-      <c r="BK3" s="34"/>
-      <c r="BL3" s="34"/>
-      <c r="BM3" s="34"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="30"/>
     </row>
-    <row r="4" spans="1:66" ht="22.5" customHeight="1">
-      <c r="B4" s="130" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="98" t="s">
+    <row r="4" spans="1:57" ht="22.5" customHeight="1">
+      <c r="B4" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="113"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="98"/>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="88" t="s">
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="124"/>
+      <c r="AO4" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP4" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="94"/>
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE4" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ4" s="117"/>
-      <c r="AR4" s="117"/>
-      <c r="AS4" s="117"/>
-      <c r="AT4" s="117"/>
-      <c r="AU4" s="117"/>
-      <c r="AV4" s="117"/>
-      <c r="AW4" s="117"/>
-      <c r="AX4" s="117"/>
-      <c r="AY4" s="117"/>
-      <c r="AZ4" s="117"/>
-      <c r="BA4" s="117"/>
-      <c r="BB4" s="117"/>
-      <c r="BC4" s="112" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD4" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="BE4" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="BF4" s="123" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG4" s="124"/>
-      <c r="BH4" s="124"/>
-      <c r="BI4" s="124"/>
-      <c r="BJ4" s="124"/>
-      <c r="BK4" s="124"/>
-      <c r="BL4" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="BM4" s="127" t="s">
-        <v>32</v>
-      </c>
-      <c r="BN4" s="105" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:66" ht="26.25" customHeight="1">
-      <c r="B5" s="96"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="89"/>
+    <row r="5" spans="1:57" ht="26.25" customHeight="1">
+      <c r="B5" s="122"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="114"/>
       <c r="J5" s="1">
         <f>A2</f>
         <v>43709</v>
@@ -2341,81 +2219,62 @@
         <f>IF(AM5="","",IF(DAY(AM5+1)=DAY(J5),"",AM5+1))</f>
         <v/>
       </c>
-      <c r="AO5" s="89"/>
-      <c r="AP5" s="115" t="s">
+      <c r="AO5" s="114"/>
+      <c r="AP5" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ5" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR5" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS5" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="AQ5" s="110" t="s">
+      <c r="AT5" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU5" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV5" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="AR5" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS5" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT5" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU5" s="110" t="s">
+      <c r="AW5" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX5" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="AV5" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW5" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="AX5" s="110" t="s">
+      <c r="AY5" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="AY5" s="115" t="s">
+      <c r="AZ5" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="AZ5" s="115" t="s">
+      <c r="BA5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="BA5" s="115" t="s">
+      <c r="BB5" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="BB5" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="BC5" s="113"/>
-      <c r="BD5" s="113"/>
-      <c r="BE5" s="113"/>
-      <c r="BF5" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="BG5" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="BH5" s="108" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI5" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ5" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="BK5" s="121" t="s">
-        <v>13</v>
-      </c>
-      <c r="BL5" s="125"/>
-      <c r="BM5" s="128"/>
-      <c r="BN5" s="106"/>
+      <c r="BC5" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD5" s="104"/>
+      <c r="BE5" s="86"/>
     </row>
-    <row r="6" spans="1:66" ht="36" customHeight="1" thickBot="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="90"/>
+    <row r="6" spans="1:57" ht="36" customHeight="1" thickBot="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="115"/>
       <c r="J6" s="2" t="str">
         <f>CHOOSE(WEEKDAY(J5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")</f>
         <v xml:space="preserve">  CN</v>
@@ -2540,40 +2399,31 @@
         <f>IF(AN5&lt;&gt;"",CHOOSE(WEEKDAY(AN5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AO6" s="90"/>
-      <c r="AP6" s="118"/>
-      <c r="AQ6" s="118"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111"/>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
-      <c r="AX6" s="111"/>
-      <c r="AY6" s="111"/>
-      <c r="AZ6" s="111"/>
-      <c r="BA6" s="111"/>
-      <c r="BB6" s="120"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114"/>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="90"/>
-      <c r="BG6" s="90"/>
-      <c r="BH6" s="109"/>
-      <c r="BI6" s="109"/>
-      <c r="BJ6" s="109"/>
-      <c r="BK6" s="122"/>
-      <c r="BL6" s="126"/>
-      <c r="BM6" s="129"/>
-      <c r="BN6" s="107"/>
+      <c r="AO6" s="115"/>
+      <c r="AP6" s="95"/>
+      <c r="AQ6" s="89"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="97"/>
+      <c r="AU6" s="99"/>
+      <c r="AV6" s="100"/>
+      <c r="AW6" s="102"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="89"/>
+      <c r="BA6" s="89"/>
+      <c r="BB6" s="108"/>
+      <c r="BC6" s="110"/>
+      <c r="BD6" s="105"/>
+      <c r="BE6" s="87"/>
     </row>
-    <row r="7" spans="1:66" s="68" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="37"/>
+    <row r="7" spans="1:57" s="59" customFormat="1" ht="18">
+      <c r="A7" s="33"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="79"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
@@ -2608,46 +2458,39 @@
       <c r="AL7" s="17"/>
       <c r="AM7" s="21"/>
       <c r="AN7" s="18"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
-      <c r="AS7" s="71"/>
-      <c r="AT7" s="71"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="71"/>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="71"/>
-      <c r="BA7" s="71"/>
-      <c r="BB7" s="72"/>
-      <c r="BC7" s="73"/>
-      <c r="BD7" s="73"/>
-      <c r="BE7" s="73"/>
-      <c r="BF7" s="71"/>
-      <c r="BG7" s="71"/>
-      <c r="BH7" s="71"/>
-      <c r="BI7" s="71"/>
-      <c r="BJ7" s="71"/>
-      <c r="BK7" s="71"/>
-      <c r="BL7" s="74"/>
-      <c r="BM7" s="75"/>
-      <c r="BN7" s="67" t="s">
-        <v>4</v>
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="62"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="62"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="62"/>
+      <c r="AW7" s="82"/>
+      <c r="AX7" s="62"/>
+      <c r="AY7" s="62"/>
+      <c r="AZ7" s="62"/>
+      <c r="BA7" s="62"/>
+      <c r="BB7" s="62"/>
+      <c r="BC7" s="74"/>
+      <c r="BD7" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE7" s="58" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="68" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="37"/>
+    <row r="8" spans="1:57" s="59" customFormat="1" ht="18">
+      <c r="A8" s="33"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="13"/>
+      <c r="J8" s="81"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -2686,34 +2529,25 @@
       <c r="AT8" s="16"/>
       <c r="AU8" s="16"/>
       <c r="AV8" s="16"/>
-      <c r="AW8" s="16"/>
+      <c r="AW8" s="83"/>
       <c r="AX8" s="16"/>
       <c r="AY8" s="16"/>
       <c r="AZ8" s="16"/>
       <c r="BA8" s="16"/>
-      <c r="BB8" s="23"/>
-      <c r="BC8" s="24"/>
-      <c r="BD8" s="24"/>
-      <c r="BE8" s="24"/>
-      <c r="BF8" s="16"/>
-      <c r="BG8" s="16"/>
-      <c r="BH8" s="16"/>
-      <c r="BI8" s="16"/>
-      <c r="BJ8" s="16"/>
-      <c r="BK8" s="16"/>
-      <c r="BL8" s="25"/>
-      <c r="BM8" s="76"/>
-      <c r="BN8" s="69" t="s">
-        <v>4</v>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="80"/>
+      <c r="BD8" s="78"/>
+      <c r="BE8" s="60" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:66" s="68" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A9" s="37"/>
+    <row r="9" spans="1:57" s="59" customFormat="1" ht="18.75" thickBot="1">
+      <c r="A9" s="33"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="80"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
       <c r="I9" s="10"/>
@@ -2756,247 +2590,177 @@
       <c r="AT9" s="16"/>
       <c r="AU9" s="16"/>
       <c r="AV9" s="16"/>
-      <c r="AW9" s="16"/>
+      <c r="AW9" s="84"/>
       <c r="AX9" s="16"/>
       <c r="AY9" s="16"/>
       <c r="AZ9" s="16"/>
       <c r="BA9" s="16"/>
-      <c r="BB9" s="23"/>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="24"/>
-      <c r="BF9" s="16"/>
-      <c r="BG9" s="16"/>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="16"/>
-      <c r="BJ9" s="16"/>
-      <c r="BK9" s="16"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="77"/>
-      <c r="BN9" s="70" t="s">
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="75"/>
+      <c r="BD9" s="79"/>
+      <c r="BE9" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" s="45" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:66" s="52" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="45"/>
-      <c r="AN10" s="45"/>
-      <c r="AO10" s="46">
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="42">
         <f>SUM(J10:AN10)</f>
         <v>0</v>
       </c>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="46"/>
-      <c r="AR10" s="46"/>
-      <c r="AS10" s="46"/>
-      <c r="AT10" s="46"/>
-      <c r="AU10" s="46"/>
-      <c r="AV10" s="46"/>
-      <c r="AW10" s="46"/>
-      <c r="AX10" s="46"/>
-      <c r="AY10" s="46"/>
-      <c r="AZ10" s="46"/>
-      <c r="BA10" s="46"/>
-      <c r="BB10" s="47"/>
-      <c r="BC10" s="48">
-        <f>SUM(AO10:AS10)</f>
-        <v>0</v>
-      </c>
-      <c r="BD10" s="48">
-        <f>SUM(AT10:AU10)</f>
-        <v>0</v>
-      </c>
-      <c r="BE10" s="48">
-        <f>SUM(AX10:BA10)</f>
-        <v>0</v>
-      </c>
-      <c r="BF10" s="46"/>
-      <c r="BG10" s="46"/>
-      <c r="BH10" s="46"/>
-      <c r="BI10" s="46"/>
-      <c r="BJ10" s="46"/>
-      <c r="BK10" s="49"/>
-      <c r="BL10" s="49">
-        <f>SUM(BF10:BK10)</f>
-        <v>0</v>
-      </c>
-      <c r="BM10" s="50">
-        <f>BK10*3.9 + BJ10*3 +BI10*2.6+BH10*2+BG10*1.95+BF10*1.5</f>
-        <v>0</v>
-      </c>
-      <c r="BN10" s="51"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="42"/>
+      <c r="AT10" s="42"/>
+      <c r="AU10" s="42"/>
+      <c r="AV10" s="42"/>
+      <c r="AW10" s="42"/>
+      <c r="AX10" s="42"/>
+      <c r="AY10" s="42"/>
+      <c r="AZ10" s="42"/>
+      <c r="BA10" s="42"/>
+      <c r="BB10" s="42"/>
+      <c r="BC10" s="76"/>
+      <c r="BD10" s="43"/>
+      <c r="BE10" s="44"/>
     </row>
-    <row r="11" spans="1:66">
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="55"/>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="57"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="56"/>
-      <c r="AN11" s="58"/>
-      <c r="AO11" s="55"/>
-      <c r="AP11" s="55"/>
-      <c r="AQ11" s="55"/>
-      <c r="AR11" s="55"/>
-      <c r="AS11" s="55"/>
-      <c r="AT11" s="55"/>
-      <c r="AU11" s="55"/>
-      <c r="AV11" s="55"/>
-      <c r="AW11" s="55"/>
-      <c r="AX11" s="55"/>
-      <c r="AY11" s="55"/>
-      <c r="AZ11" s="55"/>
-      <c r="BA11" s="55"/>
-      <c r="BB11" s="59"/>
-      <c r="BC11" s="59"/>
-      <c r="BD11" s="59"/>
-      <c r="BE11" s="59"/>
-      <c r="BF11" s="55"/>
-      <c r="BG11" s="55"/>
-      <c r="BH11" s="55"/>
-      <c r="BI11" s="55"/>
-      <c r="BJ11" s="55"/>
-      <c r="BK11" s="55"/>
-      <c r="BL11" s="55"/>
-      <c r="BM11" s="55"/>
-      <c r="BN11" s="55"/>
+    <row r="11" spans="1:57">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="51"/>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="48"/>
+      <c r="AS11" s="48"/>
+      <c r="AT11" s="48"/>
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="48"/>
+      <c r="AX11" s="48"/>
+      <c r="AY11" s="48"/>
+      <c r="AZ11" s="48"/>
+      <c r="BA11" s="48"/>
+      <c r="BB11" s="48"/>
+      <c r="BC11" s="47"/>
+      <c r="BD11" s="48"/>
+      <c r="BE11" s="48"/>
     </row>
-    <row r="12" spans="1:66">
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
+    <row r="12" spans="1:57">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
     </row>
-    <row r="13" spans="1:66">
-      <c r="B13" s="53"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
+    <row r="13" spans="1:57">
+      <c r="B13" s="46"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
     </row>
-    <row r="14" spans="1:66">
-      <c r="B14" s="53"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
+    <row r="14" spans="1:57">
+      <c r="B14" s="46"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
     </row>
-    <row r="15" spans="1:66">
-      <c r="B15" s="53"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="AU15" s="66"/>
+    <row r="15" spans="1:57">
+      <c r="B15" s="46"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="AU15" s="57"/>
     </row>
-    <row r="16" spans="1:66">
-      <c r="B16" s="53"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
+    <row r="16" spans="1:57">
+      <c r="B16" s="46"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="53"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="BE4:BE6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BF4:BK4"/>
-    <mergeCell ref="BL4:BL6"/>
-    <mergeCell ref="BM4:BM6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="AO4:AO6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="BN4:BN6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="BC4:BC6"/>
-    <mergeCell ref="BD4:BD6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AP4:BB4"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
+  <mergeCells count="29">
     <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="BC5:BC6"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="G4:G6"/>
@@ -3006,41 +2770,59 @@
     <mergeCell ref="J4:AN4"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="H4:H6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="BE4:BE6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AP4:BC4"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="BD4:BD6"/>
+    <mergeCell ref="AS5:AS6"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:AN9">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>IF(WEEKDAY(J$5)=1,TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="3">
       <formula>IF(WEEKDAY(J$5)=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>IF(J$5="",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:I9 AM7:BM9">
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>$BN7="IH"</formula>
+  <conditionalFormatting sqref="H7:I9 AM7:BD9">
+    <cfRule type="expression" dxfId="4" priority="14">
+      <formula>$BE7="IH"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:BM9">
-    <cfRule type="expression" dxfId="3" priority="14">
+  <conditionalFormatting sqref="B7:BD9">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BM9">
-    <cfRule type="expression" dxfId="2" priority="18">
-      <formula>$BN7="P"</formula>
+  <conditionalFormatting sqref="H7:BD9">
+    <cfRule type="expression" dxfId="2" priority="38">
+      <formula>$BE7="P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO7:BM9">
-    <cfRule type="expression" dxfId="1" priority="20">
-      <formula>$BN7="PH"</formula>
+  <conditionalFormatting sqref="AO7:BD9">
+    <cfRule type="expression" dxfId="1" priority="40">
+      <formula>$BE7="PH"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BM9">
-    <cfRule type="expression" dxfId="0" priority="24">
-      <formula>$BN7="I"</formula>
+  <conditionalFormatting sqref="I7:BD9">
+    <cfRule type="expression" dxfId="0" priority="42">
+      <formula>$BE7="I"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/media/utils/tmplexcel/liway_lv.xlsx
+++ b/media/utils/tmplexcel/liway_lv.xlsx
@@ -139,7 +139,7 @@
 (Remark 2)</t>
   </si>
   <si>
-    <t>HR</t>
+    <t>function(){function e(e,t){var a={1051:function(e,a,n,o,r,l){if(e.setValue(a,o.c0l+o.n1+1,n.tong),l[n.id]){var u=t.BC[n.id]||(t.BC[n.id]=[]);(u[n.regid]||(u[n.regid]=[])).push([new Date(r),n.selo,n.tong])}},2506:function(e,a,n,o,r){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(a+1)+","+(o.cot+1)+",4)",0,0)),e.setValue(a,o.c0l+o.n1-2+n.selo,n.tong)},render_LV:function(e,t,n,o,r,l){n.cot=n.c0l+r.getDate(),e.setValue(t,n.cot,o.tong),a[o.id]&amp;&amp;a[o.id](e,t,o,n,r,l)},lv_nga:function(e,n,o,r,l,u,s,i){t.sortOrder(r,t.lvR).forEach(function(r){l.R.some(function(l){if(l.regid==r){var d=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;s?s:l.todate)+1):l.todate=new Date(d);d&lt;=l.todate;)-1==t.DUP.indexOf(d.getTime())&amp;&amp;u&lt;=d&amp;&amp;d&lt;=s&amp;&amp;(a.render_LV(e,n,o,l,d,i),t.DUP.unshift(d.getTime())),d=new Date(d.setDate(d.getDate()+1));return!0}})})}},n=function(e,a){var n=[];for(var o in t[e])t.BC.hasOwnProperty(o)&amp;&amp;t[e][o].forEach(function(e,t){var r=e.reduce(function(e,t){return e+=t[2]},0);n.push(a[o][1]+" "+r+" day"+(1!=r?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")")});return n};t.ex_lv=function(o,r,l){var u=7,s=o.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,i=r.emp.length,d=new Date(new Date(l[2]).setHours(0,0,0,0)),c=new Date(new Date(l[3]).setHours(0,0,0,0));i&lt;3?o.deleteRows(u,3-i):o.addRows(u,i-3),u-=1,o.setValue(1,0,d),o.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(l[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+l[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(l[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(l[3])+")"}]});var p=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(l[2]),g=r.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),f=r.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),h={c0l:8,n1:40,n2:46};t.A3=[],t.lvR=[],r.R.map(function(e){t.lvR.push(e.regid)});for(var D=0;D&lt;i;D++){var C=r.emp[D];t.AW=[],t.BC={},t.DUP=[-1],o.copyTo(6,0,u+D,0,1,s,GC.Spread.Sheets.CopyToOptions.all),o.setValue(u+D,h.c0l,p),o.setValue(u+D,1,D+1),o.setValue(u+D,3,C.EmpCode),o.setValue(u+D,4,C.EmpName),o.setValue(u+D,5,C.eid),g[C.eid]&amp;&amp;a.lv_nga(o,u+D,h,g[C.eid],r,d,c,f),t.BC=n("BC",f),t.BC.length&gt;0&amp;&amp;o.setValue(u+D,h.c0l+h.n2,t.BC.join("\r\n")),o.setValue(u+D,h.c0l+h.n2+1,C.tenpb),o.autoFitRow(u+D)}t.A3.length&gt;0&amp;&amp;o.setValue(2,0,","+t.A3.join(","));var v=u+i,S=o.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=o.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=o.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
   </si>
 </sst>
 </file>
@@ -147,14 +147,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;Tháng &quot;mm&quot; năm &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="00"/>
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,21 +282,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="1"/>
-      <color theme="4" tint="0.79998168889431442"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="1"/>
       <color theme="4" tint="0.79998168889431442"/>
       <name val="Calibri"/>
@@ -317,12 +302,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -367,6 +346,35 @@
     <font>
       <sz val="13.5"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -943,9 +951,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -968,9 +976,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -983,63 +988,26 @@
     <xf numFmtId="167" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,16 +1022,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1072,7 +1040,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1084,7 +1052,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1146,38 +1114,110 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1188,24 +1228,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,80 +1260,44 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="Comma 2" xfId="5"/>
     <cellStyle name="Comma 2 4" xfId="4"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1439,7 +1431,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1447,6 +1439,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF0066FF"/>
       <color rgb="FF21DD21"/>
@@ -1466,7 +1459,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>115325</xdr:colOff>
+      <xdr:colOff>86750</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -1794,307 +1787,312 @@
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="9" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="25" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="53" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="68" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="25" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="54" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="25" customWidth="1"/>
-    <col min="10" max="22" width="4.28515625" style="25" customWidth="1"/>
-    <col min="23" max="23" width="4.28515625" style="55" customWidth="1"/>
-    <col min="24" max="36" width="4.28515625" style="25" customWidth="1"/>
-    <col min="37" max="38" width="4.28515625" style="55" customWidth="1"/>
-    <col min="39" max="39" width="4.28515625" style="54" customWidth="1"/>
-    <col min="40" max="40" width="4.28515625" style="56" customWidth="1"/>
-    <col min="41" max="41" width="8.7109375" style="25" customWidth="1"/>
-    <col min="42" max="46" width="10.42578125" style="25" customWidth="1"/>
-    <col min="47" max="47" width="14.28515625" style="25" customWidth="1"/>
-    <col min="48" max="48" width="16.42578125" style="25" customWidth="1"/>
-    <col min="49" max="49" width="48" style="25" customWidth="1"/>
-    <col min="50" max="54" width="10.42578125" style="25" customWidth="1"/>
-    <col min="55" max="55" width="53.28515625" style="53" customWidth="1"/>
-    <col min="56" max="56" width="16.85546875" style="25" customWidth="1"/>
-    <col min="57" max="57" width="7.85546875" style="25" hidden="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="3.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="16" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="54" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="40" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="16" customWidth="1"/>
+    <col min="10" max="22" width="4.28515625" style="16" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" style="41" customWidth="1"/>
+    <col min="24" max="36" width="4.28515625" style="16" customWidth="1"/>
+    <col min="37" max="38" width="4.28515625" style="41" customWidth="1"/>
+    <col min="39" max="39" width="4.28515625" style="40" customWidth="1"/>
+    <col min="40" max="40" width="4.28515625" style="42" customWidth="1"/>
+    <col min="41" max="41" width="8.7109375" style="16" customWidth="1"/>
+    <col min="42" max="46" width="10.42578125" style="16" customWidth="1"/>
+    <col min="47" max="47" width="14.28515625" style="16" customWidth="1"/>
+    <col min="48" max="48" width="16.42578125" style="16" customWidth="1"/>
+    <col min="49" max="49" width="48" style="16" customWidth="1"/>
+    <col min="50" max="54" width="10.42578125" style="16" customWidth="1"/>
+    <col min="55" max="55" width="53.28515625" style="39" customWidth="1"/>
+    <col min="56" max="56" width="16.85546875" style="16" customWidth="1"/>
+    <col min="57" max="57" width="7.85546875" style="16" hidden="1" customWidth="1"/>
+    <col min="58" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="47.25" customHeight="1">
-      <c r="B1" s="111" t="s">
+      <c r="A1" s="114"/>
+      <c r="B1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="71"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="15"/>
+      <c r="BE1" s="15"/>
     </row>
-    <row r="2" spans="1:57" s="28" customFormat="1" ht="21" hidden="1" customHeight="1">
-      <c r="A2" s="26">
+    <row r="2" spans="1:57" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
+      <c r="A2" s="115">
         <v>43709</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="17">
         <v>43770</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="27"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="58"/>
+      <c r="BD2" s="17"/>
     </row>
-    <row r="3" spans="1:57" s="31" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="112" t="s">
+    <row r="3" spans="1:57" s="20" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A3" s="116"/>
+      <c r="B3" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="30"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="19"/>
+      <c r="BB3" s="19"/>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="19"/>
     </row>
     <row r="4" spans="1:57" ht="22.5" customHeight="1">
-      <c r="B4" s="121" t="s">
+      <c r="A4" s="117"/>
+      <c r="B4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="116" t="s">
+      <c r="F4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="113"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="113" t="s">
+      <c r="G4" s="77"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="124" t="s">
+      <c r="J4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="124"/>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="124"/>
-      <c r="AK4" s="124"/>
-      <c r="AL4" s="124"/>
-      <c r="AM4" s="124"/>
-      <c r="AN4" s="124"/>
-      <c r="AO4" s="113" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="88"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="93" t="s">
+      <c r="AP4" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="94"/>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="94"/>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="103" t="s">
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="100"/>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="100"/>
+      <c r="AU4" s="100"/>
+      <c r="AV4" s="100"/>
+      <c r="AW4" s="100"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="100"/>
+      <c r="AZ4" s="100"/>
+      <c r="BA4" s="100"/>
+      <c r="BB4" s="100"/>
+      <c r="BC4" s="100"/>
+      <c r="BD4" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="BE4" s="85" t="s">
+      <c r="BE4" s="95" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:57" ht="26.25" customHeight="1">
-      <c r="B5" s="122"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="114"/>
+      <c r="A5" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="86"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="78"/>
       <c r="J5" s="1">
         <f>A2</f>
         <v>43709</v>
@@ -2219,62 +2217,62 @@
         <f>IF(AM5="","",IF(DAY(AM5+1)=DAY(J5),"",AM5+1))</f>
         <v/>
       </c>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="88" t="s">
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="88" t="s">
+      <c r="AQ5" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="88" t="s">
+      <c r="AR5" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AS5" s="106" t="s">
+      <c r="AS5" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="AT5" s="96" t="s">
+      <c r="AT5" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="AU5" s="98" t="s">
+      <c r="AU5" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="98" t="s">
+      <c r="AV5" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="101" t="s">
+      <c r="AW5" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="88" t="s">
+      <c r="AX5" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="AY5" s="88" t="s">
+      <c r="AY5" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="AZ5" s="88" t="s">
+      <c r="AZ5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="BA5" s="88" t="s">
+      <c r="BA5" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="BB5" s="88" t="s">
+      <c r="BB5" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="BC5" s="109" t="s">
+      <c r="BC5" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="BD5" s="104"/>
-      <c r="BE5" s="86"/>
+      <c r="BD5" s="110"/>
+      <c r="BE5" s="96"/>
     </row>
     <row r="6" spans="1:57" ht="36" customHeight="1" thickBot="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="115"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="2" t="str">
         <f>CHOOSE(WEEKDAY(J5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")</f>
         <v xml:space="preserve">  CN</v>
@@ -2399,34 +2397,34 @@
         <f>IF(AN5&lt;&gt;"",CHOOSE(WEEKDAY(AN5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AO6" s="115"/>
-      <c r="AP6" s="95"/>
-      <c r="AQ6" s="89"/>
-      <c r="AR6" s="89"/>
-      <c r="AS6" s="107"/>
-      <c r="AT6" s="97"/>
-      <c r="AU6" s="99"/>
-      <c r="AV6" s="100"/>
-      <c r="AW6" s="102"/>
-      <c r="AX6" s="89"/>
-      <c r="AY6" s="89"/>
-      <c r="AZ6" s="89"/>
-      <c r="BA6" s="89"/>
-      <c r="BB6" s="108"/>
-      <c r="BC6" s="110"/>
-      <c r="BD6" s="105"/>
-      <c r="BE6" s="87"/>
+      <c r="AO6" s="79"/>
+      <c r="AP6" s="101"/>
+      <c r="AQ6" s="98"/>
+      <c r="AR6" s="98"/>
+      <c r="AS6" s="113"/>
+      <c r="AT6" s="103"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="106"/>
+      <c r="AW6" s="108"/>
+      <c r="AX6" s="98"/>
+      <c r="AY6" s="98"/>
+      <c r="AZ6" s="98"/>
+      <c r="BA6" s="98"/>
+      <c r="BB6" s="72"/>
+      <c r="BC6" s="74"/>
+      <c r="BD6" s="111"/>
+      <c r="BE6" s="97"/>
     </row>
-    <row r="7" spans="1:57" s="59" customFormat="1" ht="18">
-      <c r="A7" s="33"/>
+    <row r="7" spans="1:57" s="45" customFormat="1" ht="21">
+      <c r="A7" s="119"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="64"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -2440,7 +2438,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="8"/>
+      <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
@@ -2454,324 +2452,327 @@
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="62"/>
-      <c r="AP7" s="62"/>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="62"/>
-      <c r="AT7" s="62"/>
-      <c r="AU7" s="62"/>
-      <c r="AV7" s="62"/>
-      <c r="AW7" s="82"/>
-      <c r="AX7" s="62"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="62"/>
-      <c r="BA7" s="62"/>
-      <c r="BB7" s="62"/>
-      <c r="BC7" s="74"/>
-      <c r="BD7" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="BE7" s="58" t="s">
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="48">
+        <f>SUM(J7:AN7)</f>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="48"/>
+      <c r="AQ7" s="48"/>
+      <c r="AR7" s="48"/>
+      <c r="AS7" s="48"/>
+      <c r="AT7" s="48"/>
+      <c r="AU7" s="69"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="64"/>
+      <c r="AX7" s="48"/>
+      <c r="AY7" s="48"/>
+      <c r="AZ7" s="48"/>
+      <c r="BA7" s="48"/>
+      <c r="BB7" s="48"/>
+      <c r="BC7" s="64"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="44" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:57" s="59" customFormat="1" ht="18">
-      <c r="A8" s="33"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="22"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="16"/>
-      <c r="AQ8" s="16"/>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="16"/>
-      <c r="AT8" s="16"/>
-      <c r="AU8" s="16"/>
-      <c r="AV8" s="16"/>
-      <c r="AW8" s="83"/>
-      <c r="AX8" s="16"/>
-      <c r="AY8" s="16"/>
-      <c r="AZ8" s="16"/>
-      <c r="BA8" s="16"/>
-      <c r="BB8" s="16"/>
-      <c r="BC8" s="80"/>
-      <c r="BD8" s="78"/>
-      <c r="BE8" s="60" t="s">
+    <row r="8" spans="1:57" s="45" customFormat="1" ht="21">
+      <c r="A8" s="119"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="12">
+        <f>SUM(J8:AN8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="70"/>
+      <c r="AV8" s="70"/>
+      <c r="AW8" s="65"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="13"/>
+      <c r="BB8" s="13"/>
+      <c r="BC8" s="65"/>
+      <c r="BD8" s="62"/>
+      <c r="BE8" s="46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:57" s="59" customFormat="1" ht="18.75" thickBot="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="16"/>
-      <c r="AQ9" s="16"/>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="84"/>
-      <c r="AX9" s="16"/>
-      <c r="AY9" s="16"/>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="16"/>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="75"/>
-      <c r="BD9" s="79"/>
-      <c r="BE9" s="61" t="s">
+    <row r="9" spans="1:57" s="45" customFormat="1" ht="21.75" thickBot="1">
+      <c r="A9" s="119"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="12">
+        <f>SUM(J9:AN9)</f>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="70"/>
+      <c r="AV9" s="70"/>
+      <c r="AW9" s="66"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="65"/>
+      <c r="BD9" s="63"/>
+      <c r="BE9" s="47" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:57" s="45" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35" t="s">
+    <row r="10" spans="1:57" s="31" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A10" s="120"/>
+      <c r="B10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="42">
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="28">
         <f>SUM(J10:AN10)</f>
         <v>0</v>
       </c>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
-      <c r="AV10" s="42"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="42"/>
-      <c r="BA10" s="42"/>
-      <c r="BB10" s="42"/>
-      <c r="BC10" s="76"/>
-      <c r="BD10" s="43"/>
-      <c r="BE10" s="44"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="28"/>
+      <c r="AU10" s="28"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="28"/>
+      <c r="AX10" s="28"/>
+      <c r="AY10" s="28"/>
+      <c r="AZ10" s="28"/>
+      <c r="BA10" s="28"/>
+      <c r="BB10" s="28"/>
+      <c r="BC10" s="60"/>
+      <c r="BD10" s="29"/>
+      <c r="BE10" s="30"/>
     </row>
     <row r="11" spans="1:57">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="49"/>
-      <c r="AN11" s="51"/>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="48"/>
-      <c r="AV11" s="48"/>
-      <c r="AW11" s="48"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="48"/>
-      <c r="AZ11" s="48"/>
-      <c r="BA11" s="48"/>
-      <c r="BB11" s="48"/>
-      <c r="BC11" s="47"/>
-      <c r="BD11" s="48"/>
-      <c r="BE11" s="48"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="37"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="33"/>
+      <c r="BD11" s="34"/>
+      <c r="BE11" s="34"/>
     </row>
     <row r="12" spans="1:57">
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
     </row>
     <row r="13" spans="1:57">
-      <c r="B13" s="46"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
     </row>
     <row r="14" spans="1:57">
-      <c r="B14" s="46"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:57">
-      <c r="B15" s="46"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="AU15" s="57"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="AU15" s="43"/>
     </row>
     <row r="16" spans="1:57">
-      <c r="B16" s="46"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="BB16" s="39"/>
+      <c r="BC16" s="16"/>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="46"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="114"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="AO4:AO6"/>
-    <mergeCell ref="C4:C6"/>
     <mergeCell ref="BE4:BE6"/>
     <mergeCell ref="AR5:AR6"/>
     <mergeCell ref="D4:D6"/>
@@ -2788,41 +2789,59 @@
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="BD4:BD6"/>
     <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:AN9">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>IF(WEEKDAY(J$5)=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>IF(WEEKDAY(J$5)=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>IF(J$5="",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:I9 AM7:BD9">
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="5" priority="15">
       <formula>$BE7="IH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:BD9">
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BD9">
-    <cfRule type="expression" dxfId="2" priority="38">
+    <cfRule type="expression" dxfId="3" priority="39">
       <formula>$BE7="P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:BD9">
-    <cfRule type="expression" dxfId="1" priority="40">
+    <cfRule type="expression" dxfId="2" priority="41">
       <formula>$BE7="PH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BD9">
-    <cfRule type="expression" dxfId="0" priority="42">
+    <cfRule type="expression" dxfId="1" priority="43">
       <formula>$BE7="I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:AN9">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>ISNUMBER( FIND("," &amp; ADDRESS(ROW(),COLUMN(),4),$A$3))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/media/utils/tmplexcel/liway_lv.xlsx
+++ b/media/utils/tmplexcel/liway_lv.xlsx
@@ -139,7 +139,7 @@
 (Remark 2)</t>
   </si>
   <si>
-    <t>function(){function e(e,t){var a={1051:function(e,a,n,o,r,l){if(e.setValue(a,o.c0l+o.n1+1,n.tong),l[n.id]){var u=t.BC[n.id]||(t.BC[n.id]=[]);(u[n.regid]||(u[n.regid]=[])).push([new Date(r),n.selo,n.tong])}},2506:function(e,a,n,o,r){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(a+1)+","+(o.cot+1)+",4)",0,0)),e.setValue(a,o.c0l+o.n1-2+n.selo,n.tong)},render_LV:function(e,t,n,o,r,l){n.cot=n.c0l+r.getDate(),e.setValue(t,n.cot,o.tong),a[o.id]&amp;&amp;a[o.id](e,t,o,n,r,l)},lv_nga:function(e,n,o,r,l,u,s,i){t.sortOrder(r,t.lvR).forEach(function(r){l.R.some(function(l){if(l.regid==r){var d=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;s?s:l.todate)+1):l.todate=new Date(d);d&lt;=l.todate;)-1==t.DUP.indexOf(d.getTime())&amp;&amp;u&lt;=d&amp;&amp;d&lt;=s&amp;&amp;(a.render_LV(e,n,o,l,d,i),t.DUP.unshift(d.getTime())),d=new Date(d.setDate(d.getDate()+1));return!0}})})}},n=function(e,a){var n=[];for(var o in t[e])t.BC.hasOwnProperty(o)&amp;&amp;t[e][o].forEach(function(e,t){var r=e.reduce(function(e,t){return e+=t[2]},0);n.push(a[o][1]+" "+r+" day"+(1!=r?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")")});return n};t.ex_lv=function(o,r,l){var u=7,s=o.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,i=r.emp.length,d=new Date(new Date(l[2]).setHours(0,0,0,0)),c=new Date(new Date(l[3]).setHours(0,0,0,0));i&lt;3?o.deleteRows(u,3-i):o.addRows(u,i-3),u-=1,o.setValue(1,0,d),o.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(l[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+l[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(l[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(l[3])+")"}]});var p=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(l[2]),g=r.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),f=r.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),h={c0l:8,n1:40,n2:46};t.A3=[],t.lvR=[],r.R.map(function(e){t.lvR.push(e.regid)});for(var D=0;D&lt;i;D++){var C=r.emp[D];t.AW=[],t.BC={},t.DUP=[-1],o.copyTo(6,0,u+D,0,1,s,GC.Spread.Sheets.CopyToOptions.all),o.setValue(u+D,h.c0l,p),o.setValue(u+D,1,D+1),o.setValue(u+D,3,C.EmpCode),o.setValue(u+D,4,C.EmpName),o.setValue(u+D,5,C.eid),g[C.eid]&amp;&amp;a.lv_nga(o,u+D,h,g[C.eid],r,d,c,f),t.BC=n("BC",f),t.BC.length&gt;0&amp;&amp;o.setValue(u+D,h.c0l+h.n2,t.BC.join("\r\n")),o.setValue(u+D,h.c0l+h.n2+1,C.tenpb),o.autoFitRow(u+D)}t.A3.length&gt;0&amp;&amp;o.setValue(2,0,","+t.A3.join(","));var v=u+i,S=o.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=o.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=o.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
+    <t>function(){function e(e,t){var a={1051:function(e,a,n,o,r,l){if(e.setValue(a,o.c0l+o.n1+1,n.tong),l[n.id]){var u=t.BC[n.id]||(t.BC[n.id]=[]);(u[n.regid]||(u[n.regid]=[])).push([new Date(r),n.selo,n.tong])}},2506:function(e,a,n,o,r){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(a+1)+","+(o.cot+1)+",4)",0,0)),e.setValue(a,o.c0l+o.n1-2+n.selo,n.tong)},render_LV:function(e,t,n,o,r,l){n.cot=n.c0l+r.getDate(),e.setValue(t,n.cot,o.tong),a[o.id]&amp;&amp;a[o.id](e,t,o,n,r,l)},lv_nga:function(e,n,o,r,l,u,s,i){t.sortOrder(r,t.lvR).forEach(function(r){l.R.some(function(l){if(l.regid==r){var d=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;s?s:l.todate)+1):l.todate=new Date(d);d&lt;=l.todate;)-1==t.DUP.indexOf(d.getTime())&amp;&amp;u&lt;=d&amp;&amp;d&lt;=s&amp;&amp;(a.render_LV(e,n,o,l,d,i),t.DUP.unshift(d.getTime())),d=new Date(d.setDate(d.getDate()+1));return!0}})})}},n=function(e,a){var n=[];for(var o in t[e])t.BC.hasOwnProperty(o)&amp;&amp;t[e][o].forEach(function(e,t){var r=e.reduce(function(e,t){return e+=t[2]},0);n.push(a[o][1]+" "+r+" day"+(1!=r?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")")});return n};t.ex_lv=function(o,r,l){var u=7,s=o.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,i=r.emp.length,d=new Date(new Date(l[2]).setHours(0,0,0,0)),c=new Date(new Date(l[3]).setHours(0,0,0,0));i&lt;3?o.deleteRows(u,i&gt;0?3-i:2):o.addRows(u,i-3),u-=1,o.setValue(1,0,d),o.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(l[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+l[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(l[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(l[3])+")"}]});var p=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(l[2]),g=r.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),f=r.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),h={c0l:8,n1:40,n2:46};t.A3=[],t.lvR=[],r.R.map(function(e){t.lvR.push(e.regid)});for(var D=0;D&lt;i;D++){var C=r.emp[D];t.AW=[],t.BC={},t.DUP=[-1],o.copyTo(6,0,u+D,0,1,s,GC.Spread.Sheets.CopyToOptions.all),o.setValue(u+D,h.c0l,p),o.setValue(u+D,1,D+1),o.setValue(u+D,3,C.EmpCode),o.setValue(u+D,4,C.EmpName),o.setValue(u+D,5,C.eid),g[C.eid]&amp;&amp;a.lv_nga(o,u+D,h,g[C.eid],r,d,c,f),t.BC=n("BC",f),t.BC.length&gt;0&amp;&amp;o.setValue(u+D,h.c0l+h.n2,t.BC.join("\r\n")),o.setValue(u+D,h.c0l+h.n2+1,C.tenpb),o.autoFitRow(u+D)}t.A3.length&gt;0&amp;&amp;o.setValue(2,0,","+t.A3.join(","));var v=u+i,S=o.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=o.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=o.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
   </si>
 </sst>
 </file>
@@ -1147,69 +1147,36 @@
     <xf numFmtId="169" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1219,16 +1186,6 @@
     <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1264,22 +1221,65 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1787,7 +1787,7 @@
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1820,17 +1820,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="47.25" customHeight="1">
-      <c r="A1" s="114"/>
-      <c r="B1" s="75" t="s">
+      <c r="A1" s="71"/>
+      <c r="B1" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -1881,7 +1881,7 @@
       <c r="BE1" s="15"/>
     </row>
     <row r="2" spans="1:57" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
-      <c r="A2" s="115">
+      <c r="A2" s="72">
         <v>43709</v>
       </c>
       <c r="B2" s="17">
@@ -1943,19 +1943,19 @@
       <c r="BD2" s="17"/>
     </row>
     <row r="3" spans="1:57" s="20" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A3" s="116"/>
-      <c r="B3" s="76" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -2003,96 +2003,96 @@
       <c r="BD3" s="19"/>
     </row>
     <row r="4" spans="1:57" ht="22.5" customHeight="1">
-      <c r="A4" s="117"/>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="77" t="s">
+      <c r="G4" s="106"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="77" t="s">
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="117"/>
+      <c r="AJ4" s="117"/>
+      <c r="AK4" s="117"/>
+      <c r="AL4" s="117"/>
+      <c r="AM4" s="117"/>
+      <c r="AN4" s="117"/>
+      <c r="AO4" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="99" t="s">
+      <c r="AP4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="100"/>
-      <c r="AS4" s="100"/>
-      <c r="AT4" s="100"/>
-      <c r="AU4" s="100"/>
-      <c r="AV4" s="100"/>
-      <c r="AW4" s="100"/>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="100"/>
-      <c r="AZ4" s="100"/>
-      <c r="BA4" s="100"/>
-      <c r="BB4" s="100"/>
-      <c r="BC4" s="100"/>
-      <c r="BD4" s="109" t="s">
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="87"/>
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="87"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="87"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="87"/>
+      <c r="AZ4" s="87"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="87"/>
+      <c r="BC4" s="87"/>
+      <c r="BD4" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="BE4" s="95" t="s">
+      <c r="BE4" s="78" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:57" ht="26.25" customHeight="1">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="78"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="107"/>
       <c r="J5" s="1">
         <f>A2</f>
         <v>43709</v>
@@ -2217,62 +2217,62 @@
         <f>IF(AM5="","",IF(DAY(AM5+1)=DAY(J5),"",AM5+1))</f>
         <v/>
       </c>
-      <c r="AO5" s="78"/>
-      <c r="AP5" s="71" t="s">
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="71" t="s">
+      <c r="AQ5" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="71" t="s">
+      <c r="AR5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="AS5" s="112" t="s">
+      <c r="AS5" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="AT5" s="102" t="s">
+      <c r="AT5" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="AU5" s="104" t="s">
+      <c r="AU5" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="104" t="s">
+      <c r="AV5" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="107" t="s">
+      <c r="AW5" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="71" t="s">
+      <c r="AX5" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="AY5" s="71" t="s">
+      <c r="AY5" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="AZ5" s="71" t="s">
+      <c r="AZ5" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="BA5" s="71" t="s">
+      <c r="BA5" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="BB5" s="71" t="s">
+      <c r="BB5" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="BC5" s="73" t="s">
+      <c r="BC5" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="BD5" s="110"/>
-      <c r="BE5" s="96"/>
+      <c r="BD5" s="97"/>
+      <c r="BE5" s="79"/>
     </row>
     <row r="6" spans="1:57" ht="36" customHeight="1" thickBot="1">
-      <c r="A6" s="118"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="79"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="108"/>
       <c r="J6" s="2" t="str">
         <f>CHOOSE(WEEKDAY(J5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")</f>
         <v xml:space="preserve">  CN</v>
@@ -2397,26 +2397,26 @@
         <f>IF(AN5&lt;&gt;"",CHOOSE(WEEKDAY(AN5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AO6" s="79"/>
-      <c r="AP6" s="101"/>
-      <c r="AQ6" s="98"/>
-      <c r="AR6" s="98"/>
-      <c r="AS6" s="113"/>
-      <c r="AT6" s="103"/>
-      <c r="AU6" s="105"/>
-      <c r="AV6" s="106"/>
-      <c r="AW6" s="108"/>
-      <c r="AX6" s="98"/>
-      <c r="AY6" s="98"/>
-      <c r="AZ6" s="98"/>
-      <c r="BA6" s="98"/>
-      <c r="BB6" s="72"/>
-      <c r="BC6" s="74"/>
-      <c r="BD6" s="111"/>
-      <c r="BE6" s="97"/>
+      <c r="AO6" s="108"/>
+      <c r="AP6" s="88"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="82"/>
+      <c r="AS6" s="100"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="92"/>
+      <c r="AV6" s="93"/>
+      <c r="AW6" s="95"/>
+      <c r="AX6" s="82"/>
+      <c r="AY6" s="82"/>
+      <c r="AZ6" s="82"/>
+      <c r="BA6" s="82"/>
+      <c r="BB6" s="101"/>
+      <c r="BC6" s="103"/>
+      <c r="BD6" s="98"/>
+      <c r="BE6" s="80"/>
     </row>
     <row r="7" spans="1:57" s="45" customFormat="1" ht="21">
-      <c r="A7" s="119"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2480,7 +2480,7 @@
       </c>
     </row>
     <row r="8" spans="1:57" s="45" customFormat="1" ht="21">
-      <c r="A8" s="119"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2544,7 +2544,7 @@
       </c>
     </row>
     <row r="9" spans="1:57" s="45" customFormat="1" ht="21.75" thickBot="1">
-      <c r="A9" s="119"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2608,7 +2608,7 @@
       </c>
     </row>
     <row r="10" spans="1:57" s="31" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A10" s="120"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="21" t="s">
         <v>6</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="BE10" s="30"/>
     </row>
     <row r="11" spans="1:57">
-      <c r="A11" s="114"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
@@ -2733,32 +2733,32 @@
       <c r="BE11" s="34"/>
     </row>
     <row r="12" spans="1:57">
-      <c r="A12" s="114"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
     </row>
     <row r="13" spans="1:57">
-      <c r="A13" s="114"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="32"/>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
     </row>
     <row r="14" spans="1:57">
-      <c r="A14" s="114"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="32"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:57">
-      <c r="A15" s="114"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="32"/>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="AU15" s="43"/>
     </row>
     <row r="16" spans="1:57">
-      <c r="A16" s="114"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="32"/>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
@@ -2766,13 +2766,26 @@
       <c r="BC16" s="16"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="114"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="32"/>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="BE4:BE6"/>
     <mergeCell ref="AR5:AR6"/>
     <mergeCell ref="D4:D6"/>
@@ -2789,19 +2802,6 @@
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="BD4:BD6"/>
     <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="AO4:AO6"/>
-    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:AN9">
     <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">

--- a/media/utils/tmplexcel/liway_lv.xlsx
+++ b/media/utils/tmplexcel/liway_lv.xlsx
@@ -139,7 +139,7 @@
 (Remark 2)</t>
   </si>
   <si>
-    <t>function(){function e(e,t){var a={1051:function(e,a,n,o,r,l){if(e.setValue(a,o.c0l+o.n1+1,n.tong),l[n.id]){var u=t.BC[n.id]||(t.BC[n.id]=[]);(u[n.regid]||(u[n.regid]=[])).push([new Date(r),n.selo,n.tong])}},2506:function(e,a,n,o,r){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(a+1)+","+(o.cot+1)+",4)",0,0)),e.setValue(a,o.c0l+o.n1-2+n.selo,n.tong)},render_LV:function(e,t,n,o,r,l){n.cot=n.c0l+r.getDate(),e.setValue(t,n.cot,o.tong),a[o.id]&amp;&amp;a[o.id](e,t,o,n,r,l)},lv_nga:function(e,n,o,r,l,u,s,i){t.sortOrder(r,t.lvR).forEach(function(r){l.R.some(function(l){if(l.regid==r){var d=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;s?s:l.todate)+1):l.todate=new Date(d);d&lt;=l.todate;)-1==t.DUP.indexOf(d.getTime())&amp;&amp;u&lt;=d&amp;&amp;d&lt;=s&amp;&amp;(a.render_LV(e,n,o,l,d,i),t.DUP.unshift(d.getTime())),d=new Date(d.setDate(d.getDate()+1));return!0}})})}},n=function(e,a){var n=[];for(var o in t[e])t.BC.hasOwnProperty(o)&amp;&amp;t[e][o].forEach(function(e,t){var r=e.reduce(function(e,t){return e+=t[2]},0);n.push(a[o][1]+" "+r+" day"+(1!=r?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")")});return n};t.ex_lv=function(o,r,l){var u=7,s=o.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,i=r.emp.length,d=new Date(new Date(l[2]).setHours(0,0,0,0)),c=new Date(new Date(l[3]).setHours(0,0,0,0));i&lt;3?o.deleteRows(u,i&gt;0?3-i:2):o.addRows(u,i-3),u-=1,o.setValue(1,0,d),o.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(l[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+l[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(l[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(l[3])+")"}]});var p=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(l[2]),g=r.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),f=r.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),h={c0l:8,n1:40,n2:46};t.A3=[],t.lvR=[],r.R.map(function(e){t.lvR.push(e.regid)});for(var D=0;D&lt;i;D++){var C=r.emp[D];t.AW=[],t.BC={},t.DUP=[-1],o.copyTo(6,0,u+D,0,1,s,GC.Spread.Sheets.CopyToOptions.all),o.setValue(u+D,h.c0l,p),o.setValue(u+D,1,D+1),o.setValue(u+D,3,C.EmpCode),o.setValue(u+D,4,C.EmpName),o.setValue(u+D,5,C.eid),g[C.eid]&amp;&amp;a.lv_nga(o,u+D,h,g[C.eid],r,d,c,f),t.BC=n("BC",f),t.BC.length&gt;0&amp;&amp;o.setValue(u+D,h.c0l+h.n2,t.BC.join("\r\n")),o.setValue(u+D,h.c0l+h.n2+1,C.tenpb),o.autoFitRow(u+D)}t.A3.length&gt;0&amp;&amp;o.setValue(2,0,","+t.A3.join(","));var v=u+i,S=o.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=o.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=o.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
+    <t>function(){function e(e,t){var a={1051:function(e,t,a,n,r,l){o(e,t,n.c0l+n.n1+1,a,r,l,"BC")},2506:function(e,a,n,r,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(a+1)+","+(r.cot+1)+",4)",0,0)),o(e,a,r.c0l+r.n1-2+n.selo,n,l,u,"AW")},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),e.setValue(t,o.cot,0==r.selo?r.tong:n(r.tong/8)),a[r.id]&amp;&amp;a[r.id](e,t,r,o,l,u)},lv_nga:function(e,n,o,r,l,u,s,i){t.sortOrder(r,t.lvR).forEach(function(r){l.R.some(function(l){if(l.regid==r){var d=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;s?s:l.todate)+1):l.todate=new Date(d);d&lt;=l.todate;)-1==t.DUP.indexOf(d.getTime())&amp;&amp;u&lt;=d&amp;&amp;d&lt;=s&amp;&amp;(a.render_LV(e,n,o,l,d,i),t.DUP.unshift(d.getTime())),d=new Date(d.setDate(d.getDate()+1));return!0}})})}},n=function(e){return Math.round(100*e)/100},o=function(e,a,o,r,l,u,s){var i=e.getCell(a,o),d=i.value()||0;i.value(d+(0==r.selo?r.tong:n(r.tong/8))),u[r.id]&amp;&amp;(d=(i=t[s][r.id]||(t[s][r.id]=[]))[r.regid]||(i[r.regid]=[])).push([new Date(l),r.selo,r.tong])},r=function(e,a){var n=[];for(var o in t[e])t[e].hasOwnProperty(o)&amp;&amp;t[e][o].forEach(function(e,t){var r=e.reduce(function(e,t){return e+=t[2]},0),l=" day",u=a[o][1];1==e[0][1]&amp;&amp;(u="Late/Early ("+u+")",l=" hour"),n.push(u+" "+r+l+(r&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")")});return n};t.ex_lv=function(n,o,l){var u=7,s=n.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,i=o.emp.length,d=new Date(new Date(l[2]).setHours(0,0,0,0)),c=new Date(new Date(l[3]).setHours(0,0,0,0));i&lt;3?n.deleteRows(u,i&gt;0?3-i-0:2):n.addRows(u,i-3+0),u-=1,n.setValue(1,0,d),n.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(l[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+l[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(l[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(l[3])+")"}]});var p=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(l[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),h=o.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),f={c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;i;C++){var S=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],n.copyTo(6,0,u+C,0,1,s,GC.Spread.Sheets.CopyToOptions.all);var D=n.getRange("AP"+(u+C)+":BC"+(u+C));n.clear(u+C,D.col,1,D.colCount,GC.Spread.Sheets.SheetArea.viewport,GC.Spread.Sheets.StorageType.data),n.setValue(u+C,f.c0l,p),n.setValue(u+C,1,C+1),n.setValue(u+C,3,S.EmpCode),n.setValue(u+C,4,S.EmpName),n.setValue(u+C,5,S.eid),g[S.eid]&amp;&amp;a.lv_nga(n,u+C,f,g[S.eid],o,d,c,h),t.BC=r("BC",h),t.BC.length&gt;0&amp;&amp;n.setValue(u+C,f.c0l+f.n2,t.BC.join("\r\n")),t.AW=r("AW",h),t.AW.length&gt;0&amp;&amp;n.setValue(u+C,f.c0l+f.n1,t.AW.join("\r\n")),n.setValue(u+C,f.c0l+f.n2+1,S.tenpb),n.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;n.setValue(2,0,","+t.A3.join(","));var v=u+i,m=n.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);m.font("11pt"),(m=n.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(m=n.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
   </si>
 </sst>
 </file>

--- a/media/utils/tmplexcel/liway_lv.xlsx
+++ b/media/utils/tmplexcel/liway_lv.xlsx
@@ -139,22 +139,23 @@
 (Remark 2)</t>
   </si>
   <si>
-    <t>function(){function e(e,t){var a={1051:function(e,t,a,n,r,l){o(e,t,n.c0l+n.n1+1,a,r,l,"BC")},2506:function(e,a,n,r,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(a+1)+","+(r.cot+1)+",4)",0,0)),o(e,a,r.c0l+r.n1-2+n.selo,n,l,u,"AW")},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),e.setValue(t,o.cot,0==r.selo?r.tong:n(r.tong/8)),a[r.id]&amp;&amp;a[r.id](e,t,r,o,l,u)},lv_nga:function(e,n,o,r,l,u,s,i){t.sortOrder(r,t.lvR).forEach(function(r){l.R.some(function(l){if(l.regid==r){var d=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;s?s:l.todate)+1):l.todate=new Date(d);d&lt;=l.todate;)-1==t.DUP.indexOf(d.getTime())&amp;&amp;u&lt;=d&amp;&amp;d&lt;=s&amp;&amp;(a.render_LV(e,n,o,l,d,i),t.DUP.unshift(d.getTime())),d=new Date(d.setDate(d.getDate()+1));return!0}})})}},n=function(e){return Math.round(100*e)/100},o=function(e,a,o,r,l,u,s){var i=e.getCell(a,o),d=i.value()||0;i.value(d+(0==r.selo?r.tong:n(r.tong/8))),u[r.id]&amp;&amp;(d=(i=t[s][r.id]||(t[s][r.id]=[]))[r.regid]||(i[r.regid]=[])).push([new Date(l),r.selo,r.tong])},r=function(e,a){var n=[];for(var o in t[e])t[e].hasOwnProperty(o)&amp;&amp;t[e][o].forEach(function(e,t){var r=e.reduce(function(e,t){return e+=t[2]},0),l=" day",u=a[o][1];1==e[0][1]&amp;&amp;(u="Late/Early ("+u+")",l=" hour"),n.push(u+" "+r+l+(r&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")")});return n};t.ex_lv=function(n,o,l){var u=7,s=n.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,i=o.emp.length,d=new Date(new Date(l[2]).setHours(0,0,0,0)),c=new Date(new Date(l[3]).setHours(0,0,0,0));i&lt;3?n.deleteRows(u,i&gt;0?3-i-0:2):n.addRows(u,i-3+0),u-=1,n.setValue(1,0,d),n.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(l[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+l[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(l[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(l[3])+")"}]});var p=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(l[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),h=o.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),f={c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;i;C++){var S=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],n.copyTo(6,0,u+C,0,1,s,GC.Spread.Sheets.CopyToOptions.all);var D=n.getRange("AP"+(u+C)+":BC"+(u+C));n.clear(u+C,D.col,1,D.colCount,GC.Spread.Sheets.SheetArea.viewport,GC.Spread.Sheets.StorageType.data),n.setValue(u+C,f.c0l,p),n.setValue(u+C,1,C+1),n.setValue(u+C,3,S.EmpCode),n.setValue(u+C,4,S.EmpName),n.setValue(u+C,5,S.eid),g[S.eid]&amp;&amp;a.lv_nga(n,u+C,f,g[S.eid],o,d,c,h),t.BC=r("BC",h),t.BC.length&gt;0&amp;&amp;n.setValue(u+C,f.c0l+f.n2,t.BC.join("\r\n")),t.AW=r("AW",h),t.AW.length&gt;0&amp;&amp;n.setValue(u+C,f.c0l+f.n1,t.AW.join("\r\n")),n.setValue(u+C,f.c0l+f.n2+1,S.tenpb),n.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;n.setValue(2,0,","+t.A3.join(","));var v=u+i,m=n.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);m.font("11pt"),(m=n.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(m=n.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
+    <t>function(){function e(e,t){var a={1051:function(e,t,a,n,r,l){o(e,t,n.c0l+n.n1+1,a,r,l,"BC")},2506:function(e,a,n,r,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(a+1)+","+(r.cot+1)+",4)",0,0)),o(e,a,r.c0l+r.n1-2+n.selo,n,l,u,"AW")},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),e.setValue(t,o.cot,0==r.selo?r.tong:n(r.tong/8)),a[r.id]&amp;&amp;a[r.id](e,t,r,o,l,u)},lv_nga:function(e,n,o,r,l,u,s,i){t.sortOrder(r,t.lvR).forEach(function(r){l.R.some(function(l){if(l.regid==r){var d=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;s?s:l.todate)+1):l.todate=new Date(d);d&lt;=l.todate;)-1==t.DUP.indexOf(d.getTime())&amp;&amp;u&lt;=d&amp;&amp;d&lt;=s&amp;&amp;(a.render_LV(e,n,o,l,d,i),t.DUP.unshift(d.getTime())),d=new Date(d.setDate(d.getDate()+1));return!0}})})}},n=function(e){return Math.round(100*e)/100},o=function(e,a,o,r,l,u,s){var i=e.getCell(a,o),d=i.value()||0;i.value(d+(0==r.selo?r.tong:n(r.tong/8))),u[r.id]&amp;&amp;(d=(i=t[s][r.id]||(t[s][r.id]=[]))[r.regid]||(i[r.regid]=[])).push([new Date(l),r.selo,r.tong])},r=function(e,a){var n=[];for(var o in t[e])t[e].hasOwnProperty(o)&amp;&amp;t[e][o].forEach(function(e,t){var r=e.reduce(function(e,t){return e+=t[2]},0),l=" day",u=a[o][1];1==e[0][1]&amp;&amp;(u="Late/Early ("+u+")",l=" hour"),n.push(u+" "+r+l+(r&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")")});return n};t.ex_lv=function(n,o,l){var u=7,s=n.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,i=o.emp.length,d=new Date(new Date(l[2]).setHours(0,0,0,0)),c=new Date(new Date(l[3]).setHours(0,0,0,0));i&lt;3?n.deleteRows(u,i&gt;0?3-i-0:2):n.addRows(u,i-3+0),u-=1,n.setValue(1,0,d),n.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(l[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+l[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(l[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(l[3])+")"}]});var p=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(l[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),h=o.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),f={clrRng:n.getRange("AP"+u+":BC"+u),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;i;C++){var S=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],n.copyTo(6,0,u+C,0,1,s,GC.Spread.Sheets.CopyToOptions.all),n.clear(u+C,f.clrRng.col,1,f.clrRng.colCount,GC.Spread.Sheets.SheetArea.viewport,GC.Spread.Sheets.StorageType.data),n.setValue(u+C,f.c0l,p),n.setValue(u+C,1,C+1),n.setValue(u+C,3,S.EmpCode),n.setValue(u+C,4,S.EmpName),n.setValue(u+C,5,S.eid),g[S.eid]&amp;&amp;a.lv_nga(n,u+C,f,g[S.eid],o,d,c,h),t.BC=r("BC",h),t.BC.length&gt;0&amp;&amp;n.setValue(u+C,f.c0l+f.n2,t.BC.join("\r\n")),t.AW=r("AW",h),t.AW.length&gt;0&amp;&amp;n.setValue(u+C,f.c0l+f.n1,t.AW.join("\r\n")),n.setValue(u+C,f.c0l+f.n2+1,S.tenpb),n.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;n.setValue(2,0,","+t.A3.join(","));var D=u+i,v=n.getRange("AW6:AW"+D,GC.Spread.Sheets.SheetArea.all);v.font("11pt"),(v=n.getRange("BC6:BC"+D,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(v=n.getRange("I6:I"+D,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="&quot;Tháng &quot;mm&quot; năm &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="00"/>
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0;\-#,##0.0;\-"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +376,21 @@
       <b/>
       <sz val="1"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -953,7 +969,7 @@
     <xf numFmtId="168" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1022,12 +1038,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1164,6 +1174,78 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1173,19 +1255,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1221,65 +1291,17 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1796,41 +1818,41 @@
     <col min="2" max="2" width="9" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="16" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="54" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="52" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="40" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="38" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="16" customWidth="1"/>
-    <col min="10" max="22" width="4.28515625" style="16" customWidth="1"/>
-    <col min="23" max="23" width="4.28515625" style="41" customWidth="1"/>
-    <col min="24" max="36" width="4.28515625" style="16" customWidth="1"/>
-    <col min="37" max="38" width="4.28515625" style="41" customWidth="1"/>
-    <col min="39" max="39" width="4.28515625" style="40" customWidth="1"/>
-    <col min="40" max="40" width="4.28515625" style="42" customWidth="1"/>
+    <col min="10" max="22" width="4.7109375" style="16" customWidth="1"/>
+    <col min="23" max="23" width="4.7109375" style="39" customWidth="1"/>
+    <col min="24" max="36" width="4.7109375" style="16" customWidth="1"/>
+    <col min="37" max="38" width="4.7109375" style="39" customWidth="1"/>
+    <col min="39" max="39" width="4.7109375" style="38" customWidth="1"/>
+    <col min="40" max="40" width="4.7109375" style="40" customWidth="1"/>
     <col min="41" max="41" width="8.7109375" style="16" customWidth="1"/>
     <col min="42" max="46" width="10.42578125" style="16" customWidth="1"/>
     <col min="47" max="47" width="14.28515625" style="16" customWidth="1"/>
     <col min="48" max="48" width="16.42578125" style="16" customWidth="1"/>
     <col min="49" max="49" width="48" style="16" customWidth="1"/>
     <col min="50" max="54" width="10.42578125" style="16" customWidth="1"/>
-    <col min="55" max="55" width="53.28515625" style="39" customWidth="1"/>
+    <col min="55" max="55" width="53.28515625" style="37" customWidth="1"/>
     <col min="56" max="56" width="16.85546875" style="16" customWidth="1"/>
     <col min="57" max="57" width="7.85546875" style="16" hidden="1" customWidth="1"/>
     <col min="58" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="47.25" customHeight="1">
-      <c r="A1" s="71"/>
-      <c r="B1" s="104" t="s">
+      <c r="A1" s="69"/>
+      <c r="B1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -1876,12 +1898,12 @@
       <c r="AZ1" s="15"/>
       <c r="BA1" s="15"/>
       <c r="BB1" s="15"/>
-      <c r="BC1" s="57"/>
+      <c r="BC1" s="55"/>
       <c r="BD1" s="15"/>
       <c r="BE1" s="15"/>
     </row>
     <row r="2" spans="1:57" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
-      <c r="A2" s="72">
+      <c r="A2" s="70">
         <v>43709</v>
       </c>
       <c r="B2" s="17">
@@ -1890,7 +1912,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
-      <c r="F2" s="49"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -1939,23 +1961,23 @@
       <c r="AZ2" s="17"/>
       <c r="BA2" s="17"/>
       <c r="BB2" s="17"/>
-      <c r="BC2" s="58"/>
+      <c r="BC2" s="56"/>
       <c r="BD2" s="17"/>
     </row>
     <row r="3" spans="1:57" s="20" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -1999,100 +2021,100 @@
       <c r="AZ3" s="19"/>
       <c r="BA3" s="19"/>
       <c r="BB3" s="19"/>
-      <c r="BC3" s="59"/>
+      <c r="BC3" s="57"/>
       <c r="BD3" s="19"/>
     </row>
     <row r="4" spans="1:57" ht="22.5" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="114" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="109" t="s">
+      <c r="F4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="106"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="106" t="s">
+      <c r="G4" s="82"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="117"/>
-      <c r="AH4" s="117"/>
-      <c r="AI4" s="117"/>
-      <c r="AJ4" s="117"/>
-      <c r="AK4" s="117"/>
-      <c r="AL4" s="117"/>
-      <c r="AM4" s="117"/>
-      <c r="AN4" s="117"/>
-      <c r="AO4" s="106" t="s">
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="86" t="s">
+      <c r="AP4" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="87"/>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="87"/>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="87"/>
-      <c r="BD4" s="96" t="s">
+      <c r="AQ4" s="105"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="105"/>
+      <c r="AT4" s="105"/>
+      <c r="AU4" s="105"/>
+      <c r="AV4" s="105"/>
+      <c r="AW4" s="105"/>
+      <c r="AX4" s="105"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="105"/>
+      <c r="BA4" s="105"/>
+      <c r="BB4" s="105"/>
+      <c r="BC4" s="105"/>
+      <c r="BD4" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="BE4" s="78" t="s">
+      <c r="BE4" s="100" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:57" ht="26.25" customHeight="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="107"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="1">
         <f>A2</f>
         <v>43709</v>
@@ -2217,62 +2239,62 @@
         <f>IF(AM5="","",IF(DAY(AM5+1)=DAY(J5),"",AM5+1))</f>
         <v/>
       </c>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="81" t="s">
+      <c r="AO5" s="83"/>
+      <c r="AP5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="81" t="s">
+      <c r="AQ5" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="81" t="s">
+      <c r="AR5" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AS5" s="99" t="s">
+      <c r="AS5" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="AT5" s="89" t="s">
+      <c r="AT5" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AU5" s="91" t="s">
+      <c r="AU5" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="91" t="s">
+      <c r="AV5" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="94" t="s">
+      <c r="AW5" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="81" t="s">
+      <c r="AX5" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="AY5" s="81" t="s">
+      <c r="AY5" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="AZ5" s="81" t="s">
+      <c r="AZ5" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="BA5" s="81" t="s">
+      <c r="BA5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="BB5" s="81" t="s">
+      <c r="BB5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="BC5" s="102" t="s">
+      <c r="BC5" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="BD5" s="97"/>
-      <c r="BE5" s="79"/>
+      <c r="BD5" s="115"/>
+      <c r="BE5" s="101"/>
     </row>
     <row r="6" spans="1:57" ht="36" customHeight="1" thickBot="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="108"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="2" t="str">
         <f>CHOOSE(WEEKDAY(J5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")</f>
         <v xml:space="preserve">  CN</v>
@@ -2397,34 +2419,34 @@
         <f>IF(AN5&lt;&gt;"",CHOOSE(WEEKDAY(AN5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AO6" s="108"/>
-      <c r="AP6" s="88"/>
-      <c r="AQ6" s="82"/>
-      <c r="AR6" s="82"/>
-      <c r="AS6" s="100"/>
-      <c r="AT6" s="90"/>
-      <c r="AU6" s="92"/>
-      <c r="AV6" s="93"/>
-      <c r="AW6" s="95"/>
-      <c r="AX6" s="82"/>
-      <c r="AY6" s="82"/>
-      <c r="AZ6" s="82"/>
-      <c r="BA6" s="82"/>
-      <c r="BB6" s="101"/>
-      <c r="BC6" s="103"/>
-      <c r="BD6" s="98"/>
-      <c r="BE6" s="80"/>
+      <c r="AO6" s="84"/>
+      <c r="AP6" s="106"/>
+      <c r="AQ6" s="103"/>
+      <c r="AR6" s="103"/>
+      <c r="AS6" s="118"/>
+      <c r="AT6" s="108"/>
+      <c r="AU6" s="110"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="113"/>
+      <c r="AX6" s="103"/>
+      <c r="AY6" s="103"/>
+      <c r="AZ6" s="103"/>
+      <c r="BA6" s="103"/>
+      <c r="BB6" s="77"/>
+      <c r="BC6" s="79"/>
+      <c r="BD6" s="116"/>
+      <c r="BE6" s="102"/>
     </row>
-    <row r="7" spans="1:57" s="45" customFormat="1" ht="21">
-      <c r="A7" s="76"/>
+    <row r="7" spans="1:57" s="43" customFormat="1" ht="21">
+      <c r="A7" s="74"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="50"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="67"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -2456,39 +2478,39 @@
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
-      <c r="AO7" s="48">
+      <c r="AO7" s="46">
         <f>SUM(J7:AN7)</f>
         <v>0</v>
       </c>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="69"/>
-      <c r="AV7" s="69"/>
-      <c r="AW7" s="64"/>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="48"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="48"/>
-      <c r="BC7" s="64"/>
-      <c r="BD7" s="61"/>
-      <c r="BE7" s="44" t="s">
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="46"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="67"/>
+      <c r="AW7" s="62"/>
+      <c r="AX7" s="46"/>
+      <c r="AY7" s="46"/>
+      <c r="AZ7" s="46"/>
+      <c r="BA7" s="46"/>
+      <c r="BB7" s="46"/>
+      <c r="BC7" s="62"/>
+      <c r="BD7" s="59"/>
+      <c r="BE7" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:57" s="45" customFormat="1" ht="21">
-      <c r="A8" s="76"/>
+    <row r="8" spans="1:57" s="43" customFormat="1" ht="21">
+      <c r="A8" s="74"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="51"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="68"/>
+      <c r="I8" s="66"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -2529,30 +2551,30 @@
       <c r="AR8" s="13"/>
       <c r="AS8" s="13"/>
       <c r="AT8" s="13"/>
-      <c r="AU8" s="70"/>
-      <c r="AV8" s="70"/>
-      <c r="AW8" s="65"/>
+      <c r="AU8" s="68"/>
+      <c r="AV8" s="68"/>
+      <c r="AW8" s="63"/>
       <c r="AX8" s="13"/>
       <c r="AY8" s="13"/>
       <c r="AZ8" s="13"/>
       <c r="BA8" s="13"/>
       <c r="BB8" s="13"/>
-      <c r="BC8" s="65"/>
-      <c r="BD8" s="62"/>
-      <c r="BE8" s="46" t="s">
+      <c r="BC8" s="63"/>
+      <c r="BD8" s="60"/>
+      <c r="BE8" s="44" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:57" s="45" customFormat="1" ht="21.75" thickBot="1">
-      <c r="A9" s="76"/>
+    <row r="9" spans="1:57" s="43" customFormat="1" ht="21.75" thickBot="1">
+      <c r="A9" s="74"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="51"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="68"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -2593,199 +2615,315 @@
       <c r="AR9" s="13"/>
       <c r="AS9" s="13"/>
       <c r="AT9" s="13"/>
-      <c r="AU9" s="70"/>
-      <c r="AV9" s="70"/>
-      <c r="AW9" s="66"/>
+      <c r="AU9" s="68"/>
+      <c r="AV9" s="68"/>
+      <c r="AW9" s="64"/>
       <c r="AX9" s="13"/>
       <c r="AY9" s="13"/>
       <c r="AZ9" s="13"/>
       <c r="BA9" s="13"/>
       <c r="BB9" s="13"/>
-      <c r="BC9" s="65"/>
-      <c r="BD9" s="63"/>
-      <c r="BE9" s="47" t="s">
+      <c r="BC9" s="63"/>
+      <c r="BD9" s="61"/>
+      <c r="BE9" s="45" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:57" s="31" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A10" s="77"/>
+    <row r="10" spans="1:57" s="29" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A10" s="75"/>
       <c r="B10" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
-      <c r="F10" s="52"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
       <c r="I10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="27"/>
-      <c r="AO10" s="28">
-        <f>SUM(J10:AN10)</f>
-        <v>0</v>
-      </c>
-      <c r="AP10" s="28"/>
-      <c r="AQ10" s="28"/>
-      <c r="AR10" s="28"/>
-      <c r="AS10" s="28"/>
-      <c r="AT10" s="28"/>
-      <c r="AU10" s="28"/>
-      <c r="AV10" s="28"/>
-      <c r="AW10" s="28"/>
-      <c r="AX10" s="28"/>
-      <c r="AY10" s="28"/>
-      <c r="AZ10" s="28"/>
-      <c r="BA10" s="28"/>
-      <c r="BB10" s="28"/>
-      <c r="BC10" s="60"/>
-      <c r="BD10" s="29"/>
-      <c r="BE10" s="30"/>
+      <c r="J10" s="121">
+        <f>SUM(J7:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="122">
+        <f>SUM(K7:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="122">
+        <f t="shared" ref="L10:AN10" si="2">SUM(L7:L9)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="120">
+        <f>SUM(AO7:AO9)</f>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="119">
+        <f>SUM(AP7:AP9)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="119">
+        <f t="shared" ref="AQ10:AV10" si="3">SUM(AQ7:AQ9)</f>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS10" s="119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AV10" s="119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW10" s="26"/>
+      <c r="AX10" s="119">
+        <f>SUM(AX7:AX9)</f>
+        <v>0</v>
+      </c>
+      <c r="AY10" s="119">
+        <f t="shared" ref="AY10:BB10" si="4">SUM(AY7:AY9)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BA10" s="119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BB10" s="119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BC10" s="58"/>
+      <c r="BD10" s="27"/>
+      <c r="BE10" s="28"/>
     </row>
     <row r="11" spans="1:57">
-      <c r="A11" s="71"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="34"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="34"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="34"/>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="34"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="34"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="34"/>
-      <c r="BB11" s="34"/>
-      <c r="BC11" s="33"/>
-      <c r="BD11" s="34"/>
-      <c r="BE11" s="34"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="32"/>
+      <c r="AQ11" s="32"/>
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="32"/>
+      <c r="AX11" s="32"/>
+      <c r="AY11" s="32"/>
+      <c r="AZ11" s="32"/>
+      <c r="BA11" s="32"/>
+      <c r="BB11" s="32"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="32"/>
+      <c r="BE11" s="32"/>
     </row>
     <row r="12" spans="1:57">
-      <c r="A12" s="71"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:57">
-      <c r="A13" s="71"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:57">
-      <c r="A14" s="71"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:57">
-      <c r="A15" s="71"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="AU15" s="43"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="AU15" s="41"/>
     </row>
     <row r="16" spans="1:57">
-      <c r="A16" s="71"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="BB16" s="39"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="BB16" s="37"/>
       <c r="BC16" s="16"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="71"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="AO4:AO6"/>
-    <mergeCell ref="C4:C6"/>
     <mergeCell ref="BE4:BE6"/>
     <mergeCell ref="AR5:AR6"/>
     <mergeCell ref="D4:D6"/>
@@ -2802,6 +2940,19 @@
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="BD4:BD6"/>
     <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:AN9">
     <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">

--- a/media/utils/tmplexcel/liway_lv.xlsx
+++ b/media/utils/tmplexcel/liway_lv.xlsx
@@ -139,7 +139,7 @@
 (Remark 2)</t>
   </si>
   <si>
-    <t>function(){function e(e,t){var a={1051:function(e,t,a,n,r,l){o(e,t,n.c0l+n.n1+1,a,r,l,"BC")},2506:function(e,a,n,r,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(a+1)+","+(r.cot+1)+",4)",0,0)),o(e,a,r.c0l+r.n1-2+n.selo,n,l,u,"AW")},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),e.setValue(t,o.cot,0==r.selo?r.tong:n(r.tong/8)),a[r.id]&amp;&amp;a[r.id](e,t,r,o,l,u)},lv_nga:function(e,n,o,r,l,u,s,i){t.sortOrder(r,t.lvR).forEach(function(r){l.R.some(function(l){if(l.regid==r){var d=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;s?s:l.todate)+1):l.todate=new Date(d);d&lt;=l.todate;)-1==t.DUP.indexOf(d.getTime())&amp;&amp;u&lt;=d&amp;&amp;d&lt;=s&amp;&amp;(a.render_LV(e,n,o,l,d,i),t.DUP.unshift(d.getTime())),d=new Date(d.setDate(d.getDate()+1));return!0}})})}},n=function(e){return Math.round(100*e)/100},o=function(e,a,o,r,l,u,s){var i=e.getCell(a,o),d=i.value()||0;i.value(d+(0==r.selo?r.tong:n(r.tong/8))),u[r.id]&amp;&amp;(d=(i=t[s][r.id]||(t[s][r.id]=[]))[r.regid]||(i[r.regid]=[])).push([new Date(l),r.selo,r.tong])},r=function(e,a){var n=[];for(var o in t[e])t[e].hasOwnProperty(o)&amp;&amp;t[e][o].forEach(function(e,t){var r=e.reduce(function(e,t){return e+=t[2]},0),l=" day",u=a[o][1];1==e[0][1]&amp;&amp;(u="Late/Early ("+u+")",l=" hour"),n.push(u+" "+r+l+(r&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")")});return n};t.ex_lv=function(n,o,l){var u=7,s=n.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,i=o.emp.length,d=new Date(new Date(l[2]).setHours(0,0,0,0)),c=new Date(new Date(l[3]).setHours(0,0,0,0));i&lt;3?n.deleteRows(u,i&gt;0?3-i-0:2):n.addRows(u,i-3+0),u-=1,n.setValue(1,0,d),n.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(l[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+l[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(l[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(l[3])+")"}]});var p=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(l[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),h=o.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),f={clrRng:n.getRange("AP"+u+":BC"+u),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;i;C++){var S=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],n.copyTo(6,0,u+C,0,1,s,GC.Spread.Sheets.CopyToOptions.all),n.clear(u+C,f.clrRng.col,1,f.clrRng.colCount,GC.Spread.Sheets.SheetArea.viewport,GC.Spread.Sheets.StorageType.data),n.setValue(u+C,f.c0l,p),n.setValue(u+C,1,C+1),n.setValue(u+C,3,S.EmpCode),n.setValue(u+C,4,S.EmpName),n.setValue(u+C,5,S.eid),g[S.eid]&amp;&amp;a.lv_nga(n,u+C,f,g[S.eid],o,d,c,h),t.BC=r("BC",h),t.BC.length&gt;0&amp;&amp;n.setValue(u+C,f.c0l+f.n2,t.BC.join("\r\n")),t.AW=r("AW",h),t.AW.length&gt;0&amp;&amp;n.setValue(u+C,f.c0l+f.n1,t.AW.join("\r\n")),n.setValue(u+C,f.c0l+f.n2+1,S.tenpb),n.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;n.setValue(2,0,","+t.A3.join(","));var D=u+i,v=n.getRange("AW6:AW"+D,GC.Spread.Sheets.SheetArea.all);v.font("11pt"),(v=n.getRange("BC6:BC"+D,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(v=n.getRange("I6:I"+D,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
+    <t>function(){function e(e,t){var a={1051:function(e,t,a,n,r,l){o(e,t,n.c0l+n.n1+1,a,r,l,"BC")},2506:function(e,a,n,r,l,s){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(a+1)+","+(r.cot+1)+",4)",0,0)),o(e,a,r.c0l+r.n1-2+n.selo,n,l,s,"AW","sty_"+n.id)},render_LV:function(e,t,r,o,l,s){r.cot=r.c0l+l.getDate(),e.setValue(t,r.cot,0==o.selo?o.tong:n(o.tong/8)),a[o.id]&amp;&amp;a[o.id](e,t,o,r,l,s)},lv_nga:function(e,n,r,o,l,s,u,i){t.sortOrder(o,t.lvR).forEach(function(o){l.R.some(function(l){if(l.regid==o){var d=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;s?s:l.EachDate,l.todate&gt;u?u:l.todate)+1):l.todate=new Date(d);d&lt;=l.todate;)-1==t.DUP.indexOf(d.getTime())&amp;&amp;s&lt;=d&amp;&amp;d&lt;=u&amp;&amp;(a.render_LV(e,n,r,l,d,i),t.DUP.unshift(d.getTime())),d=new Date(d.setDate(d.getDate()+1));return!0}})})}},n=function(e){return Math.round(100*e)/100},r={sty_2506:{style:{foreColor:"red"}}},o=function(e,a,r,o,l,s,u,i){var d=e.getCell(a,r),c=d.value()||0;d.value(c+(0==o.selo?o.tong:n(o.tong/8))),s[o.id]&amp;&amp;(c=(d=t[u][o.id]||(t[u][o.id]=[]))[o.regid]||(d[o.regid]=[]),d=[new Date(l),o.selo,o.tong],i&amp;&amp;(d[3]=i),c.push(d))},l=function(e,a){var n=[];for(var o in t[e])t[e].hasOwnProperty(o)&amp;&amp;t[e][o].forEach(function(e,t){var l=e.reduce(function(e,t){return e+=t[2]},0),s=" day",u=a[o][1];1==e[0][1]&amp;&amp;(u="Late/Early ("+u+")",s=" hour"),s=u+" "+l+s+(l&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")",(u=e[0][3]?r[e[0][3]]:{}).text=(n.length&gt;0?"\r\n":"")+s,n.push(JSON.parse(JSON.stringify(u)))});return n};t.ex_lv=function(n,r,o){var s=7,u=n.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,i=r.emp.length,d=new Date(new Date(o[2]).setHours(0,0,0,0)),c=new Date(new Date(o[3]).setHours(0,0,0,0));i&lt;3?n.deleteRows(s,i&gt;0?3-i-0:2):n.addRows(s,i-3+0),s-=1,n.setValue(1,0,new Date(d.getFullYear(),d.getMonth(),1)),n.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(o[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+o[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(o[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(o[3])+")"}]});var g=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(o[2]),p=r.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),h=r.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),f={clrRng:n.getRange("AP"+s+":BC"+s),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],r.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;i;C++){var S=r.emp[C];t.AW={},t.BC={},t.DUP=[-1],n.copyTo(6,0,s+C,0,1,u,GC.Spread.Sheets.CopyToOptions.all),n.clear(s+C,f.clrRng.col,1,f.clrRng.colCount,GC.Spread.Sheets.SheetArea.viewport,GC.Spread.Sheets.StorageType.data),n.setValue(s+C,f.c0l,g),n.setValue(s+C,1,C+1),n.setValue(s+C,3,S.EmpCode),n.setValue(s+C,4,S.EmpName),n.setValue(s+C,5,S.eid),p[S.eid]&amp;&amp;a.lv_nga(n,s+C,f,p[S.eid],r,d,c,h),t.BC=l("BC",h),t.BC.length&gt;0&amp;&amp;n.setValue(s+C,f.c0l+f.n2,{richText:t.BC}),t.AW=l("AW",h),t.AW.length&gt;0&amp;&amp;n.setValue(s+C,f.c0l+f.n1,{richText:t.AW}),n.setValue(s+C,f.c0l+f.n2+1,S.tenpb),n.autoFitRow(s+C)}t.A3.length&gt;0&amp;&amp;n.setValue(2,0,","+t.A3.join(","));var D=s+i,v=n.getRange("AW6:AW"+D,GC.Spread.Sheets.SheetArea.all);v.font("11pt"),(v=n.getRange("BC6:BC"+D,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(v=n.getRange("I6:I"+D,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
   </si>
 </sst>
 </file>
@@ -153,9 +153,9 @@
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0;\-#,##0.0;\-"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0;\-#,##0.0;\-"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,14 +247,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -382,15 +374,39 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color theme="3" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color theme="3" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -963,11 +979,11 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1010,7 +1026,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1023,25 +1039,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1050,7 +1054,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1062,7 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1100,9 +1104,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1124,119 +1125,96 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="33" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="33" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1246,21 +1224,11 @@
     <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="20" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1287,21 +1255,69 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1818,41 +1834,41 @@
     <col min="2" max="2" width="9" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="16" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="52" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="47" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="38" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="34" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="16" customWidth="1"/>
     <col min="10" max="22" width="4.7109375" style="16" customWidth="1"/>
-    <col min="23" max="23" width="4.7109375" style="39" customWidth="1"/>
+    <col min="23" max="23" width="4.7109375" style="35" customWidth="1"/>
     <col min="24" max="36" width="4.7109375" style="16" customWidth="1"/>
-    <col min="37" max="38" width="4.7109375" style="39" customWidth="1"/>
-    <col min="39" max="39" width="4.7109375" style="38" customWidth="1"/>
-    <col min="40" max="40" width="4.7109375" style="40" customWidth="1"/>
+    <col min="37" max="38" width="4.7109375" style="35" customWidth="1"/>
+    <col min="39" max="39" width="4.7109375" style="34" customWidth="1"/>
+    <col min="40" max="40" width="4.7109375" style="36" customWidth="1"/>
     <col min="41" max="41" width="8.7109375" style="16" customWidth="1"/>
     <col min="42" max="46" width="10.42578125" style="16" customWidth="1"/>
     <col min="47" max="47" width="14.28515625" style="16" customWidth="1"/>
     <col min="48" max="48" width="16.42578125" style="16" customWidth="1"/>
     <col min="49" max="49" width="48" style="16" customWidth="1"/>
     <col min="50" max="54" width="10.42578125" style="16" customWidth="1"/>
-    <col min="55" max="55" width="53.28515625" style="37" customWidth="1"/>
+    <col min="55" max="55" width="53.28515625" style="33" customWidth="1"/>
     <col min="56" max="56" width="16.85546875" style="16" customWidth="1"/>
     <col min="57" max="57" width="7.85546875" style="16" hidden="1" customWidth="1"/>
     <col min="58" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="47.25" customHeight="1">
-      <c r="A1" s="69"/>
-      <c r="B1" s="80" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -1898,12 +1914,12 @@
       <c r="AZ1" s="15"/>
       <c r="BA1" s="15"/>
       <c r="BB1" s="15"/>
-      <c r="BC1" s="55"/>
+      <c r="BC1" s="50"/>
       <c r="BD1" s="15"/>
       <c r="BE1" s="15"/>
     </row>
     <row r="2" spans="1:57" s="18" customFormat="1" ht="21" hidden="1" customHeight="1">
-      <c r="A2" s="70">
+      <c r="A2" s="65">
         <v>43709</v>
       </c>
       <c r="B2" s="17">
@@ -1912,7 +1928,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
-      <c r="F2" s="47"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -1961,23 +1977,23 @@
       <c r="AZ2" s="17"/>
       <c r="BA2" s="17"/>
       <c r="BB2" s="17"/>
-      <c r="BC2" s="56"/>
+      <c r="BC2" s="51"/>
       <c r="BD2" s="17"/>
     </row>
     <row r="3" spans="1:57" s="20" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -2021,100 +2037,100 @@
       <c r="AZ3" s="19"/>
       <c r="BA3" s="19"/>
       <c r="BB3" s="19"/>
-      <c r="BC3" s="57"/>
+      <c r="BC3" s="52"/>
       <c r="BD3" s="19"/>
     </row>
     <row r="4" spans="1:57" ht="22.5" customHeight="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="82" t="s">
+      <c r="G4" s="108"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="93" t="s">
+      <c r="J4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="82" t="s">
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="119"/>
+      <c r="AM4" s="119"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="104" t="s">
+      <c r="AP4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AQ4" s="105"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="105"/>
-      <c r="AT4" s="105"/>
-      <c r="AU4" s="105"/>
-      <c r="AV4" s="105"/>
-      <c r="AW4" s="105"/>
-      <c r="AX4" s="105"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="105"/>
-      <c r="BA4" s="105"/>
-      <c r="BB4" s="105"/>
-      <c r="BC4" s="105"/>
-      <c r="BD4" s="114" t="s">
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="BE4" s="100" t="s">
+      <c r="BE4" s="80" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:57" ht="26.25" customHeight="1">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="83"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="109"/>
       <c r="J5" s="1">
         <f>A2</f>
         <v>43709</v>
@@ -2239,62 +2255,62 @@
         <f>IF(AM5="","",IF(DAY(AM5+1)=DAY(J5),"",AM5+1))</f>
         <v/>
       </c>
-      <c r="AO5" s="83"/>
-      <c r="AP5" s="76" t="s">
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="76" t="s">
+      <c r="AQ5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="76" t="s">
+      <c r="AR5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="AS5" s="117" t="s">
+      <c r="AS5" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="AT5" s="107" t="s">
+      <c r="AT5" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="AU5" s="109" t="s">
+      <c r="AU5" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="109" t="s">
+      <c r="AV5" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="112" t="s">
+      <c r="AW5" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="76" t="s">
+      <c r="AX5" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="AY5" s="76" t="s">
+      <c r="AY5" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="AZ5" s="76" t="s">
+      <c r="AZ5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="BA5" s="76" t="s">
+      <c r="BA5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="BB5" s="76" t="s">
+      <c r="BB5" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="BC5" s="78" t="s">
+      <c r="BC5" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="BD5" s="115"/>
-      <c r="BE5" s="101"/>
+      <c r="BD5" s="99"/>
+      <c r="BE5" s="81"/>
     </row>
     <row r="6" spans="1:57" ht="36" customHeight="1" thickBot="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="84"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="2" t="str">
         <f>CHOOSE(WEEKDAY(J5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")</f>
         <v xml:space="preserve">  CN</v>
@@ -2419,34 +2435,34 @@
         <f>IF(AN5&lt;&gt;"",CHOOSE(WEEKDAY(AN5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="106"/>
-      <c r="AQ6" s="103"/>
-      <c r="AR6" s="103"/>
-      <c r="AS6" s="118"/>
-      <c r="AT6" s="108"/>
-      <c r="AU6" s="110"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="113"/>
-      <c r="AX6" s="103"/>
-      <c r="AY6" s="103"/>
-      <c r="AZ6" s="103"/>
-      <c r="BA6" s="103"/>
-      <c r="BB6" s="77"/>
-      <c r="BC6" s="79"/>
-      <c r="BD6" s="116"/>
-      <c r="BE6" s="102"/>
+      <c r="AO6" s="110"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="102"/>
+      <c r="AT6" s="92"/>
+      <c r="AU6" s="94"/>
+      <c r="AV6" s="95"/>
+      <c r="AW6" s="97"/>
+      <c r="AX6" s="84"/>
+      <c r="AY6" s="84"/>
+      <c r="AZ6" s="84"/>
+      <c r="BA6" s="84"/>
+      <c r="BB6" s="103"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="100"/>
+      <c r="BE6" s="82"/>
     </row>
-    <row r="7" spans="1:57" s="43" customFormat="1" ht="21">
-      <c r="A7" s="74"/>
+    <row r="7" spans="1:57" s="39" customFormat="1" ht="21">
+      <c r="A7" s="69"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="65"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -2478,39 +2494,39 @@
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
-      <c r="AO7" s="46">
+      <c r="AO7" s="42">
         <f>SUM(J7:AN7)</f>
         <v>0</v>
       </c>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="46"/>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="46"/>
-      <c r="AT7" s="46"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67"/>
-      <c r="AW7" s="62"/>
-      <c r="AX7" s="46"/>
-      <c r="AY7" s="46"/>
-      <c r="AZ7" s="46"/>
-      <c r="BA7" s="46"/>
-      <c r="BB7" s="46"/>
-      <c r="BC7" s="62"/>
-      <c r="BD7" s="59"/>
-      <c r="BE7" s="42" t="s">
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="62"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="42"/>
+      <c r="AY7" s="42"/>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="57"/>
+      <c r="BD7" s="54"/>
+      <c r="BE7" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:57" s="43" customFormat="1" ht="21">
-      <c r="A8" s="74"/>
+    <row r="8" spans="1:57" s="39" customFormat="1" ht="21">
+      <c r="A8" s="69"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="66"/>
+      <c r="I8" s="61"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -2551,30 +2567,30 @@
       <c r="AR8" s="13"/>
       <c r="AS8" s="13"/>
       <c r="AT8" s="13"/>
-      <c r="AU8" s="68"/>
-      <c r="AV8" s="68"/>
-      <c r="AW8" s="63"/>
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="63"/>
+      <c r="AW8" s="58"/>
       <c r="AX8" s="13"/>
       <c r="AY8" s="13"/>
       <c r="AZ8" s="13"/>
       <c r="BA8" s="13"/>
       <c r="BB8" s="13"/>
-      <c r="BC8" s="63"/>
-      <c r="BD8" s="60"/>
-      <c r="BE8" s="44" t="s">
+      <c r="BC8" s="58"/>
+      <c r="BD8" s="55"/>
+      <c r="BE8" s="40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:57" s="43" customFormat="1" ht="21.75" thickBot="1">
-      <c r="A9" s="74"/>
+    <row r="9" spans="1:57" s="39" customFormat="1" ht="21.75" thickBot="1">
+      <c r="A9" s="69"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="66"/>
+      <c r="I9" s="61"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -2615,315 +2631,328 @@
       <c r="AR9" s="13"/>
       <c r="AS9" s="13"/>
       <c r="AT9" s="13"/>
-      <c r="AU9" s="68"/>
-      <c r="AV9" s="68"/>
-      <c r="AW9" s="64"/>
+      <c r="AU9" s="63"/>
+      <c r="AV9" s="63"/>
+      <c r="AW9" s="59"/>
       <c r="AX9" s="13"/>
       <c r="AY9" s="13"/>
       <c r="AZ9" s="13"/>
       <c r="BA9" s="13"/>
       <c r="BB9" s="13"/>
-      <c r="BC9" s="63"/>
-      <c r="BD9" s="61"/>
-      <c r="BE9" s="45" t="s">
+      <c r="BC9" s="58"/>
+      <c r="BD9" s="56"/>
+      <c r="BE9" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:57" s="29" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A10" s="75"/>
+    <row r="10" spans="1:57" s="25" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A10" s="70"/>
       <c r="B10" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25" t="s">
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="121">
+      <c r="J10" s="75">
         <f>SUM(J7:J9)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="122">
+      <c r="K10" s="76">
         <f>SUM(K7:K9)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="122">
+      <c r="L10" s="76">
         <f t="shared" ref="L10:AN10" si="2">SUM(L7:L9)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="122">
+      <c r="M10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="122">
+      <c r="N10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="122">
+      <c r="O10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P10" s="122">
+      <c r="P10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="122">
+      <c r="Q10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="122">
+      <c r="R10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S10" s="122">
+      <c r="S10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T10" s="122">
+      <c r="T10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U10" s="122">
+      <c r="U10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V10" s="122">
+      <c r="V10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W10" s="122">
+      <c r="W10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X10" s="122">
+      <c r="X10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="122">
+      <c r="Y10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="122">
+      <c r="Z10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="122">
+      <c r="AA10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="122">
+      <c r="AB10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="122">
+      <c r="AC10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="122">
+      <c r="AD10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="122">
+      <c r="AE10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="122">
+      <c r="AF10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="122">
+      <c r="AG10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH10" s="122">
+      <c r="AH10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI10" s="122">
+      <c r="AI10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ10" s="122">
+      <c r="AJ10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK10" s="122">
+      <c r="AK10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL10" s="122">
+      <c r="AL10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AM10" s="122">
+      <c r="AM10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN10" s="122">
+      <c r="AN10" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO10" s="120">
+      <c r="AO10" s="77">
         <f>SUM(AO7:AO9)</f>
         <v>0</v>
       </c>
-      <c r="AP10" s="119">
+      <c r="AP10" s="78">
         <f>SUM(AP7:AP9)</f>
         <v>0</v>
       </c>
-      <c r="AQ10" s="119">
+      <c r="AQ10" s="78">
         <f t="shared" ref="AQ10:AV10" si="3">SUM(AQ7:AQ9)</f>
         <v>0</v>
       </c>
-      <c r="AR10" s="119">
+      <c r="AR10" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AS10" s="119">
+      <c r="AS10" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT10" s="119">
+      <c r="AT10" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU10" s="119">
+      <c r="AU10" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV10" s="119">
+      <c r="AV10" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AW10" s="26"/>
-      <c r="AX10" s="119">
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="78">
         <f>SUM(AX7:AX9)</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="119">
+      <c r="AY10" s="78">
         <f t="shared" ref="AY10:BB10" si="4">SUM(AY7:AY9)</f>
         <v>0</v>
       </c>
-      <c r="AZ10" s="119">
+      <c r="AZ10" s="78">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BA10" s="119">
+      <c r="BA10" s="78">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BB10" s="119">
+      <c r="BB10" s="78">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BC10" s="58"/>
-      <c r="BD10" s="27"/>
-      <c r="BE10" s="28"/>
+      <c r="BC10" s="53"/>
+      <c r="BD10" s="23"/>
+      <c r="BE10" s="24"/>
     </row>
     <row r="11" spans="1:57">
-      <c r="A11" s="69"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="32"/>
-      <c r="AP11" s="32"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="32"/>
-      <c r="AW11" s="32"/>
-      <c r="AX11" s="32"/>
-      <c r="AY11" s="32"/>
-      <c r="AZ11" s="32"/>
-      <c r="BA11" s="32"/>
-      <c r="BB11" s="32"/>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="32"/>
-      <c r="BE11" s="32"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="28"/>
+      <c r="AT11" s="28"/>
+      <c r="AU11" s="28"/>
+      <c r="AV11" s="28"/>
+      <c r="AW11" s="28"/>
+      <c r="AX11" s="28"/>
+      <c r="AY11" s="28"/>
+      <c r="AZ11" s="28"/>
+      <c r="BA11" s="28"/>
+      <c r="BB11" s="28"/>
+      <c r="BC11" s="27"/>
+      <c r="BD11" s="28"/>
+      <c r="BE11" s="28"/>
     </row>
     <row r="12" spans="1:57">
-      <c r="A12" s="69"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:57">
-      <c r="A13" s="69"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:57">
-      <c r="A14" s="69"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:57">
-      <c r="A15" s="69"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="AU15" s="41"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="AU15" s="37"/>
     </row>
     <row r="16" spans="1:57">
-      <c r="A16" s="69"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="BB16" s="37"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="BB16" s="33"/>
       <c r="BC16" s="16"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="69"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="BE4:BE6"/>
     <mergeCell ref="AR5:AR6"/>
     <mergeCell ref="D4:D6"/>
@@ -2940,19 +2969,6 @@
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="BD4:BD6"/>
     <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="AO4:AO6"/>
-    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:AN9">
     <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">

--- a/media/utils/tmplexcel/liway_lv.xlsx
+++ b/media/utils/tmplexcel/liway_lv.xlsx
@@ -139,7 +139,7 @@
 (Remark 2)</t>
   </si>
   <si>
-    <t>function(){function e(e,t){var a={1051:function(e,t,a,n,r,l){o(e,t,n.c0l+n.n1+1,a,r,l,"BC")},2506:function(e,a,n,r,l,s){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(a+1)+","+(r.cot+1)+",4)",0,0)),o(e,a,r.c0l+r.n1-2+n.selo,n,l,s,"AW","sty_"+n.id)},render_LV:function(e,t,r,o,l,s){r.cot=r.c0l+l.getDate(),e.setValue(t,r.cot,0==o.selo?o.tong:n(o.tong/8)),a[o.id]&amp;&amp;a[o.id](e,t,o,r,l,s)},lv_nga:function(e,n,r,o,l,s,u,i){t.sortOrder(o,t.lvR).forEach(function(o){l.R.some(function(l){if(l.regid==o){var d=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;s?s:l.EachDate,l.todate&gt;u?u:l.todate)+1):l.todate=new Date(d);d&lt;=l.todate;)-1==t.DUP.indexOf(d.getTime())&amp;&amp;s&lt;=d&amp;&amp;d&lt;=u&amp;&amp;(a.render_LV(e,n,r,l,d,i),t.DUP.unshift(d.getTime())),d=new Date(d.setDate(d.getDate()+1));return!0}})})}},n=function(e){return Math.round(100*e)/100},r={sty_2506:{style:{foreColor:"red"}}},o=function(e,a,r,o,l,s,u,i){var d=e.getCell(a,r),c=d.value()||0;d.value(c+(0==o.selo?o.tong:n(o.tong/8))),s[o.id]&amp;&amp;(c=(d=t[u][o.id]||(t[u][o.id]=[]))[o.regid]||(d[o.regid]=[]),d=[new Date(l),o.selo,o.tong],i&amp;&amp;(d[3]=i),c.push(d))},l=function(e,a){var n=[];for(var o in t[e])t[e].hasOwnProperty(o)&amp;&amp;t[e][o].forEach(function(e,t){var l=e.reduce(function(e,t){return e+=t[2]},0),s=" day",u=a[o][1];1==e[0][1]&amp;&amp;(u="Late/Early ("+u+")",s=" hour"),s=u+" "+l+s+(l&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")",(u=e[0][3]?r[e[0][3]]:{}).text=(n.length&gt;0?"\r\n":"")+s,n.push(JSON.parse(JSON.stringify(u)))});return n};t.ex_lv=function(n,r,o){var s=7,u=n.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,i=r.emp.length,d=new Date(new Date(o[2]).setHours(0,0,0,0)),c=new Date(new Date(o[3]).setHours(0,0,0,0));i&lt;3?n.deleteRows(s,i&gt;0?3-i-0:2):n.addRows(s,i-3+0),s-=1,n.setValue(1,0,new Date(d.getFullYear(),d.getMonth(),1)),n.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(o[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+o[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(o[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(o[3])+")"}]});var g=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(o[2]),p=r.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),h=r.ot_lv.reduce(function(e,t){var a=e[t.id]||(e[t.id]=[]);return a.push(t.ma),a.push(t.ten),e},{}),f={clrRng:n.getRange("AP"+s+":BC"+s),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],r.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;i;C++){var S=r.emp[C];t.AW={},t.BC={},t.DUP=[-1],n.copyTo(6,0,s+C,0,1,u,GC.Spread.Sheets.CopyToOptions.all),n.clear(s+C,f.clrRng.col,1,f.clrRng.colCount,GC.Spread.Sheets.SheetArea.viewport,GC.Spread.Sheets.StorageType.data),n.setValue(s+C,f.c0l,g),n.setValue(s+C,1,C+1),n.setValue(s+C,3,S.EmpCode),n.setValue(s+C,4,S.EmpName),n.setValue(s+C,5,S.eid),p[S.eid]&amp;&amp;a.lv_nga(n,s+C,f,p[S.eid],r,d,c,h),t.BC=l("BC",h),t.BC.length&gt;0&amp;&amp;n.setValue(s+C,f.c0l+f.n2,{richText:t.BC}),t.AW=l("AW",h),t.AW.length&gt;0&amp;&amp;n.setValue(s+C,f.c0l+f.n1,{richText:t.AW}),n.setValue(s+C,f.c0l+f.n2+1,S.tenpb),n.autoFitRow(s+C)}t.A3.length&gt;0&amp;&amp;n.setValue(2,0,","+t.A3.join(","));var D=s+i,v=n.getRange("AW6:AW"+D,GC.Spread.Sheets.SheetArea.all);v.font("11pt"),(v=n.getRange("BC6:BC"+D,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(v=n.getRange("I6:I"+D,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
+    <t>function(){function e(e,t){var n={1051:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+1,n,o,l,"BC")},2677:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+2,n,o,l,"BC")},2676:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+3,n,o,l,"BC")},2678:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+4,n,o,l,"BC")},2506:function(e,n,a,o,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(n+1)+","+(o.cot+1)+",4)",0,0)),r(e,n,o.c0l+o.n1-2+a.selo,a,l,u,"AW","sty_"+a.id)},2679:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-3,n,o,l,"AW")},2680:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-4,n,o,l,"AW")},2502:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-5,n,o,l,"AW")},2675:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-6,n,o,l,"AW")},2674:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-7,n,o,l,"AW")},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),e.setValue(t,o.cot,0==r.selo?r.tong:a(r.tong/8)),n[r.id]&amp;&amp;n[r.id](e,t,r,o,l,u)},lv_nga:function(e,a,o,r,l,u,i,c){t.sortOrder(r,t.lvR).forEach(function(r){l.R.forEach(function(l){if(l.regid==r){var s=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;i?i:l.todate)+1):l.todate=new Date(s);s&lt;=l.todate;)-1==t.DUP.indexOf(s.getTime())&amp;&amp;u&lt;=s&amp;&amp;s&lt;=i&amp;&amp;(n.render_LV(e,a,o,l,s,c),t.DUP.unshift(s.getTime())),s=new Date(s.setDate(s.getDate()+1))}})})}},a=function(e){return Math.round(100*e)/100},o={sty_2506:{style:{foreColor:"red"}}},r=function(e,n,o,r,l,u,i,c){var s=e.getCell(n,o),d=s.value()||0;s.value(d+(0==r.selo?r.tong:a(r.tong/8))),u[r.id]&amp;&amp;(d=(s=t[i][r.id]||(t[i][r.id]=[]))[r.regid]||(s[r.regid]=[]),s=[new Date(l),r.selo,r.tong],c&amp;&amp;(s[3]=c),d.push(s))},l=function(e,n){var a=[];for(var r in t[e])t[e].hasOwnProperty(r)&amp;&amp;t[e][r].forEach(function(e,t){var l=e.reduce(function(e,t){return e+=t[2]},0),u=" day",i=n[r][1];1==e[0][1]&amp;&amp;(i="Late/Early ("+i+")",u=" hour"),u=i+" "+l+u+(l&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")",(i=e[0][3]?o[e[0][3]]:{}).text=u,a.push([e[0][0].getTime(),JSON.stringify(i)])});return a.sort(function(e,t){return e[0]-t[0]}).map(function(e,t){var n=JSON.parse(e[1]);return t&gt;0&amp;&amp;(n.text="\r\n"+n.text),n})};t.ex_lv=function(a,o,r){var u=7,i=a.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,c=o.emp.length,s=new Date(new Date(r[2]).setHours(0,0,0,0)),d=new Date(new Date(r[3]).setHours(0,0,0,0));c&lt;3?a.deleteRows(u,c&gt;0?3-c-0:2):a.addRows(u,c-3+0),u-=1,a.setValue(1,0,new Date(s.getFullYear(),s.getMonth(),1)),a.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(r[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+r[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(r[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(r[3])+")"}]});var f=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(r[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),p=o.ot_lv.reduce(function(e,t){var n=e[t.id]||(e[t.id]=[]);return n.push(t.ma),n.push(t.ten),e},{}),h={clrDY:a.getRange("J"+u+":AN"+u),clrRng:a.getRange("AP"+u+":BC"+u),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;c;C++)a.copyTo(6,0,u+C,0,1,i,GC.Spread.Sheets.CopyToOptions.all);for(C=0;C&lt;c;C++){var D=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],a.setValue(u+C,h.c0l,f),a.setValue(u+C,1,C+1),a.setValue(u+C,3,D.EmpCode),a.setValue(u+C,4,D.EmpName),a.setValue(u+C,5,D.eid),g[D.eid]&amp;&amp;n.lv_nga(a,u+C,h,g[D.eid],o,s,d,p),t.BC=l("BC",p),t.BC.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n2,{richText:t.BC}),t.AW=l("AW",p),t.AW.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n1,{richText:t.AW}),a.setValue(u+C,h.c0l+h.n2+1,D.tenpb),a.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;a.setValue(2,0,","+t.A3.join(","));var v=u+c,S=a.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=a.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=a.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
   </si>
 </sst>
 </file>
@@ -1202,6 +1202,78 @@
     <xf numFmtId="2" fontId="35" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1211,19 +1283,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,66 +1319,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -1859,16 +1859,16 @@
   <sheetData>
     <row r="1" spans="1:57" ht="47.25" customHeight="1">
       <c r="A1" s="64"/>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -1982,18 +1982,18 @@
     </row>
     <row r="3" spans="1:57" s="20" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="66"/>
-      <c r="B3" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
+      <c r="B3" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -2042,80 +2042,80 @@
     </row>
     <row r="4" spans="1:57" ht="22.5" customHeight="1">
       <c r="A4" s="67"/>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="108" t="s">
+      <c r="G4" s="86"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="119" t="s">
+      <c r="J4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="119"/>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="119"/>
-      <c r="AO4" s="108" t="s">
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="88" t="s">
+      <c r="AP4" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="89"/>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="98" t="s">
+      <c r="AQ4" s="109"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="109"/>
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="109"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="BE4" s="80" t="s">
+      <c r="BE4" s="104" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2123,14 +2123,14 @@
       <c r="A5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="109"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="87"/>
       <c r="J5" s="1">
         <f>A2</f>
         <v>43709</v>
@@ -2255,62 +2255,62 @@
         <f>IF(AM5="","",IF(DAY(AM5+1)=DAY(J5),"",AM5+1))</f>
         <v/>
       </c>
-      <c r="AO5" s="109"/>
-      <c r="AP5" s="83" t="s">
+      <c r="AO5" s="87"/>
+      <c r="AP5" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="83" t="s">
+      <c r="AQ5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="83" t="s">
+      <c r="AR5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AS5" s="101" t="s">
+      <c r="AS5" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="AT5" s="91" t="s">
+      <c r="AT5" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="AU5" s="93" t="s">
+      <c r="AU5" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="93" t="s">
+      <c r="AV5" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="96" t="s">
+      <c r="AW5" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="83" t="s">
+      <c r="AX5" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="AY5" s="83" t="s">
+      <c r="AY5" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="AZ5" s="83" t="s">
+      <c r="AZ5" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="BA5" s="83" t="s">
+      <c r="BA5" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="BB5" s="83" t="s">
+      <c r="BB5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="BC5" s="104" t="s">
+      <c r="BC5" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="BD5" s="99"/>
-      <c r="BE5" s="81"/>
+      <c r="BD5" s="119"/>
+      <c r="BE5" s="105"/>
     </row>
     <row r="6" spans="1:57" ht="36" customHeight="1" thickBot="1">
       <c r="A6" s="68"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="110"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="88"/>
       <c r="J6" s="2" t="str">
         <f>CHOOSE(WEEKDAY(J5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")</f>
         <v xml:space="preserve">  CN</v>
@@ -2435,23 +2435,23 @@
         <f>IF(AN5&lt;&gt;"",CHOOSE(WEEKDAY(AN5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AO6" s="110"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="102"/>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="94"/>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="97"/>
-      <c r="AX6" s="84"/>
-      <c r="AY6" s="84"/>
-      <c r="AZ6" s="84"/>
-      <c r="BA6" s="84"/>
-      <c r="BB6" s="103"/>
-      <c r="BC6" s="105"/>
-      <c r="BD6" s="100"/>
-      <c r="BE6" s="82"/>
+      <c r="AO6" s="88"/>
+      <c r="AP6" s="110"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="122"/>
+      <c r="AT6" s="112"/>
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="115"/>
+      <c r="AW6" s="117"/>
+      <c r="AX6" s="107"/>
+      <c r="AY6" s="107"/>
+      <c r="AZ6" s="107"/>
+      <c r="BA6" s="107"/>
+      <c r="BB6" s="81"/>
+      <c r="BC6" s="83"/>
+      <c r="BD6" s="120"/>
+      <c r="BE6" s="106"/>
     </row>
     <row r="7" spans="1:57" s="39" customFormat="1" ht="21">
       <c r="A7" s="69"/>
@@ -2940,19 +2940,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="AO4:AO6"/>
-    <mergeCell ref="C4:C6"/>
     <mergeCell ref="BE4:BE6"/>
     <mergeCell ref="AR5:AR6"/>
     <mergeCell ref="D4:D6"/>
@@ -2969,6 +2956,19 @@
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="BD4:BD6"/>
     <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:AN9">
     <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">

--- a/media/utils/tmplexcel/liway_lv.xlsx
+++ b/media/utils/tmplexcel/liway_lv.xlsx
@@ -139,7 +139,7 @@
 (Remark 2)</t>
   </si>
   <si>
-    <t>function(){function e(e,t){var n={1051:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+1,n,o,l,"BC")},2677:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+2,n,o,l,"BC")},2676:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+3,n,o,l,"BC")},2678:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+4,n,o,l,"BC")},2506:function(e,n,a,o,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(n+1)+","+(o.cot+1)+",4)",0,0)),r(e,n,o.c0l+o.n1-2+a.selo,a,l,u,"AW","sty_"+a.id)},2679:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-3,n,o,l,"AW")},2680:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-4,n,o,l,"AW")},2502:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-5,n,o,l,"AW")},2675:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-6,n,o,l,"AW")},2674:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-7,n,o,l,"AW")},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),e.setValue(t,o.cot,0==r.selo?r.tong:a(r.tong/8)),n[r.id]&amp;&amp;n[r.id](e,t,r,o,l,u)},lv_nga:function(e,a,o,r,l,u,i,c){t.sortOrder(r,t.lvR).forEach(function(r){l.R.forEach(function(l){if(l.regid==r){var s=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;i?i:l.todate)+1):l.todate=new Date(s);s&lt;=l.todate;)-1==t.DUP.indexOf(s.getTime())&amp;&amp;u&lt;=s&amp;&amp;s&lt;=i&amp;&amp;(n.render_LV(e,a,o,l,s,c),t.DUP.unshift(s.getTime())),s=new Date(s.setDate(s.getDate()+1))}})})}},a=function(e){return Math.round(100*e)/100},o={sty_2506:{style:{foreColor:"red"}}},r=function(e,n,o,r,l,u,i,c){var s=e.getCell(n,o),d=s.value()||0;s.value(d+(0==r.selo?r.tong:a(r.tong/8))),u[r.id]&amp;&amp;(d=(s=t[i][r.id]||(t[i][r.id]=[]))[r.regid]||(s[r.regid]=[]),s=[new Date(l),r.selo,r.tong],c&amp;&amp;(s[3]=c),d.push(s))},l=function(e,n){var a=[];for(var r in t[e])t[e].hasOwnProperty(r)&amp;&amp;t[e][r].forEach(function(e,t){var l=e.reduce(function(e,t){return e+=t[2]},0),u=" day",i=n[r][1];1==e[0][1]&amp;&amp;(i="Late/Early ("+i+")",u=" hour"),u=i+" "+l+u+(l&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")",(i=e[0][3]?o[e[0][3]]:{}).text=u,a.push([e[0][0].getTime(),JSON.stringify(i)])});return a.sort(function(e,t){return e[0]-t[0]}).map(function(e,t){var n=JSON.parse(e[1]);return t&gt;0&amp;&amp;(n.text="\r\n"+n.text),n})};t.ex_lv=function(a,o,r){var u=7,i=a.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,c=o.emp.length,s=new Date(new Date(r[2]).setHours(0,0,0,0)),d=new Date(new Date(r[3]).setHours(0,0,0,0));c&lt;3?a.deleteRows(u,c&gt;0?3-c-0:2):a.addRows(u,c-3+0),u-=1,a.setValue(1,0,new Date(s.getFullYear(),s.getMonth(),1)),a.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(r[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+r[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(r[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(r[3])+")"}]});var f=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(r[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),p=o.ot_lv.reduce(function(e,t){var n=e[t.id]||(e[t.id]=[]);return n.push(t.ma),n.push(t.ten),e},{}),h={clrDY:a.getRange("J"+u+":AN"+u),clrRng:a.getRange("AP"+u+":BC"+u),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;c;C++)a.copyTo(6,0,u+C,0,1,i,GC.Spread.Sheets.CopyToOptions.all);for(C=0;C&lt;c;C++){var D=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],a.setValue(u+C,h.c0l,f),a.setValue(u+C,1,C+1),a.setValue(u+C,3,D.EmpCode),a.setValue(u+C,4,D.EmpName),a.setValue(u+C,5,D.eid),g[D.eid]&amp;&amp;n.lv_nga(a,u+C,h,g[D.eid],o,s,d,p),t.BC=l("BC",p),t.BC.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n2,{richText:t.BC}),t.AW=l("AW",p),t.AW.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n1,{richText:t.AW}),a.setValue(u+C,h.c0l+h.n2+1,D.tenpb),a.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;a.setValue(2,0,","+t.A3.join(","));var v=u+c,S=a.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=a.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=a.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
+    <t>function(){function e(e,t){var n={1051:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+1,n,o,l,"BC")},2677:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+2,n,o,l,"BC")},2676:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+3,n,o,l,"BC")},2678:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+4,n,o,l,"BC")},2506:function(e,n,a,o,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(n+1)+","+(o.cot+1)+",4)",0,0)),r(e,n,o.c0l+o.n1-7,a,l,u,"AW","sty_"+a.id)},2679:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-3,n,o,l,"AW")},2680:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-4,n,o,l,"AW")},2502:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-5,n,o,l,"AW")},2675:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-6,n,o,l,"AW")},2674:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-7,n,o,l,"AW")},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),e.setValue(t,o.cot,0==r.selo?r.tong:a(r.tong/8)),n[r.id]&amp;&amp;n[r.id](e,t,r,o,l,u)},lv_nga:function(e,a,o,r,l,u,i,c){t.sortOrder(r,t.lvR).forEach(function(r){l.R.forEach(function(l){if(l.regid==r){var s=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;i?i:l.todate)+1):l.todate=new Date(s);s&lt;=l.todate;)-1==t.DUP.indexOf(s.getTime())&amp;&amp;u&lt;=s&amp;&amp;s&lt;=i&amp;&amp;(n.render_LV(e,a,o,l,s,c),t.DUP.unshift(s.getTime())),s=new Date(s.setDate(s.getDate()+1))}})})}},a=function(e){return Math.round(100*e)/100},o={sty_2506:{style:{foreColor:"red"}}},r=function(e,n,o,r,l,u,i,c){var s=e.getCell(n,o),d=s.value()||0;s.value(d+(0==r.selo?r.tong:a(r.tong/8))),u[r.id]&amp;&amp;(d=(s=t[i][r.id]||(t[i][r.id]=[]))[r.regid]||(s[r.regid]=[]),s=[new Date(l),r.selo,r.tong],c&amp;&amp;(s[3]=c),d.push(s))},l=function(e,n){var a=[];for(var r in t[e])t[e].hasOwnProperty(r)&amp;&amp;t[e][r].forEach(function(e,t){var l=e.reduce(function(e,t){return e+=t[2]},0),u=" day",i=n[r][1];1==e[0][1]&amp;&amp;(i="Late/Early ("+i+")",u=" hour"),u=i+" "+l+u+(l&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")",(i=e[0][3]?o[e[0][3]]:{}).text=u,a.push([e[0][0].getTime(),JSON.stringify(i)])});return a.sort(function(e,t){return e[0]-t[0]}).map(function(e,t){var n=JSON.parse(e[1]);return t&gt;0&amp;&amp;(n.text="\r\n"+n.text),n})};t.ex_lv=function(a,o,r){var u=7,i=a.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,c=o.emp.length,s=new Date(new Date(r[2]).setHours(0,0,0,0)),d=new Date(new Date(r[3]).setHours(0,0,0,0));c&lt;3?a.deleteRows(u,c&gt;0?3-c-0:2):a.addRows(u,c-3+0),u-=1,a.setValue(1,0,new Date(s.getFullYear(),s.getMonth(),1)),a.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(r[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+r[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(r[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(r[3])+")"}]});var f=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(r[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),p=o.ot_lv.reduce(function(e,t){var n=e[t.id]||(e[t.id]=[]);return n.push(t.ma),n.push(t.ten),e},{}),h={clrDY:a.getRange("J"+u+":AN"+u),clrRng:a.getRange("AP"+u+":BC"+u),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;c;C++)a.copyTo(6,0,u+C,0,1,i,GC.Spread.Sheets.CopyToOptions.all);for(C=0;C&lt;c;C++){var D=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],a.setValue(u+C,h.c0l,f),a.setValue(u+C,1,C+1),a.setValue(u+C,3,D.EmpCode),a.setValue(u+C,4,D.EmpName),a.setValue(u+C,5,D.eid),g[D.eid]&amp;&amp;n.lv_nga(a,u+C,h,g[D.eid],o,s,d,p),t.BC=l("BC",p),t.BC.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n2,{richText:t.BC}),t.AW=l("AW",p),t.AW.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n1,{richText:t.AW}),a.setValue(u+C,h.c0l+h.n2+1,D.tenpb),a.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;a.setValue(2,0,","+t.A3.join(","));var v=u+c,S=a.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=a.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=a.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
   </si>
 </sst>
 </file>
@@ -1202,69 +1202,19 @@
     <xf numFmtId="2" fontId="35" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1274,16 +1224,6 @@
     <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1319,6 +1259,66 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -1859,16 +1859,16 @@
   <sheetData>
     <row r="1" spans="1:57" ht="47.25" customHeight="1">
       <c r="A1" s="64"/>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -1982,18 +1982,18 @@
     </row>
     <row r="3" spans="1:57" s="20" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="66"/>
-      <c r="B3" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
+      <c r="B3" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -2042,80 +2042,80 @@
     </row>
     <row r="4" spans="1:57" ht="22.5" customHeight="1">
       <c r="A4" s="67"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="86" t="s">
+      <c r="G4" s="108"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="97" t="s">
+      <c r="J4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="97"/>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="97"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="86" t="s">
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="119"/>
+      <c r="AM4" s="119"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="108" t="s">
+      <c r="AP4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AQ4" s="109"/>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="109"/>
-      <c r="AT4" s="109"/>
-      <c r="AU4" s="109"/>
-      <c r="AV4" s="109"/>
-      <c r="AW4" s="109"/>
-      <c r="AX4" s="109"/>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="109"/>
-      <c r="BA4" s="109"/>
-      <c r="BB4" s="109"/>
-      <c r="BC4" s="109"/>
-      <c r="BD4" s="118" t="s">
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="BE4" s="104" t="s">
+      <c r="BE4" s="80" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2123,14 +2123,14 @@
       <c r="A5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="87"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="109"/>
       <c r="J5" s="1">
         <f>A2</f>
         <v>43709</v>
@@ -2255,62 +2255,62 @@
         <f>IF(AM5="","",IF(DAY(AM5+1)=DAY(J5),"",AM5+1))</f>
         <v/>
       </c>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="80" t="s">
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="80" t="s">
+      <c r="AQ5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="80" t="s">
+      <c r="AR5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="AS5" s="121" t="s">
+      <c r="AS5" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="AT5" s="111" t="s">
+      <c r="AT5" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="AU5" s="113" t="s">
+      <c r="AU5" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="113" t="s">
+      <c r="AV5" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="116" t="s">
+      <c r="AW5" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="80" t="s">
+      <c r="AX5" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="AY5" s="80" t="s">
+      <c r="AY5" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="AZ5" s="80" t="s">
+      <c r="AZ5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="BA5" s="80" t="s">
+      <c r="BA5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="BB5" s="80" t="s">
+      <c r="BB5" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="BC5" s="82" t="s">
+      <c r="BC5" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="BD5" s="119"/>
-      <c r="BE5" s="105"/>
+      <c r="BD5" s="99"/>
+      <c r="BE5" s="81"/>
     </row>
     <row r="6" spans="1:57" ht="36" customHeight="1" thickBot="1">
       <c r="A6" s="68"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="88"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="2" t="str">
         <f>CHOOSE(WEEKDAY(J5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")</f>
         <v xml:space="preserve">  CN</v>
@@ -2435,23 +2435,23 @@
         <f>IF(AN5&lt;&gt;"",CHOOSE(WEEKDAY(AN5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AO6" s="88"/>
-      <c r="AP6" s="110"/>
-      <c r="AQ6" s="107"/>
-      <c r="AR6" s="107"/>
-      <c r="AS6" s="122"/>
-      <c r="AT6" s="112"/>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="115"/>
-      <c r="AW6" s="117"/>
-      <c r="AX6" s="107"/>
-      <c r="AY6" s="107"/>
-      <c r="AZ6" s="107"/>
-      <c r="BA6" s="107"/>
-      <c r="BB6" s="81"/>
-      <c r="BC6" s="83"/>
-      <c r="BD6" s="120"/>
-      <c r="BE6" s="106"/>
+      <c r="AO6" s="110"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="102"/>
+      <c r="AT6" s="92"/>
+      <c r="AU6" s="94"/>
+      <c r="AV6" s="95"/>
+      <c r="AW6" s="97"/>
+      <c r="AX6" s="84"/>
+      <c r="AY6" s="84"/>
+      <c r="AZ6" s="84"/>
+      <c r="BA6" s="84"/>
+      <c r="BB6" s="103"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="100"/>
+      <c r="BE6" s="82"/>
     </row>
     <row r="7" spans="1:57" s="39" customFormat="1" ht="21">
       <c r="A7" s="69"/>
@@ -2940,6 +2940,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="BE4:BE6"/>
     <mergeCell ref="AR5:AR6"/>
     <mergeCell ref="D4:D6"/>
@@ -2956,19 +2969,6 @@
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="BD4:BD6"/>
     <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="AO4:AO6"/>
-    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:AN9">
     <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">

--- a/media/utils/tmplexcel/liway_lv.xlsx
+++ b/media/utils/tmplexcel/liway_lv.xlsx
@@ -139,7 +139,7 @@
 (Remark 2)</t>
   </si>
   <si>
-    <t>function(){function e(e,t){var n={1051:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+1,n,o,l,"BC")},2677:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+2,n,o,l,"BC")},2676:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+3,n,o,l,"BC")},2678:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+4,n,o,l,"BC")},2506:function(e,n,a,o,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(n+1)+","+(o.cot+1)+",4)",0,0)),r(e,n,o.c0l+o.n1-7,a,l,u,"AW","sty_"+a.id)},2679:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-3,n,o,l,"AW")},2680:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-4,n,o,l,"AW")},2502:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-5,n,o,l,"AW")},2675:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-6,n,o,l,"AW")},2674:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-7,n,o,l,"AW")},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),e.setValue(t,o.cot,0==r.selo?r.tong:a(r.tong/8)),n[r.id]&amp;&amp;n[r.id](e,t,r,o,l,u)},lv_nga:function(e,a,o,r,l,u,i,c){t.sortOrder(r,t.lvR).forEach(function(r){l.R.forEach(function(l){if(l.regid==r){var s=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;i?i:l.todate)+1):l.todate=new Date(s);s&lt;=l.todate;)-1==t.DUP.indexOf(s.getTime())&amp;&amp;u&lt;=s&amp;&amp;s&lt;=i&amp;&amp;(n.render_LV(e,a,o,l,s,c),t.DUP.unshift(s.getTime())),s=new Date(s.setDate(s.getDate()+1))}})})}},a=function(e){return Math.round(100*e)/100},o={sty_2506:{style:{foreColor:"red"}}},r=function(e,n,o,r,l,u,i,c){var s=e.getCell(n,o),d=s.value()||0;s.value(d+(0==r.selo?r.tong:a(r.tong/8))),u[r.id]&amp;&amp;(d=(s=t[i][r.id]||(t[i][r.id]=[]))[r.regid]||(s[r.regid]=[]),s=[new Date(l),r.selo,r.tong],c&amp;&amp;(s[3]=c),d.push(s))},l=function(e,n){var a=[];for(var r in t[e])t[e].hasOwnProperty(r)&amp;&amp;t[e][r].forEach(function(e,t){var l=e.reduce(function(e,t){return e+=t[2]},0),u=" day",i=n[r][1];1==e[0][1]&amp;&amp;(i="Late/Early ("+i+")",u=" hour"),u=i+" "+l+u+(l&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")",(i=e[0][3]?o[e[0][3]]:{}).text=u,a.push([e[0][0].getTime(),JSON.stringify(i)])});return a.sort(function(e,t){return e[0]-t[0]}).map(function(e,t){var n=JSON.parse(e[1]);return t&gt;0&amp;&amp;(n.text="\r\n"+n.text),n})};t.ex_lv=function(a,o,r){var u=7,i=a.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,c=o.emp.length,s=new Date(new Date(r[2]).setHours(0,0,0,0)),d=new Date(new Date(r[3]).setHours(0,0,0,0));c&lt;3?a.deleteRows(u,c&gt;0?3-c-0:2):a.addRows(u,c-3+0),u-=1,a.setValue(1,0,new Date(s.getFullYear(),s.getMonth(),1)),a.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(r[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+r[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(r[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(r[3])+")"}]});var f=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(r[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),p=o.ot_lv.reduce(function(e,t){var n=e[t.id]||(e[t.id]=[]);return n.push(t.ma),n.push(t.ten),e},{}),h={clrDY:a.getRange("J"+u+":AN"+u),clrRng:a.getRange("AP"+u+":BC"+u),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;c;C++)a.copyTo(6,0,u+C,0,1,i,GC.Spread.Sheets.CopyToOptions.all);for(C=0;C&lt;c;C++){var D=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],a.setValue(u+C,h.c0l,f),a.setValue(u+C,1,C+1),a.setValue(u+C,3,D.EmpCode),a.setValue(u+C,4,D.EmpName),a.setValue(u+C,5,D.eid),g[D.eid]&amp;&amp;n.lv_nga(a,u+C,h,g[D.eid],o,s,d,p),t.BC=l("BC",p),t.BC.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n2,{richText:t.BC}),t.AW=l("AW",p),t.AW.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n1,{richText:t.AW}),a.setValue(u+C,h.c0l+h.n2+1,D.tenpb),a.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;a.setValue(2,0,","+t.A3.join(","));var v=u+c,S=a.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=a.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=a.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
+    <t>function(){function e(e,t){var n={1051:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+1,n,o,l,"BC")},2677:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+2,n,o,l,"BC")},2676:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+3,n,o,l,"BC")},2678:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+4,n,o,l,"BC")},2506:function(e,n,a,o,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(n+1)+","+(o.cot+1)+",4)",0,0)),r(e,n,o.c0l+o.n1-7,a,l,u,"AW","sty_"+a.id)},2679:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-3,n,o,l,"AW")},2680:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-4,n,o,l,"AW")},2502:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-5,n,o,l,"AW")},2675:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-6,n,o,l,"AW")},2674:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-7,n,o,l,"AW")},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),e.setValue(t,o.cot,0==r.selo?r.tong:a(r.tong/8)),n[r.id]&amp;&amp;n[r.id](e,t,r,o,l,u)},lv_nga:function(e,a,o,r,l,u,i,c){t.sortOrder(r,t.lvR).forEach(function(r){l.R.forEach(function(l){if(l.regid==r){var s=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;i?i:l.todate)+1):l.todate=new Date(s);s&lt;=l.todate;)-1==t.DUP.indexOf(s.getTime())&amp;&amp;u&lt;=s&amp;&amp;s&lt;=i&amp;&amp;(n.render_LV(e,a,o,l,s,c),t.DUP.unshift(s.getTime())),s=new Date(s.setDate(s.getDate()+1))}})})}},a=function(e){return Math.round(100*e)/100},o={sty_2506:{style:{foreColor:"red"}}},r=function(e,n,o,r,l,u,i,c){var s=e.getCell(n,o),d=s.value()||0;s.value(d+(0==r.selo?r.tong:a(r.tong/8))),u[r.id]&amp;&amp;(d=(s=t[i][r.id]||(t[i][r.id]=[]))[r.regid]||(s[r.regid]=[]),s=[new Date(l),r.selo,r.tong],c&amp;&amp;(s[3]=c),d.push(s))},l=function(e,n){var a=[];for(var r in t[e])t[e].hasOwnProperty(r)&amp;&amp;t[e][r].forEach(function(e,t){var l=e.reduce(function(e,t){return e+=t[2]},0),u=" day",i=n[r][1];1==e[0][1]&amp;&amp;(u=" hour"),u=i+" "+l+u+(l&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")",(i=e[0][3]?o[e[0][3]]:{}).text=u,a.push([e[0][0].getTime(),JSON.stringify(i)])});return a.sort(function(e,t){return e[0]-t[0]}).map(function(e,t){var n=JSON.parse(e[1]);return t&gt;0&amp;&amp;(n.text="\r\n"+n.text),n})};t.ex_lv=function(a,o,r){var u=7,i=a.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,c=o.emp.length,s=new Date(new Date(r[2]).setHours(0,0,0,0)),d=new Date(new Date(r[3]).setHours(0,0,0,0));c&lt;3?a.deleteRows(u,c&gt;0?3-c-0:2):a.addRows(u,c-3+0),u-=1,a.setValue(1,0,new Date(s.getFullYear(),s.getMonth(),1)),a.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(r[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+r[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(r[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(r[3])+")"}]});var f=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(r[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),p=o.ot_lv.reduce(function(e,t){var n=e[t.id]||(e[t.id]=[]);return n.push(t.ma),n.push(t.ten),e},{}),h={clrDY:a.getRange("J"+u+":AN"+u),clrRng:a.getRange("AP"+u+":BC"+u),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;c;C++)a.copyTo(6,0,u+C,0,1,i,GC.Spread.Sheets.CopyToOptions.all);for(C=0;C&lt;c;C++){var D=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],a.setValue(u+C,h.c0l,f),a.setValue(u+C,1,C+1),a.setValue(u+C,3,D.EmpCode),a.setValue(u+C,4,D.EmpName),a.setValue(u+C,5,D.eid),g[D.eid]&amp;&amp;n.lv_nga(a,u+C,h,g[D.eid],o,s,d,p),t.BC=l("BC",p),t.BC.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n2,{richText:t.BC}),t.AW=l("AW",p),t.AW.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n1,{richText:t.AW}),a.setValue(u+C,h.c0l+h.n2+1,D.tenpb),a.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;a.setValue(2,0,","+t.A3.join(","));var v=u+c,S=a.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=a.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=a.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
   </si>
 </sst>
 </file>
@@ -1202,6 +1202,78 @@
     <xf numFmtId="2" fontId="35" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1211,19 +1283,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,66 +1319,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -1859,16 +1859,16 @@
   <sheetData>
     <row r="1" spans="1:57" ht="47.25" customHeight="1">
       <c r="A1" s="64"/>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -1982,18 +1982,18 @@
     </row>
     <row r="3" spans="1:57" s="20" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="66"/>
-      <c r="B3" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
+      <c r="B3" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -2042,80 +2042,80 @@
     </row>
     <row r="4" spans="1:57" ht="22.5" customHeight="1">
       <c r="A4" s="67"/>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="108" t="s">
+      <c r="G4" s="86"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="119" t="s">
+      <c r="J4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="119"/>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="119"/>
-      <c r="AO4" s="108" t="s">
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="88" t="s">
+      <c r="AP4" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="89"/>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="98" t="s">
+      <c r="AQ4" s="109"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="109"/>
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="109"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="BE4" s="80" t="s">
+      <c r="BE4" s="104" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2123,14 +2123,14 @@
       <c r="A5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="109"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="87"/>
       <c r="J5" s="1">
         <f>A2</f>
         <v>43709</v>
@@ -2255,62 +2255,62 @@
         <f>IF(AM5="","",IF(DAY(AM5+1)=DAY(J5),"",AM5+1))</f>
         <v/>
       </c>
-      <c r="AO5" s="109"/>
-      <c r="AP5" s="83" t="s">
+      <c r="AO5" s="87"/>
+      <c r="AP5" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="83" t="s">
+      <c r="AQ5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="83" t="s">
+      <c r="AR5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AS5" s="101" t="s">
+      <c r="AS5" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="AT5" s="91" t="s">
+      <c r="AT5" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="AU5" s="93" t="s">
+      <c r="AU5" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="93" t="s">
+      <c r="AV5" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="96" t="s">
+      <c r="AW5" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="83" t="s">
+      <c r="AX5" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="AY5" s="83" t="s">
+      <c r="AY5" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="AZ5" s="83" t="s">
+      <c r="AZ5" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="BA5" s="83" t="s">
+      <c r="BA5" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="BB5" s="83" t="s">
+      <c r="BB5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="BC5" s="104" t="s">
+      <c r="BC5" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="BD5" s="99"/>
-      <c r="BE5" s="81"/>
+      <c r="BD5" s="119"/>
+      <c r="BE5" s="105"/>
     </row>
     <row r="6" spans="1:57" ht="36" customHeight="1" thickBot="1">
       <c r="A6" s="68"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="110"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="88"/>
       <c r="J6" s="2" t="str">
         <f>CHOOSE(WEEKDAY(J5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")</f>
         <v xml:space="preserve">  CN</v>
@@ -2435,23 +2435,23 @@
         <f>IF(AN5&lt;&gt;"",CHOOSE(WEEKDAY(AN5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AO6" s="110"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="102"/>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="94"/>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="97"/>
-      <c r="AX6" s="84"/>
-      <c r="AY6" s="84"/>
-      <c r="AZ6" s="84"/>
-      <c r="BA6" s="84"/>
-      <c r="BB6" s="103"/>
-      <c r="BC6" s="105"/>
-      <c r="BD6" s="100"/>
-      <c r="BE6" s="82"/>
+      <c r="AO6" s="88"/>
+      <c r="AP6" s="110"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="122"/>
+      <c r="AT6" s="112"/>
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="115"/>
+      <c r="AW6" s="117"/>
+      <c r="AX6" s="107"/>
+      <c r="AY6" s="107"/>
+      <c r="AZ6" s="107"/>
+      <c r="BA6" s="107"/>
+      <c r="BB6" s="81"/>
+      <c r="BC6" s="83"/>
+      <c r="BD6" s="120"/>
+      <c r="BE6" s="106"/>
     </row>
     <row r="7" spans="1:57" s="39" customFormat="1" ht="21">
       <c r="A7" s="69"/>
@@ -2940,19 +2940,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="AO4:AO6"/>
-    <mergeCell ref="C4:C6"/>
     <mergeCell ref="BE4:BE6"/>
     <mergeCell ref="AR5:AR6"/>
     <mergeCell ref="D4:D6"/>
@@ -2969,6 +2956,19 @@
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="BD4:BD6"/>
     <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:AN9">
     <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">

--- a/media/utils/tmplexcel/liway_lv.xlsx
+++ b/media/utils/tmplexcel/liway_lv.xlsx
@@ -139,7 +139,7 @@
 (Remark 2)</t>
   </si>
   <si>
-    <t>function(){function e(e,t){var n={1051:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+1,n,o,l,"BC")},2677:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+2,n,o,l,"BC")},2676:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+3,n,o,l,"BC")},2678:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+4,n,o,l,"BC")},2506:function(e,n,a,o,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(n+1)+","+(o.cot+1)+",4)",0,0)),r(e,n,o.c0l+o.n1-7,a,l,u,"AW","sty_"+a.id)},2679:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-3,n,o,l,"AW")},2680:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-4,n,o,l,"AW")},2502:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-5,n,o,l,"AW")},2675:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-6,n,o,l,"AW")},2674:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-7,n,o,l,"AW")},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),e.setValue(t,o.cot,0==r.selo?r.tong:a(r.tong/8)),n[r.id]&amp;&amp;n[r.id](e,t,r,o,l,u)},lv_nga:function(e,a,o,r,l,u,i,c){t.sortOrder(r,t.lvR).forEach(function(r){l.R.forEach(function(l){if(l.regid==r){var s=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;i?i:l.todate)+1):l.todate=new Date(s);s&lt;=l.todate;)-1==t.DUP.indexOf(s.getTime())&amp;&amp;u&lt;=s&amp;&amp;s&lt;=i&amp;&amp;(n.render_LV(e,a,o,l,s,c),t.DUP.unshift(s.getTime())),s=new Date(s.setDate(s.getDate()+1))}})})}},a=function(e){return Math.round(100*e)/100},o={sty_2506:{style:{foreColor:"red"}}},r=function(e,n,o,r,l,u,i,c){var s=e.getCell(n,o),d=s.value()||0;s.value(d+(0==r.selo?r.tong:a(r.tong/8))),u[r.id]&amp;&amp;(d=(s=t[i][r.id]||(t[i][r.id]=[]))[r.regid]||(s[r.regid]=[]),s=[new Date(l),r.selo,r.tong],c&amp;&amp;(s[3]=c),d.push(s))},l=function(e,n){var a=[];for(var r in t[e])t[e].hasOwnProperty(r)&amp;&amp;t[e][r].forEach(function(e,t){var l=e.reduce(function(e,t){return e+=t[2]},0),u=" day",i=n[r][1];1==e[0][1]&amp;&amp;(u=" hour"),u=i+" "+l+u+(l&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")",(i=e[0][3]?o[e[0][3]]:{}).text=u,a.push([e[0][0].getTime(),JSON.stringify(i)])});return a.sort(function(e,t){return e[0]-t[0]}).map(function(e,t){var n=JSON.parse(e[1]);return t&gt;0&amp;&amp;(n.text="\r\n"+n.text),n})};t.ex_lv=function(a,o,r){var u=7,i=a.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,c=o.emp.length,s=new Date(new Date(r[2]).setHours(0,0,0,0)),d=new Date(new Date(r[3]).setHours(0,0,0,0));c&lt;3?a.deleteRows(u,c&gt;0?3-c-0:2):a.addRows(u,c-3+0),u-=1,a.setValue(1,0,new Date(s.getFullYear(),s.getMonth(),1)),a.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(r[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+r[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(r[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(r[3])+")"}]});var f=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(r[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),p=o.ot_lv.reduce(function(e,t){var n=e[t.id]||(e[t.id]=[]);return n.push(t.ma),n.push(t.ten),e},{}),h={clrDY:a.getRange("J"+u+":AN"+u),clrRng:a.getRange("AP"+u+":BC"+u),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;c;C++)a.copyTo(6,0,u+C,0,1,i,GC.Spread.Sheets.CopyToOptions.all);for(C=0;C&lt;c;C++){var D=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],a.setValue(u+C,h.c0l,f),a.setValue(u+C,1,C+1),a.setValue(u+C,3,D.EmpCode),a.setValue(u+C,4,D.EmpName),a.setValue(u+C,5,D.eid),g[D.eid]&amp;&amp;n.lv_nga(a,u+C,h,g[D.eid],o,s,d,p),t.BC=l("BC",p),t.BC.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n2,{richText:t.BC}),t.AW=l("AW",p),t.AW.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n1,{richText:t.AW}),a.setValue(u+C,h.c0l+h.n2+1,D.tenpb),a.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;a.setValue(2,0,","+t.A3.join(","));var v=u+c,S=a.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=a.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=a.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
+    <t>function(){function e(e,t){var n={1051:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+1,n,o,l,"BC")},2677:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+2,n,o,l,"BC")},2676:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+3,n,o,l,"BC")},2678:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+4,n,o,l,"BC")},2506:function(e,n,a,o,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(n+1)+","+(o.cot+1)+",4)",0,0)),r(e,n,o.c0l+o.n1-7,a,l,u,"AW","sty_"+a.id)},2679:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-3,n,o,l,"AW")},2680:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-4,n,o,l,"AW")},2502:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-5,n,o,l,"AW")},2675:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-6,n,o,l,"AW")},2674:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-7,n,o,l,"AW")},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),e.setValue(t,o.cot,0==r.selo?r.tong:a(r.tong/8)),n[r.id]&amp;&amp;n[r.id](e,t,r,o,l,u)},lv_nga:function(e,a,o,r,l,u,i,c){t.sortOrder(r,t.lvR).forEach(function(r){l.R.forEach(function(l){if(l.regid==r){var s=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;i?i:l.todate)+1):l.todate=new Date(s);s&lt;=l.todate;)-1==t.DUP.indexOf(s.getTime())&amp;&amp;u&lt;=s&amp;&amp;s&lt;=i&amp;&amp;(n.render_LV(e,a,o,l,s,c),t.DUP.unshift(s.getTime())),s=new Date(s.setDate(s.getDate()+1))}})})}},a=function(e){return Math.round(1e3*e)/1e3},o={sty_2506:{style:{foreColor:"red"}}},r=function(e,n,o,r,l,u,i,c){var s=e.getCell(n,o),d=s.value()||0;s.value(d+(0==r.selo?r.tong:a(r.tong/8))),u[r.id]&amp;&amp;(d=(s=t[i][r.id]||(t[i][r.id]=[]))[r.regid]||(s[r.regid]=[]),s=[new Date(l),r.selo,r.tong],c&amp;&amp;(s[3]=c),d.push(s))},l=function(e,n){var a=[];for(var r in t[e])t[e].hasOwnProperty(r)&amp;&amp;t[e][r].forEach(function(e,t){var l=e.reduce(function(e,t){return e+=t[2]},0),u=" day",i=n[r][1];1==e[0][1]&amp;&amp;(u=" hour"),u=i+" "+l+u+(l&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")",(i=e[0][3]?o[e[0][3]]:{}).text=u,a.push([e[0][0].getTime(),JSON.stringify(i)])});return a.sort(function(e,t){return e[0]-t[0]}).map(function(e,t){var n=JSON.parse(e[1]);return t&gt;0&amp;&amp;(n.text="\r\n"+n.text),n})};t.ex_lv=function(a,o,r){var u=7,i=a.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,c=o.emp.length,s=new Date(new Date(r[2]).setHours(0,0,0,0)),d=new Date(new Date(r[3]).setHours(0,0,0,0));c&lt;3?a.deleteRows(u,c&gt;0?3-c-0:2):a.addRows(u,c-3+0),u-=1,a.setValue(1,0,new Date(s.getFullYear(),s.getMonth(),1)),a.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(r[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+r[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(r[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(r[3])+")"}]});var f=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(r[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),p=o.ot_lv.reduce(function(e,t){var n=e[t.id]||(e[t.id]=[]);return n.push(t.ma),n.push(t.ten),e},{}),h={clrDY:a.getRange("J"+u+":AN"+u),clrRng:a.getRange("AP"+u+":BC"+u),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;c;C++)a.copyTo(6,0,u+C,0,1,i,GC.Spread.Sheets.CopyToOptions.all);for(C=0;C&lt;c;C++){var D=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],a.setValue(u+C,h.c0l,f),a.setValue(u+C,1,C+1),a.setValue(u+C,3,D.EmpCode),a.setValue(u+C,4,D.EmpName),a.setValue(u+C,5,D.eid),g[D.eid]&amp;&amp;n.lv_nga(a,u+C,h,g[D.eid],o,s,d,p),t.BC=l("BC",p),t.BC.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n2,{richText:t.BC}),t.AW=l("AW",p),t.AW.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n1,{richText:t.AW}),a.setValue(u+C,h.c0l+h.n2+1,D.tenpb),a.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;a.setValue(2,0,","+t.A3.join(","));var v=u+c,S=a.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=a.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=a.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
   </si>
 </sst>
 </file>
@@ -1202,69 +1202,19 @@
     <xf numFmtId="2" fontId="35" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1274,16 +1224,6 @@
     <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1319,6 +1259,66 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -1859,16 +1859,16 @@
   <sheetData>
     <row r="1" spans="1:57" ht="47.25" customHeight="1">
       <c r="A1" s="64"/>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -1982,18 +1982,18 @@
     </row>
     <row r="3" spans="1:57" s="20" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="66"/>
-      <c r="B3" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
+      <c r="B3" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -2042,80 +2042,80 @@
     </row>
     <row r="4" spans="1:57" ht="22.5" customHeight="1">
       <c r="A4" s="67"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="86" t="s">
+      <c r="G4" s="108"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="97" t="s">
+      <c r="J4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="97"/>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="97"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="86" t="s">
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="119"/>
+      <c r="AM4" s="119"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="108" t="s">
+      <c r="AP4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AQ4" s="109"/>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="109"/>
-      <c r="AT4" s="109"/>
-      <c r="AU4" s="109"/>
-      <c r="AV4" s="109"/>
-      <c r="AW4" s="109"/>
-      <c r="AX4" s="109"/>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="109"/>
-      <c r="BA4" s="109"/>
-      <c r="BB4" s="109"/>
-      <c r="BC4" s="109"/>
-      <c r="BD4" s="118" t="s">
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="BE4" s="104" t="s">
+      <c r="BE4" s="80" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2123,14 +2123,14 @@
       <c r="A5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="87"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="109"/>
       <c r="J5" s="1">
         <f>A2</f>
         <v>43709</v>
@@ -2255,62 +2255,62 @@
         <f>IF(AM5="","",IF(DAY(AM5+1)=DAY(J5),"",AM5+1))</f>
         <v/>
       </c>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="80" t="s">
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="80" t="s">
+      <c r="AQ5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="80" t="s">
+      <c r="AR5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="AS5" s="121" t="s">
+      <c r="AS5" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="AT5" s="111" t="s">
+      <c r="AT5" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="AU5" s="113" t="s">
+      <c r="AU5" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="113" t="s">
+      <c r="AV5" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="116" t="s">
+      <c r="AW5" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="80" t="s">
+      <c r="AX5" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="AY5" s="80" t="s">
+      <c r="AY5" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="AZ5" s="80" t="s">
+      <c r="AZ5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="BA5" s="80" t="s">
+      <c r="BA5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="BB5" s="80" t="s">
+      <c r="BB5" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="BC5" s="82" t="s">
+      <c r="BC5" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="BD5" s="119"/>
-      <c r="BE5" s="105"/>
+      <c r="BD5" s="99"/>
+      <c r="BE5" s="81"/>
     </row>
     <row r="6" spans="1:57" ht="36" customHeight="1" thickBot="1">
       <c r="A6" s="68"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="88"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="2" t="str">
         <f>CHOOSE(WEEKDAY(J5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")</f>
         <v xml:space="preserve">  CN</v>
@@ -2435,23 +2435,23 @@
         <f>IF(AN5&lt;&gt;"",CHOOSE(WEEKDAY(AN5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AO6" s="88"/>
-      <c r="AP6" s="110"/>
-      <c r="AQ6" s="107"/>
-      <c r="AR6" s="107"/>
-      <c r="AS6" s="122"/>
-      <c r="AT6" s="112"/>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="115"/>
-      <c r="AW6" s="117"/>
-      <c r="AX6" s="107"/>
-      <c r="AY6" s="107"/>
-      <c r="AZ6" s="107"/>
-      <c r="BA6" s="107"/>
-      <c r="BB6" s="81"/>
-      <c r="BC6" s="83"/>
-      <c r="BD6" s="120"/>
-      <c r="BE6" s="106"/>
+      <c r="AO6" s="110"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="102"/>
+      <c r="AT6" s="92"/>
+      <c r="AU6" s="94"/>
+      <c r="AV6" s="95"/>
+      <c r="AW6" s="97"/>
+      <c r="AX6" s="84"/>
+      <c r="AY6" s="84"/>
+      <c r="AZ6" s="84"/>
+      <c r="BA6" s="84"/>
+      <c r="BB6" s="103"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="100"/>
+      <c r="BE6" s="82"/>
     </row>
     <row r="7" spans="1:57" s="39" customFormat="1" ht="21">
       <c r="A7" s="69"/>
@@ -2940,6 +2940,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="BE4:BE6"/>
     <mergeCell ref="AR5:AR6"/>
     <mergeCell ref="D4:D6"/>
@@ -2956,19 +2969,6 @@
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="BD4:BD6"/>
     <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="AO4:AO6"/>
-    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:AN9">
     <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">

--- a/media/utils/tmplexcel/liway_lv.xlsx
+++ b/media/utils/tmplexcel/liway_lv.xlsx
@@ -139,7 +139,7 @@
 (Remark 2)</t>
   </si>
   <si>
-    <t>function(){function e(e,t){var n={1051:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+1,n,o,l,"BC")},2677:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+2,n,o,l,"BC")},2676:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+3,n,o,l,"BC")},2678:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+4,n,o,l,"BC")},2506:function(e,n,a,o,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(n+1)+","+(o.cot+1)+",4)",0,0)),r(e,n,o.c0l+o.n1-7,a,l,u,"AW","sty_"+a.id)},2679:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-3,n,o,l,"AW")},2680:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-4,n,o,l,"AW")},2502:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-5,n,o,l,"AW")},2675:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-6,n,o,l,"AW")},2674:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-7,n,o,l,"AW")},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),e.setValue(t,o.cot,0==r.selo?r.tong:a(r.tong/8)),n[r.id]&amp;&amp;n[r.id](e,t,r,o,l,u)},lv_nga:function(e,a,o,r,l,u,i,c){t.sortOrder(r,t.lvR).forEach(function(r){l.R.forEach(function(l){if(l.regid==r){var s=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;i?i:l.todate)+1):l.todate=new Date(s);s&lt;=l.todate;)-1==t.DUP.indexOf(s.getTime())&amp;&amp;u&lt;=s&amp;&amp;s&lt;=i&amp;&amp;(n.render_LV(e,a,o,l,s,c),t.DUP.unshift(s.getTime())),s=new Date(s.setDate(s.getDate()+1))}})})}},a=function(e){return Math.round(1e3*e)/1e3},o={sty_2506:{style:{foreColor:"red"}}},r=function(e,n,o,r,l,u,i,c){var s=e.getCell(n,o),d=s.value()||0;s.value(d+(0==r.selo?r.tong:a(r.tong/8))),u[r.id]&amp;&amp;(d=(s=t[i][r.id]||(t[i][r.id]=[]))[r.regid]||(s[r.regid]=[]),s=[new Date(l),r.selo,r.tong],c&amp;&amp;(s[3]=c),d.push(s))},l=function(e,n){var a=[];for(var r in t[e])t[e].hasOwnProperty(r)&amp;&amp;t[e][r].forEach(function(e,t){var l=e.reduce(function(e,t){return e+=t[2]},0),u=" day",i=n[r][1];1==e[0][1]&amp;&amp;(u=" hour"),u=i+" "+l+u+(l&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")",(i=e[0][3]?o[e[0][3]]:{}).text=u,a.push([e[0][0].getTime(),JSON.stringify(i)])});return a.sort(function(e,t){return e[0]-t[0]}).map(function(e,t){var n=JSON.parse(e[1]);return t&gt;0&amp;&amp;(n.text="\r\n"+n.text),n})};t.ex_lv=function(a,o,r){var u=7,i=a.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,c=o.emp.length,s=new Date(new Date(r[2]).setHours(0,0,0,0)),d=new Date(new Date(r[3]).setHours(0,0,0,0));c&lt;3?a.deleteRows(u,c&gt;0?3-c-0:2):a.addRows(u,c-3+0),u-=1,a.setValue(1,0,new Date(s.getFullYear(),s.getMonth(),1)),a.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(r[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+r[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(r[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(r[3])+")"}]});var f=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(r[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),p=o.ot_lv.reduce(function(e,t){var n=e[t.id]||(e[t.id]=[]);return n.push(t.ma),n.push(t.ten),e},{}),h={clrDY:a.getRange("J"+u+":AN"+u),clrRng:a.getRange("AP"+u+":BC"+u),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;c;C++)a.copyTo(6,0,u+C,0,1,i,GC.Spread.Sheets.CopyToOptions.all);for(C=0;C&lt;c;C++){var D=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],a.setValue(u+C,h.c0l,f),a.setValue(u+C,1,C+1),a.setValue(u+C,3,D.EmpCode),a.setValue(u+C,4,D.EmpName),a.setValue(u+C,5,D.eid),g[D.eid]&amp;&amp;n.lv_nga(a,u+C,h,g[D.eid],o,s,d,p),t.BC=l("BC",p),t.BC.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n2,{richText:t.BC}),t.AW=l("AW",p),t.AW.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n1,{richText:t.AW}),a.setValue(u+C,h.c0l+h.n2+1,D.tenpb),a.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;a.setValue(2,0,","+t.A3.join(","));var v=u+c,S=a.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=a.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=a.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
+    <t>function(){function e(e,t){var n={1051:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+1,n,o,l,"BC")},2677:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+2,n,o,l,"BC")},2676:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+3,n,o,l,"BC")},2678:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+4,n,o,l,"BC")},2506:function(e,n,a,o,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(n+1)+","+(o.cot+1)+",4)",0,0)),r(e,n,o.c0l+o.n1-7,a,l,u,"AW","sty_"+a.id)},2679:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-3,n,o,l,"AW")},2680:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-4,n,o,l,"AW")},2502:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-5,n,o,l,"AW")},2675:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-6,n,o,l,"AW")},2674:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-7,n,o,l,"AW")},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),e.setValue(t,o.cot,0==r.selo?r.tong:a(r.tong/8)),n[r.id]&amp;&amp;n[r.id](e,t,r,o,l,u)},lv_nga:function(e,a,o,r,l,u,i,c){t.sortOrder(r,t.lvR).forEach(function(r){l.R.forEach(function(l){if(l.regid==r){var s=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;i?i:l.todate)+1):l.todate=new Date(s);s&lt;=l.todate;)-1==t.DUP.indexOf(s.getTime())&amp;&amp;u&lt;=s&amp;&amp;s&lt;=i&amp;&amp;(n.render_LV(e,a,o,l,s,c),t.DUP.unshift(s.getTime())),s=new Date(s.setDate(s.getDate()+1))}})})}},a=function(e){return Math.round(1e4*e)/1e4},o={sty_2506:{style:{foreColor:"red"}}},r=function(e,n,o,r,l,u,i,c){var s=e.getCell(n,o),d=s.value()||0;s.value(d+(0==r.selo?r.tong:a(r.tong/8))),u[r.id]&amp;&amp;(d=(s=t[i][r.id]||(t[i][r.id]=[]))[r.regid]||(s[r.regid]=[]),s=[new Date(l),r.selo,r.tong],c&amp;&amp;(s[3]=c),d.push(s))},l=function(e,n){var a=[];for(var r in t[e])t[e].hasOwnProperty(r)&amp;&amp;t[e][r].forEach(function(e,t){var l=e.reduce(function(e,t){return e+=t[2]},0),u=" day",i=n[r][1];1==e[0][1]&amp;&amp;(u=" hour"),u=i+" "+l+u+(l&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")",(i=e[0][3]?o[e[0][3]]:{}).text=u,a.push([e[0][0].getTime(),JSON.stringify(i)])});return a.sort(function(e,t){return e[0]-t[0]}).map(function(e,t){var n=JSON.parse(e[1]);return t&gt;0&amp;&amp;(n.text="\r\n"+n.text),n})};t.ex_lv=function(a,o,r){var u=7,i=a.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,c=o.emp.length,s=new Date(new Date(r[2]).setHours(0,0,0,0)),d=new Date(new Date(r[3]).setHours(0,0,0,0));c&lt;3?a.deleteRows(u,c&gt;0?3-c-0:2):a.addRows(u,c-3+0),u-=1,a.setValue(1,0,new Date(s.getFullYear(),s.getMonth(),1)),a.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(r[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+r[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(r[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(r[3])+")"}]});var f=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(r[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),p=o.ot_lv.reduce(function(e,t){var n=e[t.id]||(e[t.id]=[]);return n.push(t.ma),n.push(t.ten),e},{}),h={clrDY:a.getRange("J"+u+":AN"+u),clrRng:a.getRange("AP"+u+":BC"+u),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;c;C++)a.copyTo(6,0,u+C,0,1,i,GC.Spread.Sheets.CopyToOptions.all);for(C=0;C&lt;c;C++){var D=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],a.setValue(u+C,h.c0l,f),a.setValue(u+C,1,C+1),a.setValue(u+C,3,D.EmpCode),a.setValue(u+C,4,D.EmpName),a.setValue(u+C,5,D.eid),g[D.eid]&amp;&amp;n.lv_nga(a,u+C,h,g[D.eid],o,s,d,p),t.BC=l("BC",p),t.BC.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n2,{richText:t.BC}),t.AW=l("AW",p),t.AW.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n1,{richText:t.AW}),a.setValue(u+C,h.c0l+h.n2+1,D.tenpb),a.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;a.setValue(2,0,","+t.A3.join(","));var v=u+c,S=a.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=a.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=a.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
   </si>
 </sst>
 </file>
@@ -1202,6 +1202,78 @@
     <xf numFmtId="2" fontId="35" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1211,19 +1283,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,66 +1319,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -1859,16 +1859,16 @@
   <sheetData>
     <row r="1" spans="1:57" ht="47.25" customHeight="1">
       <c r="A1" s="64"/>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -1982,18 +1982,18 @@
     </row>
     <row r="3" spans="1:57" s="20" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="66"/>
-      <c r="B3" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
+      <c r="B3" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -2042,80 +2042,80 @@
     </row>
     <row r="4" spans="1:57" ht="22.5" customHeight="1">
       <c r="A4" s="67"/>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="108" t="s">
+      <c r="G4" s="86"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="119" t="s">
+      <c r="J4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="119"/>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="119"/>
-      <c r="AO4" s="108" t="s">
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="88" t="s">
+      <c r="AP4" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="89"/>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="98" t="s">
+      <c r="AQ4" s="109"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="109"/>
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="109"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="BE4" s="80" t="s">
+      <c r="BE4" s="104" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2123,14 +2123,14 @@
       <c r="A5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="109"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="87"/>
       <c r="J5" s="1">
         <f>A2</f>
         <v>43709</v>
@@ -2255,62 +2255,62 @@
         <f>IF(AM5="","",IF(DAY(AM5+1)=DAY(J5),"",AM5+1))</f>
         <v/>
       </c>
-      <c r="AO5" s="109"/>
-      <c r="AP5" s="83" t="s">
+      <c r="AO5" s="87"/>
+      <c r="AP5" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="83" t="s">
+      <c r="AQ5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="83" t="s">
+      <c r="AR5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AS5" s="101" t="s">
+      <c r="AS5" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="AT5" s="91" t="s">
+      <c r="AT5" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="AU5" s="93" t="s">
+      <c r="AU5" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="93" t="s">
+      <c r="AV5" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="96" t="s">
+      <c r="AW5" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="83" t="s">
+      <c r="AX5" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="AY5" s="83" t="s">
+      <c r="AY5" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="AZ5" s="83" t="s">
+      <c r="AZ5" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="BA5" s="83" t="s">
+      <c r="BA5" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="BB5" s="83" t="s">
+      <c r="BB5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="BC5" s="104" t="s">
+      <c r="BC5" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="BD5" s="99"/>
-      <c r="BE5" s="81"/>
+      <c r="BD5" s="119"/>
+      <c r="BE5" s="105"/>
     </row>
     <row r="6" spans="1:57" ht="36" customHeight="1" thickBot="1">
       <c r="A6" s="68"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="110"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="88"/>
       <c r="J6" s="2" t="str">
         <f>CHOOSE(WEEKDAY(J5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")</f>
         <v xml:space="preserve">  CN</v>
@@ -2435,23 +2435,23 @@
         <f>IF(AN5&lt;&gt;"",CHOOSE(WEEKDAY(AN5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AO6" s="110"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="102"/>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="94"/>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="97"/>
-      <c r="AX6" s="84"/>
-      <c r="AY6" s="84"/>
-      <c r="AZ6" s="84"/>
-      <c r="BA6" s="84"/>
-      <c r="BB6" s="103"/>
-      <c r="BC6" s="105"/>
-      <c r="BD6" s="100"/>
-      <c r="BE6" s="82"/>
+      <c r="AO6" s="88"/>
+      <c r="AP6" s="110"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="122"/>
+      <c r="AT6" s="112"/>
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="115"/>
+      <c r="AW6" s="117"/>
+      <c r="AX6" s="107"/>
+      <c r="AY6" s="107"/>
+      <c r="AZ6" s="107"/>
+      <c r="BA6" s="107"/>
+      <c r="BB6" s="81"/>
+      <c r="BC6" s="83"/>
+      <c r="BD6" s="120"/>
+      <c r="BE6" s="106"/>
     </row>
     <row r="7" spans="1:57" s="39" customFormat="1" ht="21">
       <c r="A7" s="69"/>
@@ -2940,19 +2940,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="AO4:AO6"/>
-    <mergeCell ref="C4:C6"/>
     <mergeCell ref="BE4:BE6"/>
     <mergeCell ref="AR5:AR6"/>
     <mergeCell ref="D4:D6"/>
@@ -2969,6 +2956,19 @@
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="BD4:BD6"/>
     <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:AN9">
     <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">

--- a/media/utils/tmplexcel/liway_lv.xlsx
+++ b/media/utils/tmplexcel/liway_lv.xlsx
@@ -139,7 +139,7 @@
 (Remark 2)</t>
   </si>
   <si>
-    <t>function(){function e(e,t){var n={1051:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+1,n,o,l,"BC")},2677:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+2,n,o,l,"BC")},2676:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+3,n,o,l,"BC")},2678:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+4,n,o,l,"BC")},2506:function(e,n,a,o,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(n+1)+","+(o.cot+1)+",4)",0,0)),r(e,n,o.c0l+o.n1-7,a,l,u,"AW","sty_"+a.id)},2679:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-3,n,o,l,"AW")},2680:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-4,n,o,l,"AW")},2502:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-5,n,o,l,"AW")},2675:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-6,n,o,l,"AW")},2674:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-7,n,o,l,"AW")},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),e.setValue(t,o.cot,0==r.selo?r.tong:a(r.tong/8)),n[r.id]&amp;&amp;n[r.id](e,t,r,o,l,u)},lv_nga:function(e,a,o,r,l,u,i,c){t.sortOrder(r,t.lvR).forEach(function(r){l.R.forEach(function(l){if(l.regid==r){var s=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;i?i:l.todate)+1):l.todate=new Date(s);s&lt;=l.todate;)-1==t.DUP.indexOf(s.getTime())&amp;&amp;u&lt;=s&amp;&amp;s&lt;=i&amp;&amp;(n.render_LV(e,a,o,l,s,c),t.DUP.unshift(s.getTime())),s=new Date(s.setDate(s.getDate()+1))}})})}},a=function(e){return Math.round(1e4*e)/1e4},o={sty_2506:{style:{foreColor:"red"}}},r=function(e,n,o,r,l,u,i,c){var s=e.getCell(n,o),d=s.value()||0;s.value(d+(0==r.selo?r.tong:a(r.tong/8))),u[r.id]&amp;&amp;(d=(s=t[i][r.id]||(t[i][r.id]=[]))[r.regid]||(s[r.regid]=[]),s=[new Date(l),r.selo,r.tong],c&amp;&amp;(s[3]=c),d.push(s))},l=function(e,n){var a=[];for(var r in t[e])t[e].hasOwnProperty(r)&amp;&amp;t[e][r].forEach(function(e,t){var l=e.reduce(function(e,t){return e+=t[2]},0),u=" day",i=n[r][1];1==e[0][1]&amp;&amp;(u=" hour"),u=i+" "+l+u+(l&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")",(i=e[0][3]?o[e[0][3]]:{}).text=u,a.push([e[0][0].getTime(),JSON.stringify(i)])});return a.sort(function(e,t){return e[0]-t[0]}).map(function(e,t){var n=JSON.parse(e[1]);return t&gt;0&amp;&amp;(n.text="\r\n"+n.text),n})};t.ex_lv=function(a,o,r){var u=7,i=a.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,c=o.emp.length,s=new Date(new Date(r[2]).setHours(0,0,0,0)),d=new Date(new Date(r[3]).setHours(0,0,0,0));c&lt;3?a.deleteRows(u,c&gt;0?3-c-0:2):a.addRows(u,c-3+0),u-=1,a.setValue(1,0,new Date(s.getFullYear(),s.getMonth(),1)),a.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(r[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+r[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(r[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(r[3])+")"}]});var f=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(r[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),p=o.ot_lv.reduce(function(e,t){var n=e[t.id]||(e[t.id]=[]);return n.push(t.ma),n.push(t.ten),e},{}),h={clrDY:a.getRange("J"+u+":AN"+u),clrRng:a.getRange("AP"+u+":BC"+u),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;c;C++)a.copyTo(6,0,u+C,0,1,i,GC.Spread.Sheets.CopyToOptions.all);for(C=0;C&lt;c;C++){var D=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],a.setValue(u+C,h.c0l,f),a.setValue(u+C,1,C+1),a.setValue(u+C,3,D.EmpCode),a.setValue(u+C,4,D.EmpName),a.setValue(u+C,5,D.eid),g[D.eid]&amp;&amp;n.lv_nga(a,u+C,h,g[D.eid],o,s,d,p),t.BC=l("BC",p),t.BC.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n2,{richText:t.BC}),t.AW=l("AW",p),t.AW.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n1,{richText:t.AW}),a.setValue(u+C,h.c0l+h.n2+1,D.tenpb),a.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;a.setValue(2,0,","+t.A3.join(","));var v=u+c,S=a.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=a.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=a.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
+    <t>function(){function e(e,t){var n={1051:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+1,n,o,l,"BC")},2677:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+2,n,o,l,"BC")},2676:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+3,n,o,l,"BC")},2678:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+4,n,o,l,"BC")},2506:function(e,n,a,o,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(n+1)+","+(o.cot+1)+",4)",0,0)),r(e,n,o.c0l+o.n1-7,a,l,u,"AW","sty_"+a.id)},2679:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-3,n,o,l,"AW")},2680:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-4,n,o,l,"AW")},2502:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-5,n,o,l,"AW")},2675:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-6,n,o,l,"AW")},2674:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-7,n,o,l,"AW")},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),n[r.id]&amp;&amp;(e.setValue(t,o.cot,0==r.selo?r.tong:a(r.tong/8)),n[r.id](e,t,r,o,l,u))},lv_nga:function(e,a,o,r,l,u,i,c){t.sortOrder(r,t.lvR).forEach(function(r){l.R.forEach(function(l){if(l.regid==r){var s=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;i?i:l.todate)+1):l.todate=new Date(s);s&lt;=l.todate;)-1==t.DUP.indexOf(s.getTime())&amp;&amp;u&lt;=s&amp;&amp;s&lt;=i&amp;&amp;(n.render_LV(e,a,o,l,s,c),t.DUP.unshift(s.getTime())),s=new Date(s.setDate(s.getDate()+1))}})})}},a=function(e){return Math.round(1e4*e)/1e4},o={sty_2506:{style:{foreColor:"red"}}},r=function(e,n,o,r,l,u,i,c){var s=e.getCell(n,o),d=s.value()||0;s.value(d+(0==r.selo?r.tong:a(r.tong/8))),u[r.id]&amp;&amp;(d=(s=t[i][r.id]||(t[i][r.id]=[]))[r.regid]||(s[r.regid]=[]),s=[new Date(l),r.selo,r.tong],c&amp;&amp;(s[3]=c),d.push(s))},l=function(e,n){var a=[];for(var r in t[e])t[e].hasOwnProperty(r)&amp;&amp;t[e][r].forEach(function(e,t){var l=e.reduce(function(e,t){return e+=t[2]},0),u=" day",i=n[r][1];1==e[0][1]&amp;&amp;(u=" hour"),u=i+" "+l+u+(l&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")",(i=e[0][3]?o[e[0][3]]:{}).text=u,a.push([e[0][0].getTime(),JSON.stringify(i)])});return a.sort(function(e,t){return e[0]-t[0]}).map(function(e,t){var n=JSON.parse(e[1]);return t&gt;0&amp;&amp;(n.text="\r\n"+n.text),n})};t.ex_lv=function(a,o,r){var u=7,i=a.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,c=o.emp.length,s=new Date(new Date(r[2]).setHours(0,0,0,0)),d=new Date(new Date(r[3]).setHours(0,0,0,0));c&lt;3?a.deleteRows(u,c&gt;0?3-c-0:2):a.addRows(u,c-3+0),u-=1,a.setValue(1,0,new Date(s.getFullYear(),s.getMonth(),1)),a.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(r[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+r[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(r[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(r[3])+")"}]});var f=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(r[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),p=o.ot_lv.reduce(function(e,t){var n=e[t.id]||(e[t.id]=[]);return n.push(t.ma),n.push(t.ten),e},{}),h={clrDY:a.getRange("J"+u+":AN"+u),clrRng:a.getRange("AP"+u+":BC"+u),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;c;C++)a.copyTo(6,0,u+C,0,1,i,GC.Spread.Sheets.CopyToOptions.all);for(C=0;C&lt;c;C++){var D=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],a.setValue(u+C,h.c0l,f),a.setValue(u+C,1,C+1),a.setValue(u+C,3,D.EmpCode),a.setValue(u+C,4,D.EmpName),a.setValue(u+C,5,D.eid),g[D.eid]&amp;&amp;n.lv_nga(a,u+C,h,g[D.eid],o,s,d,p),t.BC=l("BC",p),t.BC.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n2,{richText:t.BC}),t.AW=l("AW",p),t.AW.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n1,{richText:t.AW}),a.setValue(u+C,h.c0l+h.n2+1,D.tenpb),a.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;a.setValue(2,0,","+t.A3.join(","));var v=u+c,S=a.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=a.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=a.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
   </si>
 </sst>
 </file>
@@ -1202,69 +1202,19 @@
     <xf numFmtId="2" fontId="35" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1274,16 +1224,6 @@
     <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1319,6 +1259,66 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="5"/>
@@ -1859,16 +1859,16 @@
   <sheetData>
     <row r="1" spans="1:57" ht="47.25" customHeight="1">
       <c r="A1" s="64"/>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -1982,18 +1982,18 @@
     </row>
     <row r="3" spans="1:57" s="20" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="66"/>
-      <c r="B3" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
+      <c r="B3" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -2042,80 +2042,80 @@
     </row>
     <row r="4" spans="1:57" ht="22.5" customHeight="1">
       <c r="A4" s="67"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="86" t="s">
+      <c r="G4" s="108"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="97" t="s">
+      <c r="J4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="97"/>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="97"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="86" t="s">
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="119"/>
+      <c r="AM4" s="119"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="108" t="s">
+      <c r="AP4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AQ4" s="109"/>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="109"/>
-      <c r="AT4" s="109"/>
-      <c r="AU4" s="109"/>
-      <c r="AV4" s="109"/>
-      <c r="AW4" s="109"/>
-      <c r="AX4" s="109"/>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="109"/>
-      <c r="BA4" s="109"/>
-      <c r="BB4" s="109"/>
-      <c r="BC4" s="109"/>
-      <c r="BD4" s="118" t="s">
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="BE4" s="104" t="s">
+      <c r="BE4" s="80" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2123,14 +2123,14 @@
       <c r="A5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="87"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="109"/>
       <c r="J5" s="1">
         <f>A2</f>
         <v>43709</v>
@@ -2255,62 +2255,62 @@
         <f>IF(AM5="","",IF(DAY(AM5+1)=DAY(J5),"",AM5+1))</f>
         <v/>
       </c>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="80" t="s">
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="80" t="s">
+      <c r="AQ5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="80" t="s">
+      <c r="AR5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="AS5" s="121" t="s">
+      <c r="AS5" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="AT5" s="111" t="s">
+      <c r="AT5" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="AU5" s="113" t="s">
+      <c r="AU5" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="113" t="s">
+      <c r="AV5" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="116" t="s">
+      <c r="AW5" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="80" t="s">
+      <c r="AX5" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="AY5" s="80" t="s">
+      <c r="AY5" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="AZ5" s="80" t="s">
+      <c r="AZ5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="BA5" s="80" t="s">
+      <c r="BA5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="BB5" s="80" t="s">
+      <c r="BB5" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="BC5" s="82" t="s">
+      <c r="BC5" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="BD5" s="119"/>
-      <c r="BE5" s="105"/>
+      <c r="BD5" s="99"/>
+      <c r="BE5" s="81"/>
     </row>
     <row r="6" spans="1:57" ht="36" customHeight="1" thickBot="1">
       <c r="A6" s="68"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="88"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="2" t="str">
         <f>CHOOSE(WEEKDAY(J5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")</f>
         <v xml:space="preserve">  CN</v>
@@ -2435,23 +2435,23 @@
         <f>IF(AN5&lt;&gt;"",CHOOSE(WEEKDAY(AN5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AO6" s="88"/>
-      <c r="AP6" s="110"/>
-      <c r="AQ6" s="107"/>
-      <c r="AR6" s="107"/>
-      <c r="AS6" s="122"/>
-      <c r="AT6" s="112"/>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="115"/>
-      <c r="AW6" s="117"/>
-      <c r="AX6" s="107"/>
-      <c r="AY6" s="107"/>
-      <c r="AZ6" s="107"/>
-      <c r="BA6" s="107"/>
-      <c r="BB6" s="81"/>
-      <c r="BC6" s="83"/>
-      <c r="BD6" s="120"/>
-      <c r="BE6" s="106"/>
+      <c r="AO6" s="110"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="102"/>
+      <c r="AT6" s="92"/>
+      <c r="AU6" s="94"/>
+      <c r="AV6" s="95"/>
+      <c r="AW6" s="97"/>
+      <c r="AX6" s="84"/>
+      <c r="AY6" s="84"/>
+      <c r="AZ6" s="84"/>
+      <c r="BA6" s="84"/>
+      <c r="BB6" s="103"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="100"/>
+      <c r="BE6" s="82"/>
     </row>
     <row r="7" spans="1:57" s="39" customFormat="1" ht="21">
       <c r="A7" s="69"/>
@@ -2940,6 +2940,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="BE4:BE6"/>
     <mergeCell ref="AR5:AR6"/>
     <mergeCell ref="D4:D6"/>
@@ -2956,19 +2969,6 @@
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="BD4:BD6"/>
     <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="AO4:AO6"/>
-    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:AN9">
     <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">

--- a/media/utils/tmplexcel/liway_lv.xlsx
+++ b/media/utils/tmplexcel/liway_lv.xlsx
@@ -139,7 +139,7 @@
 (Remark 2)</t>
   </si>
   <si>
-    <t>function(){function e(e,t){var n={1051:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+1,n,o,l,"BC")},2677:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+2,n,o,l,"BC")},2676:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+3,n,o,l,"BC")},2678:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+4,n,o,l,"BC")},2506:function(e,n,a,o,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(n+1)+","+(o.cot+1)+",4)",0,0)),r(e,n,o.c0l+o.n1-7,a,l,u,"AW","sty_"+a.id)},2679:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-3,n,o,l,"AW")},2680:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-4,n,o,l,"AW")},2502:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-5,n,o,l,"AW")},2675:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-6,n,o,l,"AW")},2674:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-7,n,o,l,"AW")},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),n[r.id]&amp;&amp;(e.setValue(t,o.cot,0==r.selo?r.tong:a(r.tong/8)),n[r.id](e,t,r,o,l,u))},lv_nga:function(e,a,o,r,l,u,i,c){t.sortOrder(r,t.lvR).forEach(function(r){l.R.forEach(function(l){if(l.regid==r){var s=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;i?i:l.todate)+1):l.todate=new Date(s);s&lt;=l.todate;)-1==t.DUP.indexOf(s.getTime())&amp;&amp;u&lt;=s&amp;&amp;s&lt;=i&amp;&amp;(n.render_LV(e,a,o,l,s,c),t.DUP.unshift(s.getTime())),s=new Date(s.setDate(s.getDate()+1))}})})}},a=function(e){return Math.round(1e4*e)/1e4},o={sty_2506:{style:{foreColor:"red"}}},r=function(e,n,o,r,l,u,i,c){var s=e.getCell(n,o),d=s.value()||0;s.value(d+(0==r.selo?r.tong:a(r.tong/8))),u[r.id]&amp;&amp;(d=(s=t[i][r.id]||(t[i][r.id]=[]))[r.regid]||(s[r.regid]=[]),s=[new Date(l),r.selo,r.tong],c&amp;&amp;(s[3]=c),d.push(s))},l=function(e,n){var a=[];for(var r in t[e])t[e].hasOwnProperty(r)&amp;&amp;t[e][r].forEach(function(e,t){var l=e.reduce(function(e,t){return e+=t[2]},0),u=" day",i=n[r][1];1==e[0][1]&amp;&amp;(u=" hour"),u=i+" "+l+u+(l&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")",(i=e[0][3]?o[e[0][3]]:{}).text=u,a.push([e[0][0].getTime(),JSON.stringify(i)])});return a.sort(function(e,t){return e[0]-t[0]}).map(function(e,t){var n=JSON.parse(e[1]);return t&gt;0&amp;&amp;(n.text="\r\n"+n.text),n})};t.ex_lv=function(a,o,r){var u=7,i=a.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,c=o.emp.length,s=new Date(new Date(r[2]).setHours(0,0,0,0)),d=new Date(new Date(r[3]).setHours(0,0,0,0));c&lt;3?a.deleteRows(u,c&gt;0?3-c-0:2):a.addRows(u,c-3+0),u-=1,a.setValue(1,0,new Date(s.getFullYear(),s.getMonth(),1)),a.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(r[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+r[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(r[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(r[3])+")"}]});var f=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(r[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),p=o.ot_lv.reduce(function(e,t){var n=e[t.id]||(e[t.id]=[]);return n.push(t.ma),n.push(t.ten),e},{}),h={clrDY:a.getRange("J"+u+":AN"+u),clrRng:a.getRange("AP"+u+":BC"+u),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;c;C++)a.copyTo(6,0,u+C,0,1,i,GC.Spread.Sheets.CopyToOptions.all);for(C=0;C&lt;c;C++){var D=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],a.setValue(u+C,h.c0l,f),a.setValue(u+C,1,C+1),a.setValue(u+C,3,D.EmpCode),a.setValue(u+C,4,D.EmpName),a.setValue(u+C,5,D.eid),g[D.eid]&amp;&amp;n.lv_nga(a,u+C,h,g[D.eid],o,s,d,p),t.BC=l("BC",p),t.BC.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n2,{richText:t.BC}),t.AW=l("AW",p),t.AW.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n1,{richText:t.AW}),a.setValue(u+C,h.c0l+h.n2+1,D.tenpb),a.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;a.setValue(2,0,","+t.A3.join(","));var v=u+c,S=a.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=a.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=a.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
+    <t>function(){function e(e,t){var n={1051:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+1,n,o,l,"BC")},2677:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+2,n,o,l,"BC")},2676:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+3,n,o,l,"BC")},2678:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+4,n,o,l,"BC")},2506:function(e,n,a,o,l,u){t.A3.push(GC.Spread.Sheets.CalcEngine.evaluateFormula(e,"=ADDRESS("+(n+1)+","+(o.cot+1)+",4)",0,0)),r(e,n,o.c0l+o.n1-7,a,l,u,"AW","sty_"+a.id)},2679:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-3,n,o,l,"AW")},2680:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-4,n,o,l,"AW")},2502:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-5,n,o,l,"AW")},2675:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-6,n,o,l,"AW")},2674:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1-7,n,o,l,"AW")},2776:function(e,t,n,a,o,l){r(e,t,a.c0l+a.n1+5,n,o,l,"BC","sty_"+n.id)},render_LV:function(e,t,o,r,l,u){o.cot=o.c0l+l.getDate(),n[r.id]&amp;&amp;(e.setValue(t,o.cot,0==r.selo?r.tong:a(r.tong/8)),n[r.id](e,t,r,o,l,u))},lv_nga:function(e,a,o,r,l,u,i,c){t.sortOrder(r,t.lvR).forEach(function(r){l.R.forEach(function(l){if(l.regid==r){var s=new Date(new Date(l.EachDate).setHours(0,0,0,0));for(0==l.selo?(l.tong=1,l.todate=new Date(new Date(l.todate).setHours(0,0,0,0)),l._nga=difDa(l.EachDate&lt;u?u:l.EachDate,l.todate&gt;i?i:l.todate)+1):l.todate=new Date(s);s&lt;=l.todate;)-1==t.DUP.indexOf(s.getTime())&amp;&amp;u&lt;=s&amp;&amp;s&lt;=i&amp;&amp;(n.render_LV(e,a,o,l,s,c),t.DUP.unshift(s.getTime())),s=new Date(s.setDate(s.getDate()+1))}})})}},a=function(e){return Math.round(1e4*e)/1e4},o={sty_2506:{style:{foreColor:"red"}},sty_2776:{style:{foreColor:"red"}}},r=function(e,n,o,r,l,u,i,c){var s=e.getCell(n,o),d=s.value()||0;s.value(d+(0==r.selo?r.tong:a(r.tong/8))),u[r.id]&amp;&amp;(d=(s=t[i][r.id]||(t[i][r.id]=[]))[r.regid]||(s[r.regid]=[]),s=[new Date(l),r.selo,r.tong],c&amp;&amp;(s[3]=c),d.push(s))},l=function(e,n){var a=[];for(var r in t[e])t[e].hasOwnProperty(r)&amp;&amp;t[e][r].forEach(function(e,t){var l=e.reduce(function(e,t){return e+=t[2]},0),u=" day",i=n[r][1];1==e[0][1]&amp;&amp;(u=" hour"),u=i+" "+l+u+(l&gt;1?"s":"")+" ("+(e.length&gt;1?pad$(e[0][0].getDate(),2)+" - ":"")+pad$(e[e.length-1][0].getDate(),2)+"/"+pad$(e[0][0].getMonth()+1,2)+")",(i=e[0][3]?o[e[0][3]]:{}).text=u,a.push([e[0][0].getTime(),JSON.stringify(i)])});return a.sort(function(e,t){return e[0]-t[0]}).map(function(e,t){var n=JSON.parse(e[1]);return t&gt;0&amp;&amp;(n.text="\r\n"+n.text),n})};t.ex_lv=function(a,o,r){var u=7,i=a.getUsedRange(GC.Spread.Sheets.UsedRangeType.all).colCount,c=o.emp.length,s=new Date(new Date(r[2]).setHours(0,0,0,0)),d=new Date(new Date(r[3]).setHours(0,0,0,0));c&lt;3?a.deleteRows(u,c&gt;0?3-c-0:2):a.addRows(u,c-3+0),u-=1,a.setValue(1,0,new Date(s.getFullYear(),s.getMonth(),1)),a.setValue(2,1,{richText:[{style:{font:"14pt Calibri"},text:(e.lan.js_012_24||"Month").replace(":","")+" "+pad$(r[2].getMonth()+1,2)+" "+(e.lan.js_012_25||"Year").replace(":","")+" "+r[2].getFullYear()},{style:{font:"italic 12pt Calibri",foreColor:"red"},text:" ("+(e.lan.js_012_22||"from date").toLowerCase()+": "+fmtSD.format(r[2])+" - "+(e.lan.js_012_23||"to date").toLowerCase()+": "+fmtSD.format(r[3])+")"}]});var f=new Intl.DateTimeFormat(apisvr.a$.selected_language,{month:"short"}).format(r[2]),g=o.E.reduce(function(e,t){return(e[t.eid]||(e[t.eid]=[])).push(t.pid),e},{}),p=o.ot_lv.reduce(function(e,t){var n=e[t.id]||(e[t.id]=[]);return n.push(t.ma),n.push(t.ten),e},{}),h={clrDY:a.getRange("J"+u+":AN"+u),clrRng:a.getRange("AP"+u+":BC"+u),c0l:8,n1:40,n2:46};GC.Spread.Sheets.CopyToOptions;t.A3=[],t.lvR=[],o.R.map(function(e){t.lvR.push(e.regid)});for(var C=0;C&lt;c;C++)a.copyTo(6,0,u+C,0,1,i,GC.Spread.Sheets.CopyToOptions.all);for(C=0;C&lt;c;C++){var D=o.emp[C];t.AW={},t.BC={},t.DUP=[-1],a.setValue(u+C,h.c0l,f),a.setValue(u+C,1,C+1),a.setValue(u+C,3,D.EmpCode),a.setValue(u+C,4,D.EmpName),a.setValue(u+C,5,D.eid),g[D.eid]&amp;&amp;n.lv_nga(a,u+C,h,g[D.eid],o,s,d,p),t.BC=l("BC",p),t.BC.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n2,{richText:t.BC}),t.AW=l("AW",p),t.AW.length&gt;0&amp;&amp;a.setValue(u+C,h.c0l+h.n1,{richText:t.AW}),a.setValue(u+C,h.c0l+h.n2+1,D.tenpb),a.autoFitRow(u+C)}t.A3.length&gt;0&amp;&amp;a.setValue(2,0,","+t.A3.join(","));var v=u+c,S=a.getRange("AW6:AW"+v,GC.Spread.Sheets.SheetArea.all);S.font("11pt"),(S=a.getRange("BC6:BC"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt"),(S=a.getRange("I6:I"+v,GC.Spread.Sheets.SheetArea.all)).font("11pt")}}return e.prototype.publicSharedVar="quux",e.prototype.publicSharedMethod=function(e){},e}();</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
     <xf numFmtId="168" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1202,6 +1202,78 @@
     <xf numFmtId="2" fontId="35" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1211,19 +1283,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,65 +1319,14 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="10" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="10" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1825,7 +1834,7 @@
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1859,16 +1868,16 @@
   <sheetData>
     <row r="1" spans="1:57" ht="47.25" customHeight="1">
       <c r="A1" s="64"/>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -1982,18 +1991,18 @@
     </row>
     <row r="3" spans="1:57" s="20" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="66"/>
-      <c r="B3" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
+      <c r="B3" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -2042,80 +2051,80 @@
     </row>
     <row r="4" spans="1:57" ht="22.5" customHeight="1">
       <c r="A4" s="67"/>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="108" t="s">
+      <c r="G4" s="86"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="119" t="s">
+      <c r="J4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="119"/>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="119"/>
-      <c r="AO4" s="108" t="s">
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="88" t="s">
+      <c r="AP4" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="89"/>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="98" t="s">
+      <c r="AQ4" s="109"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="109"/>
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="109"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="BE4" s="80" t="s">
+      <c r="BE4" s="104" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2123,14 +2132,14 @@
       <c r="A5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="109"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="87"/>
       <c r="J5" s="1">
         <f>A2</f>
         <v>43709</v>
@@ -2255,62 +2264,62 @@
         <f>IF(AM5="","",IF(DAY(AM5+1)=DAY(J5),"",AM5+1))</f>
         <v/>
       </c>
-      <c r="AO5" s="109"/>
-      <c r="AP5" s="83" t="s">
+      <c r="AO5" s="87"/>
+      <c r="AP5" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="83" t="s">
+      <c r="AQ5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="83" t="s">
+      <c r="AR5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AS5" s="101" t="s">
+      <c r="AS5" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="AT5" s="91" t="s">
+      <c r="AT5" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="AU5" s="93" t="s">
+      <c r="AU5" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="AV5" s="93" t="s">
+      <c r="AV5" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="96" t="s">
+      <c r="AW5" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="83" t="s">
+      <c r="AX5" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="AY5" s="83" t="s">
+      <c r="AY5" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="AZ5" s="83" t="s">
+      <c r="AZ5" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="BA5" s="83" t="s">
+      <c r="BA5" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="BB5" s="83" t="s">
+      <c r="BB5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="BC5" s="104" t="s">
+      <c r="BC5" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="BD5" s="99"/>
-      <c r="BE5" s="81"/>
+      <c r="BD5" s="119"/>
+      <c r="BE5" s="105"/>
     </row>
     <row r="6" spans="1:57" ht="36" customHeight="1" thickBot="1">
       <c r="A6" s="68"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="110"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="88"/>
       <c r="J6" s="2" t="str">
         <f>CHOOSE(WEEKDAY(J5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")</f>
         <v xml:space="preserve">  CN</v>
@@ -2435,23 +2444,23 @@
         <f>IF(AN5&lt;&gt;"",CHOOSE(WEEKDAY(AN5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AO6" s="110"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="102"/>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="94"/>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="97"/>
-      <c r="AX6" s="84"/>
-      <c r="AY6" s="84"/>
-      <c r="AZ6" s="84"/>
-      <c r="BA6" s="84"/>
-      <c r="BB6" s="103"/>
-      <c r="BC6" s="105"/>
-      <c r="BD6" s="100"/>
-      <c r="BE6" s="82"/>
+      <c r="AO6" s="88"/>
+      <c r="AP6" s="110"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="122"/>
+      <c r="AT6" s="112"/>
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="115"/>
+      <c r="AW6" s="117"/>
+      <c r="AX6" s="107"/>
+      <c r="AY6" s="107"/>
+      <c r="AZ6" s="107"/>
+      <c r="BA6" s="107"/>
+      <c r="BB6" s="81"/>
+      <c r="BC6" s="83"/>
+      <c r="BD6" s="120"/>
+      <c r="BE6" s="106"/>
     </row>
     <row r="7" spans="1:57" s="39" customFormat="1" ht="21">
       <c r="A7" s="69"/>
@@ -2510,7 +2519,7 @@
       <c r="AY7" s="42"/>
       <c r="AZ7" s="42"/>
       <c r="BA7" s="42"/>
-      <c r="BB7" s="42"/>
+      <c r="BB7" s="123"/>
       <c r="BC7" s="57"/>
       <c r="BD7" s="54"/>
       <c r="BE7" s="38" t="s">
@@ -2574,7 +2583,7 @@
       <c r="AY8" s="13"/>
       <c r="AZ8" s="13"/>
       <c r="BA8" s="13"/>
-      <c r="BB8" s="13"/>
+      <c r="BB8" s="124"/>
       <c r="BC8" s="58"/>
       <c r="BD8" s="55"/>
       <c r="BE8" s="40" t="s">
@@ -2638,7 +2647,7 @@
       <c r="AY9" s="13"/>
       <c r="AZ9" s="13"/>
       <c r="BA9" s="13"/>
-      <c r="BB9" s="13"/>
+      <c r="BB9" s="124"/>
       <c r="BC9" s="58"/>
       <c r="BD9" s="56"/>
       <c r="BE9" s="41" t="s">
@@ -2832,7 +2841,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BB10" s="78">
+      <c r="BB10" s="125">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2940,19 +2949,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="AO4:AO6"/>
-    <mergeCell ref="C4:C6"/>
     <mergeCell ref="BE4:BE6"/>
     <mergeCell ref="AR5:AR6"/>
     <mergeCell ref="D4:D6"/>
@@ -2969,6 +2965,19 @@
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="BD4:BD6"/>
     <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="J4:AN4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:AN9">
     <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
